--- a/pMP/data.xlsx
+++ b/pMP/data.xlsx
@@ -454,1102 +454,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61.94776322290583</v>
+        <v>-78.12686729808617</v>
       </c>
       <c r="B2" t="n">
-        <v>14.85339586780996</v>
+        <v>92.1045363226776</v>
       </c>
       <c r="C2" t="n">
-        <v>63.86468260144057</v>
+        <v>93.92965190527397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-69.62282548949659</v>
+        <v>-81.1015545886405</v>
       </c>
       <c r="B3" t="n">
-        <v>-41.7642990081577</v>
+        <v>-25.77682064794594</v>
       </c>
       <c r="C3" t="n">
-        <v>94.23880736407963</v>
+        <v>88.52376888488057</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73.58739786728246</v>
+        <v>92.99990845500527</v>
       </c>
       <c r="B4" t="n">
-        <v>87.92991921821927</v>
+        <v>60.20777767998008</v>
       </c>
       <c r="C4" t="n">
-        <v>54.38242883153914</v>
+        <v>87.54774206830655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.436791499445192</v>
+        <v>13.97606192701747</v>
       </c>
       <c r="B5" t="n">
-        <v>84.8782665134399</v>
+        <v>4.610811535375714</v>
       </c>
       <c r="C5" t="n">
-        <v>64.80198372032673</v>
+        <v>51.72481288574931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-75.59028987687134</v>
+        <v>-29.32591915800414</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.26383841485134</v>
+        <v>79.39539360194513</v>
       </c>
       <c r="C6" t="n">
-        <v>52.0180502287513</v>
+        <v>77.63257787198658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-81.43745918042057</v>
+        <v>-5.672252291297464</v>
       </c>
       <c r="B7" t="n">
-        <v>94.46929469252629</v>
+        <v>97.99721027153339</v>
       </c>
       <c r="C7" t="n">
-        <v>63.19489168631806</v>
+        <v>75.03525180673537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>67.35506281891955</v>
+        <v>70.10231932605886</v>
       </c>
       <c r="B8" t="n">
-        <v>-98.87920795980482</v>
+        <v>58.45772400778417</v>
       </c>
       <c r="C8" t="n">
-        <v>76.03448156626673</v>
+        <v>93.67158333664962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-58.51433816697641</v>
+        <v>-59.80225015449664</v>
       </c>
       <c r="B9" t="n">
-        <v>-61.89132790932135</v>
+        <v>83.42739659928091</v>
       </c>
       <c r="C9" t="n">
-        <v>66.55404811799026</v>
+        <v>77.15923475977488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-58.26705536383731</v>
+        <v>35.18598237334598</v>
       </c>
       <c r="B10" t="n">
-        <v>-36.97739091409744</v>
+        <v>-69.91038551480034</v>
       </c>
       <c r="C10" t="n">
-        <v>58.45150686976241</v>
+        <v>77.27887705072072</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43.25669391088247</v>
+        <v>-97.79439598208077</v>
       </c>
       <c r="B11" t="n">
-        <v>69.49793708402345</v>
+        <v>99.27555800798135</v>
       </c>
       <c r="C11" t="n">
-        <v>87.47070623651483</v>
+        <v>65.18253178848052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-96.61626873207369</v>
+        <v>-36.72007038484254</v>
       </c>
       <c r="B12" t="n">
-        <v>15.88032314074294</v>
+        <v>8.914741371985514</v>
       </c>
       <c r="C12" t="n">
-        <v>60.29715987491692</v>
+        <v>67.70675725744731</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>49.20180885211718</v>
+        <v>42.85382588616725</v>
       </c>
       <c r="B13" t="n">
-        <v>-99.25129167910269</v>
+        <v>-19.1507692570958</v>
       </c>
       <c r="C13" t="n">
-        <v>63.8464972926049</v>
+        <v>52.68668301668033</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-13.8226735483555</v>
+        <v>88.31427268038085</v>
       </c>
       <c r="B14" t="n">
-        <v>5.769955583046771</v>
+        <v>1.509211530680354</v>
       </c>
       <c r="C14" t="n">
-        <v>52.99430359483473</v>
+        <v>61.09111229194674</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-13.54077443687962</v>
+        <v>65.59341324575347</v>
       </c>
       <c r="B15" t="n">
-        <v>41.62257824862016</v>
+        <v>0.7415074527494792</v>
       </c>
       <c r="C15" t="n">
-        <v>79.58618504847286</v>
+        <v>94.23516344314848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.6665750704352602</v>
+        <v>-11.78366917549387</v>
       </c>
       <c r="B16" t="n">
-        <v>44.70294497500367</v>
+        <v>-36.11108460249658</v>
       </c>
       <c r="C16" t="n">
-        <v>91.9777813449049</v>
+        <v>73.13004024621513</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.159417899750372</v>
+        <v>-60.4878159613053</v>
       </c>
       <c r="B17" t="n">
-        <v>48.89920916217451</v>
+        <v>-22.22642097778466</v>
       </c>
       <c r="C17" t="n">
-        <v>72.5356565527492</v>
+        <v>98.95544206372156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>48.88731111340783</v>
+        <v>33.05623093498223</v>
       </c>
       <c r="B18" t="n">
-        <v>-85.63403856268994</v>
+        <v>62.93416850411687</v>
       </c>
       <c r="C18" t="n">
-        <v>89.73798730801317</v>
+        <v>60.13782112884088</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2.953816724181502</v>
+        <v>-40.52378016310085</v>
       </c>
       <c r="B19" t="n">
-        <v>51.75561365657791</v>
+        <v>48.61637973778657</v>
       </c>
       <c r="C19" t="n">
-        <v>69.42050893039089</v>
+        <v>88.46303416145841</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>60.77120633343076</v>
+        <v>72.9608043811523</v>
       </c>
       <c r="B20" t="n">
-        <v>67.34892673751629</v>
+        <v>65.70349909719666</v>
       </c>
       <c r="C20" t="n">
-        <v>71.4264894182854</v>
+        <v>78.42260928848188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.838589296803731</v>
+        <v>-0.3638934631944979</v>
       </c>
       <c r="B21" t="n">
-        <v>35.83779785682884</v>
+        <v>58.2679028289978</v>
       </c>
       <c r="C21" t="n">
-        <v>87.34744414896403</v>
+        <v>63.12943979629431</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>74.54301921028107</v>
+        <v>-89.06779067980244</v>
       </c>
       <c r="B22" t="n">
-        <v>92.36456384463595</v>
+        <v>21.10489026341624</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39852229083908</v>
+        <v>83.56882604705355</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-45.97402524553147</v>
+        <v>-57.45013831701111</v>
       </c>
       <c r="B23" t="n">
-        <v>-40.49979909421745</v>
+        <v>98.11279905048835</v>
       </c>
       <c r="C23" t="n">
-        <v>63.94147342250914</v>
+        <v>62.30176472336659</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-38.96871496634648</v>
+        <v>-16.79503034652452</v>
       </c>
       <c r="B24" t="n">
-        <v>14.56477915872736</v>
+        <v>36.47203443945671</v>
       </c>
       <c r="C24" t="n">
-        <v>63.95031720862232</v>
+        <v>92.90299787430068</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65.0918687478417</v>
+        <v>-14.2927213253999</v>
       </c>
       <c r="B25" t="n">
-        <v>68.89681274275399</v>
+        <v>-59.36380671318966</v>
       </c>
       <c r="C25" t="n">
-        <v>89.9592813321613</v>
+        <v>73.00321455927622</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-98.24849504644557</v>
+        <v>-53.97133359104846</v>
       </c>
       <c r="B26" t="n">
-        <v>50.80763971761854</v>
+        <v>98.41520568772317</v>
       </c>
       <c r="C26" t="n">
-        <v>51.65870625100036</v>
+        <v>69.50514723696513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>77.01830023179549</v>
+        <v>5.973363928490894</v>
       </c>
       <c r="B27" t="n">
-        <v>51.74506141398071</v>
+        <v>95.97971118366605</v>
       </c>
       <c r="C27" t="n">
-        <v>95.41509609951365</v>
+        <v>91.11577043832459</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>85.11424336709639</v>
+        <v>73.60058598077983</v>
       </c>
       <c r="B28" t="n">
-        <v>-6.446350435009707</v>
+        <v>24.8065234746545</v>
       </c>
       <c r="C28" t="n">
-        <v>98.42138609266884</v>
+        <v>85.42881312292133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-73.25346560791918</v>
+        <v>11.1816155737039</v>
       </c>
       <c r="B29" t="n">
-        <v>17.95733858938452</v>
+        <v>88.7541156777099</v>
       </c>
       <c r="C29" t="n">
-        <v>98.65416105277581</v>
+        <v>90.46603896350547</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.066789071349328</v>
+        <v>59.15624568286072</v>
       </c>
       <c r="B30" t="n">
-        <v>-14.82869572022583</v>
+        <v>25.01166865653721</v>
       </c>
       <c r="C30" t="n">
-        <v>64.03883455625892</v>
+        <v>81.21955493599485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-74.68398149191054</v>
+        <v>-25.14236680901914</v>
       </c>
       <c r="B31" t="n">
-        <v>-8.246111545447231</v>
+        <v>-30.59710559598816</v>
       </c>
       <c r="C31" t="n">
-        <v>96.55742254090015</v>
+        <v>58.17824196905801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.944688465829298</v>
+        <v>-44.05933968730113</v>
       </c>
       <c r="B32" t="n">
-        <v>62.18038319305544</v>
+        <v>47.76973302446228</v>
       </c>
       <c r="C32" t="n">
-        <v>86.9467546531931</v>
+        <v>73.69821011926167</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96.67851264894988</v>
+        <v>-83.04711959874588</v>
       </c>
       <c r="B33" t="n">
-        <v>63.83516784840294</v>
+        <v>80.87055515079994</v>
       </c>
       <c r="C33" t="n">
-        <v>70.2675718299368</v>
+        <v>55.6548210536988</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-46.21498158235701</v>
+        <v>63.10854397306817</v>
       </c>
       <c r="B34" t="n">
-        <v>40.92943993010155</v>
+        <v>60.65441808316606</v>
       </c>
       <c r="C34" t="n">
-        <v>76.44047663675667</v>
+        <v>69.68424040624282</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-26.48381186374147</v>
+        <v>81.4546489109775</v>
       </c>
       <c r="B35" t="n">
-        <v>27.80960073620468</v>
+        <v>-95.07244294689451</v>
       </c>
       <c r="C35" t="n">
-        <v>86.39631421293946</v>
+        <v>77.6321959133858</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35.44972445353616</v>
+        <v>19.74910088145396</v>
       </c>
       <c r="B36" t="n">
-        <v>-44.92959859969181</v>
+        <v>-99.33638027642867</v>
       </c>
       <c r="C36" t="n">
-        <v>99.79501479202607</v>
+        <v>63.05230030916305</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-70.33420768475845</v>
+        <v>-4.708371778498588</v>
       </c>
       <c r="B37" t="n">
-        <v>65.90657949236729</v>
+        <v>-71.57949726799659</v>
       </c>
       <c r="C37" t="n">
-        <v>67.90486320542013</v>
+        <v>79.39150284032249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>41.05099869467308</v>
+        <v>58.1638192366056</v>
       </c>
       <c r="B38" t="n">
-        <v>-7.749484905385007</v>
+        <v>0.09740589874979166</v>
       </c>
       <c r="C38" t="n">
-        <v>54.12310402138519</v>
+        <v>56.59174137192994</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>86.62811476488608</v>
+        <v>-85.62389950694346</v>
       </c>
       <c r="B39" t="n">
-        <v>-24.77146262463112</v>
+        <v>48.05215712554948</v>
       </c>
       <c r="C39" t="n">
-        <v>92.56433904566173</v>
+        <v>90.79995227049081</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-28.92941480368452</v>
+        <v>19.80743395686755</v>
       </c>
       <c r="B40" t="n">
-        <v>92.51957944924</v>
+        <v>5.26588264830078</v>
       </c>
       <c r="C40" t="n">
-        <v>93.59111044469037</v>
+        <v>77.87182558036996</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.90093013915649</v>
+        <v>-99.52389012068875</v>
       </c>
       <c r="B41" t="n">
-        <v>42.69079781364496</v>
+        <v>-78.51032707134105</v>
       </c>
       <c r="C41" t="n">
-        <v>60.38327703378631</v>
+        <v>86.04950804063949</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>16.25502857664525</v>
+        <v>11.04243566841611</v>
       </c>
       <c r="B42" t="n">
-        <v>-24.39654418058868</v>
+        <v>-56.71185264274887</v>
       </c>
       <c r="C42" t="n">
-        <v>78.17873668518922</v>
+        <v>62.10744503240784</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-13.33954097723547</v>
+        <v>-29.37870224328972</v>
       </c>
       <c r="B43" t="n">
-        <v>40.84902508527853</v>
+        <v>15.96324323279246</v>
       </c>
       <c r="C43" t="n">
-        <v>78.01065339981371</v>
+        <v>79.13233562882237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-10.42932692203747</v>
+        <v>-16.20580998207193</v>
       </c>
       <c r="B44" t="n">
-        <v>41.28687916069771</v>
+        <v>65.99182701725596</v>
       </c>
       <c r="C44" t="n">
-        <v>73.73367982097872</v>
+        <v>70.75138192673441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-19.38511220554938</v>
+        <v>1.26584929584479</v>
       </c>
       <c r="B45" t="n">
-        <v>-12.93576418420023</v>
+        <v>-82.60384665381301</v>
       </c>
       <c r="C45" t="n">
-        <v>84.32150109813669</v>
+        <v>91.09149848421588</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>81.47860336066731</v>
+        <v>-57.62442935649338</v>
       </c>
       <c r="B46" t="n">
-        <v>-49.36958399988426</v>
+        <v>8.282867864615561</v>
       </c>
       <c r="C46" t="n">
-        <v>50.24092991656667</v>
+        <v>65.71916862379305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-3.208993921918601</v>
+        <v>-97.40112577275607</v>
       </c>
       <c r="B47" t="n">
-        <v>41.41023110284174</v>
+        <v>4.530975877626209</v>
       </c>
       <c r="C47" t="n">
-        <v>94.73298703053143</v>
+        <v>72.93300714216039</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>75.00693984044273</v>
+        <v>-90.25247285526578</v>
       </c>
       <c r="B48" t="n">
-        <v>-56.3803444167623</v>
+        <v>11.08562162372565</v>
       </c>
       <c r="C48" t="n">
-        <v>77.68038815478727</v>
+        <v>99.16874181163411</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23.22799582109455</v>
+        <v>60.30630183909879</v>
       </c>
       <c r="B49" t="n">
-        <v>64.7473955444035</v>
+        <v>-83.94665632724708</v>
       </c>
       <c r="C49" t="n">
-        <v>73.92431095245176</v>
+        <v>62.35269713343196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-60.97851910455544</v>
+        <v>34.33604143316212</v>
       </c>
       <c r="B50" t="n">
-        <v>-59.43766148758477</v>
+        <v>37.66257788399948</v>
       </c>
       <c r="C50" t="n">
-        <v>60.58342568350952</v>
+        <v>51.6951037504516</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65.73562257185746</v>
+        <v>-38.69945192779104</v>
       </c>
       <c r="B51" t="n">
-        <v>-45.24766437208135</v>
+        <v>-84.0738966613618</v>
       </c>
       <c r="C51" t="n">
-        <v>65.53343686658999</v>
+        <v>52.45440487992818</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>34.15056849505211</v>
+        <v>-86.22582857554491</v>
       </c>
       <c r="B52" t="n">
-        <v>80.3110327996168</v>
+        <v>57.93055066260185</v>
       </c>
       <c r="C52" t="n">
-        <v>51.21999092325522</v>
+        <v>77.62259377578702</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7.333216205533466</v>
+        <v>-41.56771501123814</v>
       </c>
       <c r="B53" t="n">
-        <v>21.29402597073511</v>
+        <v>74.80620404166859</v>
       </c>
       <c r="C53" t="n">
-        <v>74.84567732017709</v>
+        <v>66.60971610282299</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-53.98562476008727</v>
+        <v>-95.17892411080383</v>
       </c>
       <c r="B54" t="n">
-        <v>84.30054837972197</v>
+        <v>-70.0001903349</v>
       </c>
       <c r="C54" t="n">
-        <v>99.14054961928112</v>
+        <v>71.86840578243827</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1.85259872862592</v>
+        <v>-49.96375629240675</v>
       </c>
       <c r="B55" t="n">
-        <v>-28.56072279120959</v>
+        <v>75.69394977482459</v>
       </c>
       <c r="C55" t="n">
-        <v>62.99607477022553</v>
+        <v>65.016123489175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>25.06449064907431</v>
+        <v>-48.63571104316743</v>
       </c>
       <c r="B56" t="n">
-        <v>60.45315504581094</v>
+        <v>-94.52327726796315</v>
       </c>
       <c r="C56" t="n">
-        <v>74.54671582818274</v>
+        <v>62.15026039526713</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>84.278936875517</v>
+        <v>78.08370392345812</v>
       </c>
       <c r="B57" t="n">
-        <v>19.36714574515906</v>
+        <v>-25.42486725195337</v>
       </c>
       <c r="C57" t="n">
-        <v>93.45811982981303</v>
+        <v>88.28644749466822</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.02829458369650872</v>
+        <v>-82.78292582310681</v>
       </c>
       <c r="B58" t="n">
-        <v>7.698486013048667</v>
+        <v>-45.82513015144875</v>
       </c>
       <c r="C58" t="n">
-        <v>97.95861189625383</v>
+        <v>88.32157251621277</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>75.10049627557474</v>
+        <v>-55.09449304218334</v>
       </c>
       <c r="B59" t="n">
-        <v>-78.47972098712339</v>
+        <v>14.57667336623701</v>
       </c>
       <c r="C59" t="n">
-        <v>77.2589275805967</v>
+        <v>96.91475264806877</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-56.95312440268255</v>
+        <v>-31.15358567938996</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.2175226370199956</v>
+        <v>71.73537206414883</v>
       </c>
       <c r="C60" t="n">
-        <v>71.43633550256857</v>
+        <v>55.32499020173918</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13.2395419019267</v>
+        <v>-84.88196261500084</v>
       </c>
       <c r="B61" t="n">
-        <v>-26.94678131910183</v>
+        <v>4.387122139943367</v>
       </c>
       <c r="C61" t="n">
-        <v>80.37527218424252</v>
+        <v>67.76619487232058</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>26.41562135904343</v>
+        <v>-91.71331121727913</v>
       </c>
       <c r="B62" t="n">
-        <v>-60.0509345467018</v>
+        <v>-46.67709707637766</v>
       </c>
       <c r="C62" t="n">
-        <v>89.64657662662182</v>
+        <v>76.38967020759819</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-24.29095724869142</v>
+        <v>-8.554296937908489</v>
       </c>
       <c r="B63" t="n">
-        <v>-83.40990589737696</v>
+        <v>14.11488069277961</v>
       </c>
       <c r="C63" t="n">
-        <v>71.65491144412914</v>
+        <v>84.88905649231425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-53.38696836643212</v>
+        <v>10.21158168875691</v>
       </c>
       <c r="B64" t="n">
-        <v>17.32424314705293</v>
+        <v>-38.81675624804281</v>
       </c>
       <c r="C64" t="n">
-        <v>73.5161998134575</v>
+        <v>61.82492579414322</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72.63895269092178</v>
+        <v>-4.007635981192859</v>
       </c>
       <c r="B65" t="n">
-        <v>-77.52879193613741</v>
+        <v>23.11972041343535</v>
       </c>
       <c r="C65" t="n">
-        <v>70.9950792749882</v>
+        <v>82.08094983049534</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-35.9270009767401</v>
+        <v>82.51229671801261</v>
       </c>
       <c r="B66" t="n">
-        <v>-70.2487909234238</v>
+        <v>-34.80838489054265</v>
       </c>
       <c r="C66" t="n">
-        <v>54.21183608255001</v>
+        <v>74.76044004316077</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.983460579667196</v>
+        <v>95.12404901133053</v>
       </c>
       <c r="B67" t="n">
-        <v>-16.00195544535511</v>
+        <v>39.12917747369092</v>
       </c>
       <c r="C67" t="n">
-        <v>77.86438824603447</v>
+        <v>81.30170422929679</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.96710707499111</v>
+        <v>8.266298731533217</v>
       </c>
       <c r="B68" t="n">
-        <v>-65.12316018284722</v>
+        <v>-22.1611719267655</v>
       </c>
       <c r="C68" t="n">
-        <v>88.08319917843731</v>
+        <v>96.72304460114758</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-32.86804283779896</v>
+        <v>-80.79100490389345</v>
       </c>
       <c r="B69" t="n">
-        <v>8.220148495668466</v>
+        <v>63.25756722789789</v>
       </c>
       <c r="C69" t="n">
-        <v>57.15515457731052</v>
+        <v>91.42512044317252</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>13.28182830512052</v>
+        <v>-94.18918483276975</v>
       </c>
       <c r="B70" t="n">
-        <v>4.911587265760975</v>
+        <v>-38.67327296800638</v>
       </c>
       <c r="C70" t="n">
-        <v>51.01418648282802</v>
+        <v>84.87479048923586</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>20.05986445752653</v>
+        <v>14.8479491145021</v>
       </c>
       <c r="B71" t="n">
-        <v>36.59557377788276</v>
+        <v>-22.0959986887024</v>
       </c>
       <c r="C71" t="n">
-        <v>62.54651620395655</v>
+        <v>58.80362277973171</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-52.06403581884742</v>
+        <v>5.58847457223921</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.88803772798037</v>
+        <v>68.06349681258762</v>
       </c>
       <c r="C72" t="n">
-        <v>66.48410130706476</v>
+        <v>85.46760426991388</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.657803318289443</v>
+        <v>-48.84709530236032</v>
       </c>
       <c r="B73" t="n">
-        <v>46.51866075519018</v>
+        <v>-3.733233515994216</v>
       </c>
       <c r="C73" t="n">
-        <v>61.93910845327092</v>
+        <v>94.67822337356792</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>13.10192429043545</v>
+        <v>-78.27724640931977</v>
       </c>
       <c r="B74" t="n">
-        <v>-44.10478040627712</v>
+        <v>-42.8140545216452</v>
       </c>
       <c r="C74" t="n">
-        <v>64.00093170870436</v>
+        <v>76.03975388774859</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-61.78972004300603</v>
+        <v>-87.90358933319344</v>
       </c>
       <c r="B75" t="n">
-        <v>-18.09926858317408</v>
+        <v>-19.49539059951934</v>
       </c>
       <c r="C75" t="n">
-        <v>84.44935714553854</v>
+        <v>90.66630136885728</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>18.93993221538734</v>
+        <v>-66.9764199408625</v>
       </c>
       <c r="B76" t="n">
-        <v>35.26348711184713</v>
+        <v>79.23104331421888</v>
       </c>
       <c r="C76" t="n">
-        <v>60.96598793606096</v>
+        <v>94.51118400230882</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-6.168435051311993</v>
+        <v>-55.37203892153521</v>
       </c>
       <c r="B77" t="n">
-        <v>-22.43558943582467</v>
+        <v>40.06094324665877</v>
       </c>
       <c r="C77" t="n">
-        <v>50.70122885410601</v>
+        <v>92.14886270415772</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.4476230854004</v>
+        <v>0.261498664792148</v>
       </c>
       <c r="B78" t="n">
-        <v>69.27111522946893</v>
+        <v>90.49420322569657</v>
       </c>
       <c r="C78" t="n">
-        <v>90.2382140132496</v>
+        <v>78.81097624719612</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>62.88686028879587</v>
+        <v>-6.553779223340861</v>
       </c>
       <c r="B79" t="n">
-        <v>-84.4590488374707</v>
+        <v>-0.6225648602029676</v>
       </c>
       <c r="C79" t="n">
-        <v>63.50770286764339</v>
+        <v>81.46779608236902</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-21.41358011987651</v>
+        <v>76.45135261826927</v>
       </c>
       <c r="B80" t="n">
-        <v>46.48535645158849</v>
+        <v>-72.58232698124606</v>
       </c>
       <c r="C80" t="n">
-        <v>86.85306868474616</v>
+        <v>91.8163304587257</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-0.2230660670427653</v>
+        <v>15.90698018918331</v>
       </c>
       <c r="B81" t="n">
-        <v>-64.79719224977575</v>
+        <v>3.893681875079502</v>
       </c>
       <c r="C81" t="n">
-        <v>71.77578885447844</v>
+        <v>52.97252063840542</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>78.73232919426731</v>
+        <v>73.80121936699523</v>
       </c>
       <c r="B82" t="n">
-        <v>94.17170972182326</v>
+        <v>-32.15644742722955</v>
       </c>
       <c r="C82" t="n">
-        <v>76.64449778204077</v>
+        <v>80.14627372659726</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.060335935012074</v>
+        <v>-91.80022651506715</v>
       </c>
       <c r="B83" t="n">
-        <v>-45.69450569501205</v>
+        <v>-81.00444871782585</v>
       </c>
       <c r="C83" t="n">
-        <v>87.82211481210267</v>
+        <v>68.98070870585369</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>19.62745051244123</v>
+        <v>-68.79497953621757</v>
       </c>
       <c r="B84" t="n">
-        <v>56.60721450120823</v>
+        <v>13.48002360632786</v>
       </c>
       <c r="C84" t="n">
-        <v>61.1570655877405</v>
+        <v>76.01999391375115</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-32.75427718302269</v>
+        <v>21.17200698772848</v>
       </c>
       <c r="B85" t="n">
-        <v>85.5121581657566</v>
+        <v>40.75468749251503</v>
       </c>
       <c r="C85" t="n">
-        <v>67.67600578834185</v>
+        <v>55.65811627900116</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-74.45199136722496</v>
+        <v>-6.464271516839338</v>
       </c>
       <c r="B86" t="n">
-        <v>86.02658402386629</v>
+        <v>77.92963934213941</v>
       </c>
       <c r="C86" t="n">
-        <v>95.71434070939434</v>
+        <v>80.57071010195806</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-99.91719235528163</v>
+        <v>80.31185701192372</v>
       </c>
       <c r="B87" t="n">
-        <v>-30.29669809909222</v>
+        <v>-79.84732625490895</v>
       </c>
       <c r="C87" t="n">
-        <v>58.25868605253621</v>
+        <v>78.80524664639668</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-12.56326321784051</v>
+        <v>-40.42443887439033</v>
       </c>
       <c r="B88" t="n">
-        <v>64.44507272342265</v>
+        <v>-33.49917136359954</v>
       </c>
       <c r="C88" t="n">
-        <v>99.20085760652704</v>
+        <v>50.70921275848181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>15.47936076328861</v>
+        <v>76.15101764478422</v>
       </c>
       <c r="B89" t="n">
-        <v>17.15865883506281</v>
+        <v>-3.981464373804999</v>
       </c>
       <c r="C89" t="n">
-        <v>54.64343542210476</v>
+        <v>55.48565709660017</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-4.140099810516973</v>
+        <v>63.94482614737593</v>
       </c>
       <c r="B90" t="n">
-        <v>42.41047621096951</v>
+        <v>54.95108104272028</v>
       </c>
       <c r="C90" t="n">
-        <v>52.27134464666191</v>
+        <v>62.85096908644132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>18.70840254543698</v>
+        <v>1.165155758759873</v>
       </c>
       <c r="B91" t="n">
-        <v>91.73633080261391</v>
+        <v>84.70672942706838</v>
       </c>
       <c r="C91" t="n">
-        <v>96.64094982100292</v>
+        <v>83.33237288724132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-11.80781232868702</v>
+        <v>90.51413826940421</v>
       </c>
       <c r="B92" t="n">
-        <v>25.01507640597524</v>
+        <v>24.04510962412889</v>
       </c>
       <c r="C92" t="n">
-        <v>60.88972773404774</v>
+        <v>79.11360036477896</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>43.02426686656051</v>
+        <v>-38.38648132861484</v>
       </c>
       <c r="B93" t="n">
-        <v>68.40963903524953</v>
+        <v>62.71267707035982</v>
       </c>
       <c r="C93" t="n">
-        <v>60.4750177600297</v>
+        <v>65.42209015047332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.01482113622198</v>
+        <v>-30.41145109028967</v>
       </c>
       <c r="B94" t="n">
-        <v>-35.26759863295256</v>
+        <v>-27.6161578970486</v>
       </c>
       <c r="C94" t="n">
-        <v>79.41196950663119</v>
+        <v>73.36989955574253</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>91.60417706050657</v>
+        <v>-87.08511246428905</v>
       </c>
       <c r="B95" t="n">
-        <v>66.11325747094695</v>
+        <v>82.17000343551678</v>
       </c>
       <c r="C95" t="n">
-        <v>77.07681842529333</v>
+        <v>93.99132824540843</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-14.4940280055549</v>
+        <v>-98.06485116097133</v>
       </c>
       <c r="B96" t="n">
-        <v>-19.07016831878395</v>
+        <v>-77.89276643066208</v>
       </c>
       <c r="C96" t="n">
-        <v>89.54408612762025</v>
+        <v>98.89323941199704</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>85.36980817458435</v>
+        <v>31.08604538153711</v>
       </c>
       <c r="B97" t="n">
-        <v>38.6686625428642</v>
+        <v>59.89385473209666</v>
       </c>
       <c r="C97" t="n">
-        <v>64.61138289721276</v>
+        <v>75.44470358975349</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-51.59714380459799</v>
+        <v>-73.89695113774117</v>
       </c>
       <c r="B98" t="n">
-        <v>95.22180266695835</v>
+        <v>21.43001832328886</v>
       </c>
       <c r="C98" t="n">
-        <v>70.49957865366588</v>
+        <v>85.00066529312346</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-3.232849856871123</v>
+        <v>19.19430351651376</v>
       </c>
       <c r="B99" t="n">
-        <v>67.00795910279767</v>
+        <v>-51.25155341187635</v>
       </c>
       <c r="C99" t="n">
-        <v>65.7018891193139</v>
+        <v>72.96005258442148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-32.30151226757872</v>
+        <v>-4.10408774529013</v>
       </c>
       <c r="B100" t="n">
-        <v>-99.15322226072084</v>
+        <v>-19.82320082856279</v>
       </c>
       <c r="C100" t="n">
-        <v>98.51251457737347</v>
+        <v>77.6620379744581</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-71.3383675055848</v>
+        <v>-11.80903064492509</v>
       </c>
       <c r="B101" t="n">
-        <v>94.39744631995374</v>
+        <v>-50.07929018044087</v>
       </c>
       <c r="C101" t="n">
-        <v>85.57431490986941</v>
+        <v>82.67283176150059</v>
       </c>
     </row>
   </sheetData>
@@ -1585,162 +1585,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75.1085689082992</v>
+        <v>-79.95583186984142</v>
       </c>
       <c r="B2" t="n">
-        <v>-67.22740400480862</v>
+        <v>2.795031133780879</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.204439982412421</v>
+        <v>7.989719684638075</v>
       </c>
       <c r="B3" t="n">
-        <v>-46.05987126118774</v>
+        <v>59.08207359304372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6.913147436098665</v>
+        <v>-94.82531771136962</v>
       </c>
       <c r="B4" t="n">
-        <v>21.84047838499879</v>
+        <v>-64.88689719964322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11.83589907422112</v>
+        <v>45.58797683598604</v>
       </c>
       <c r="B5" t="n">
-        <v>-15.46857408516773</v>
+        <v>-81.76510341433674</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>88.17306772450181</v>
+        <v>-38.97754189969272</v>
       </c>
       <c r="B6" t="n">
-        <v>73.14335847082278</v>
+        <v>94.40657457333054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-86.05360760817182</v>
+        <v>27.54788960215483</v>
       </c>
       <c r="B7" t="n">
-        <v>-19.22249574731907</v>
+        <v>18.83267621885539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54.95684011463396</v>
+        <v>46.70293140923633</v>
       </c>
       <c r="B8" t="n">
-        <v>-99.99007508424359</v>
+        <v>-41.2435486743738</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56.54448911476747</v>
+        <v>90.16926274230184</v>
       </c>
       <c r="B9" t="n">
-        <v>15.12032262423866</v>
+        <v>-71.41789663484771</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-92.54714209971327</v>
+        <v>-10.17670955183061</v>
       </c>
       <c r="B10" t="n">
-        <v>-33.74876923208947</v>
+        <v>49.99906454701944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.367059179629976</v>
+        <v>57.64762556296652</v>
       </c>
       <c r="B11" t="n">
-        <v>-39.30143971005847</v>
+        <v>67.96108710169159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-78.93546082133996</v>
+        <v>-91.8623764993276</v>
       </c>
       <c r="B12" t="n">
-        <v>72.53517524743646</v>
+        <v>-91.82246537172529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-14.48275916284319</v>
+        <v>-39.85427151245028</v>
       </c>
       <c r="B13" t="n">
-        <v>87.68594848037611</v>
+        <v>54.49583365765186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-51.76438274895824</v>
+        <v>68.13752166099304</v>
       </c>
       <c r="B14" t="n">
-        <v>-50.36695758947369</v>
+        <v>20.87430787281318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.06960978228842674</v>
+        <v>-78.20862355515337</v>
       </c>
       <c r="B15" t="n">
-        <v>61.60205118551061</v>
+        <v>69.25685124896518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>57.93447723918672</v>
+        <v>-77.26989927406505</v>
       </c>
       <c r="B16" t="n">
-        <v>-17.48441024674451</v>
+        <v>5.358101187879516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-29.58649955976376</v>
+        <v>27.70714544221361</v>
       </c>
       <c r="B17" t="n">
-        <v>20.88704249223829</v>
+        <v>56.02393442002754</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-47.11861106111398</v>
+        <v>92.90267197741622</v>
       </c>
       <c r="B18" t="n">
-        <v>-62.16784182419723</v>
+        <v>-20.31460950188745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>87.71840690791346</v>
+        <v>-48.0485069327091</v>
       </c>
       <c r="B19" t="n">
-        <v>-36.44402649407657</v>
+        <v>-32.21739339419479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-60.97370001919191</v>
+        <v>-49.28054363442887</v>
       </c>
       <c r="B20" t="n">
-        <v>-89.90664377914959</v>
+        <v>-3.522427521480687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-38.07567669456638</v>
+        <v>13.03232109761975</v>
       </c>
       <c r="B21" t="n">
-        <v>-34.61584225629865</v>
+        <v>7.778510476169831</v>
       </c>
     </row>
   </sheetData>
@@ -1826,6202 +1826,6202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>149.9246764935569</v>
+        <v>89.32823085951219</v>
       </c>
       <c r="B2" t="n">
-        <v>64.35198745356746</v>
+        <v>92.23095791697693</v>
       </c>
       <c r="C2" t="n">
-        <v>49.40348819501221</v>
+        <v>157.8770041696959</v>
       </c>
       <c r="D2" t="n">
-        <v>54.43724543994218</v>
+        <v>213.3916921564589</v>
       </c>
       <c r="E2" t="n">
-        <v>49.43451827242625</v>
+        <v>39.21694862246122</v>
       </c>
       <c r="F2" t="n">
-        <v>81.75742748603659</v>
+        <v>128.5920671309048</v>
       </c>
       <c r="G2" t="n">
-        <v>161.9457500715127</v>
+        <v>182.6586718929367</v>
       </c>
       <c r="H2" t="n">
-        <v>62.72033965159763</v>
+        <v>234.6554356219339</v>
       </c>
       <c r="I2" t="n">
-        <v>75.33344601474725</v>
+        <v>79.93806784750154</v>
       </c>
       <c r="J2" t="n">
-        <v>67.00869512960946</v>
+        <v>137.9043837300409</v>
       </c>
       <c r="K2" t="n">
-        <v>158.6229271815913</v>
+        <v>184.439166570743</v>
       </c>
       <c r="L2" t="n">
-        <v>112.5003300353485</v>
+        <v>53.65823426387593</v>
       </c>
       <c r="M2" t="n">
-        <v>47.11509560271612</v>
+        <v>162.6868677017069</v>
       </c>
       <c r="N2" t="n">
-        <v>77.48626188956138</v>
+        <v>22.84783134814137</v>
       </c>
       <c r="O2" t="n">
-        <v>88.91506073884376</v>
+        <v>86.75066802503557</v>
       </c>
       <c r="P2" t="n">
-        <v>69.0322959479977</v>
+        <v>111.815240850125</v>
       </c>
       <c r="Q2" t="n">
-        <v>49.44045694709193</v>
+        <v>204.6684334544911</v>
       </c>
       <c r="R2" t="n">
-        <v>132.7937848879997</v>
+        <v>127.9087564273707</v>
       </c>
       <c r="S2" t="n">
-        <v>55.27200621647086</v>
+        <v>99.88306464541641</v>
       </c>
       <c r="T2" t="n">
-        <v>47.22128641742983</v>
+        <v>124.1808208381218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>145.0366391048566</v>
+        <v>28.59481412398651</v>
       </c>
       <c r="B3" t="n">
-        <v>51.95571528098565</v>
+        <v>123.03774657982</v>
       </c>
       <c r="C3" t="n">
-        <v>31.605738513274</v>
+        <v>41.44803689112912</v>
       </c>
       <c r="D3" t="n">
-        <v>39.0080985466255</v>
+        <v>138.5096573518279</v>
       </c>
       <c r="E3" t="n">
-        <v>31.65422022355922</v>
+        <v>127.3517998770813</v>
       </c>
       <c r="F3" t="n">
-        <v>72.40507585984061</v>
+        <v>117.4508788118586</v>
       </c>
       <c r="G3" t="n">
-        <v>157.4313946687877</v>
+        <v>128.736965619922</v>
       </c>
       <c r="H3" t="n">
-        <v>49.92052751270274</v>
+        <v>177.2478510065811</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06416947592261</v>
+        <v>103.7897799428059</v>
       </c>
       <c r="J3" t="n">
-        <v>55.21216608780794</v>
+        <v>167.4459027328607</v>
       </c>
       <c r="K3" t="n">
-        <v>154.0112044261429</v>
+        <v>66.91653364582781</v>
       </c>
       <c r="L3" t="n">
-        <v>105.898736154862</v>
+        <v>90.24986088872036</v>
       </c>
       <c r="M3" t="n">
-        <v>27.8935529251442</v>
+        <v>156.3605758242925</v>
       </c>
       <c r="N3" t="n">
-        <v>67.54508748052987</v>
+        <v>95.07769372557512</v>
       </c>
       <c r="O3" t="n">
-        <v>80.39966472148386</v>
+        <v>31.36980937418452</v>
       </c>
       <c r="P3" t="n">
-        <v>57.65133081713448</v>
+        <v>136.1275017477915</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.66349387341819</v>
+        <v>174.0899382889652</v>
       </c>
       <c r="R3" t="n">
-        <v>127.2493904347485</v>
+        <v>33.67469282183573</v>
       </c>
       <c r="S3" t="n">
-        <v>40.16481958540751</v>
+        <v>38.83084793788722</v>
       </c>
       <c r="T3" t="n">
-        <v>28.07254801495019</v>
+        <v>99.93571332894636</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>143.0567618248891</v>
+        <v>182.2358679768994</v>
       </c>
       <c r="B4" t="n">
-        <v>46.14116135674809</v>
+        <v>85.01764172490795</v>
       </c>
       <c r="C4" t="n">
-        <v>20.70104171195425</v>
+        <v>225.6700983021201</v>
       </c>
       <c r="D4" t="n">
-        <v>30.84221414253303</v>
+        <v>149.6802933791472</v>
       </c>
       <c r="E4" t="n">
-        <v>20.77498685805128</v>
+        <v>136.3363675292818</v>
       </c>
       <c r="F4" t="n">
-        <v>68.35280119541474</v>
+        <v>77.43297613311948</v>
       </c>
       <c r="G4" t="n">
-        <v>155.6093006486124</v>
+        <v>111.5158361069587</v>
       </c>
       <c r="H4" t="n">
-        <v>43.83685080086307</v>
+        <v>131.6561076972275</v>
       </c>
       <c r="I4" t="n">
-        <v>60.52236421837961</v>
+        <v>103.6804336755958</v>
       </c>
       <c r="J4" t="n">
-        <v>49.77945063074026</v>
+        <v>36.19250906841823</v>
       </c>
       <c r="K4" t="n">
-        <v>152.1481564455573</v>
+        <v>239.3475698662879</v>
       </c>
       <c r="L4" t="n">
-        <v>103.1705032467502</v>
+        <v>132.9769131817222</v>
       </c>
       <c r="M4" t="n">
-        <v>14.41043773722501</v>
+        <v>46.53235566964543</v>
       </c>
       <c r="N4" t="n">
-        <v>63.18187448741174</v>
+        <v>171.4475055681197</v>
       </c>
       <c r="O4" t="n">
-        <v>76.77054453576341</v>
+        <v>178.8862611700034</v>
       </c>
       <c r="P4" t="n">
-        <v>52.47176732279272</v>
+        <v>65.42667228484439</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.78911410480517</v>
+        <v>80.52244589180808</v>
       </c>
       <c r="R4" t="n">
-        <v>124.9880705787784</v>
+        <v>168.6329378605369</v>
       </c>
       <c r="S4" t="n">
-        <v>32.29277246256432</v>
+        <v>155.9014627955558</v>
       </c>
       <c r="T4" t="n">
-        <v>14.75392737688177</v>
+        <v>95.6223984602437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>163.0045310337111</v>
+        <v>93.94944241841563</v>
       </c>
       <c r="B5" t="n">
-        <v>90.74275070244747</v>
+        <v>54.79922156014663</v>
       </c>
       <c r="C5" t="n">
-        <v>80.8317583729139</v>
+        <v>129.1033374109049</v>
       </c>
       <c r="D5" t="n">
-        <v>84.0028702301947</v>
+        <v>91.97886630966826</v>
       </c>
       <c r="E5" t="n">
-        <v>80.85072734768235</v>
+        <v>104.2466460746086</v>
       </c>
       <c r="F5" t="n">
-        <v>103.8139945525504</v>
+        <v>19.65848268607806</v>
       </c>
       <c r="G5" t="n">
-        <v>174.1249392879931</v>
+        <v>56.33533825541165</v>
       </c>
       <c r="H5" t="n">
-        <v>89.59302161348391</v>
+        <v>107.6372069338073</v>
       </c>
       <c r="I5" t="n">
-        <v>98.834187426615</v>
+        <v>51.41449096858242</v>
       </c>
       <c r="J5" t="n">
-        <v>92.64574323084345</v>
+        <v>76.94454421683778</v>
       </c>
       <c r="K5" t="n">
-        <v>171.0388889799009</v>
+        <v>143.1822333376905</v>
       </c>
       <c r="L5" t="n">
-        <v>129.4194451150397</v>
+        <v>73.39087293624637</v>
       </c>
       <c r="M5" t="n">
-        <v>79.4537648540049</v>
+        <v>56.55055290298142</v>
       </c>
       <c r="N5" t="n">
-        <v>100.4847714703085</v>
+        <v>112.592747049256</v>
       </c>
       <c r="O5" t="n">
-        <v>109.5397486851905</v>
+        <v>91.24902124041769</v>
       </c>
       <c r="P5" t="n">
-        <v>94.11974500429952</v>
+        <v>53.21514689685259</v>
       </c>
       <c r="Q5" t="n">
-        <v>80.8543585650129</v>
+        <v>82.76887330351033</v>
       </c>
       <c r="R5" t="n">
-        <v>147.4016886629958</v>
+        <v>72.13434563763232</v>
       </c>
       <c r="S5" t="n">
-        <v>84.54621923549284</v>
+        <v>63.77732923784421</v>
       </c>
       <c r="T5" t="n">
-        <v>79.51678066131305</v>
+        <v>3.305293229439783</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>143.7800188279262</v>
+        <v>91.82049657599555</v>
       </c>
       <c r="B6" t="n">
-        <v>48.33697840872183</v>
+        <v>42.48632570626157</v>
       </c>
       <c r="C6" t="n">
-        <v>25.21883895614241</v>
+        <v>158.4536230251827</v>
       </c>
       <c r="D6" t="n">
-        <v>34.03966632547448</v>
+        <v>177.7211231439115</v>
       </c>
       <c r="E6" t="n">
-        <v>25.27957256932917</v>
+        <v>17.84627063852736</v>
       </c>
       <c r="F6" t="n">
-        <v>69.85386275357769</v>
+        <v>83.08112216208406</v>
       </c>
       <c r="G6" t="n">
-        <v>156.2744737911026</v>
+        <v>142.5978278660821</v>
       </c>
       <c r="H6" t="n">
-        <v>46.14245548811751</v>
+        <v>192.4155581272843</v>
       </c>
       <c r="I6" t="n">
-        <v>62.21264566724335</v>
+        <v>35.08327793189566</v>
       </c>
       <c r="J6" t="n">
-        <v>51.82133166403661</v>
+        <v>87.72195190756088</v>
       </c>
       <c r="K6" t="n">
-        <v>152.8283946788605</v>
+        <v>182.2810021048021</v>
       </c>
       <c r="L6" t="n">
-        <v>104.1710586032583</v>
+        <v>27.03394696892826</v>
       </c>
       <c r="M6" t="n">
-        <v>20.37443069423573</v>
+        <v>113.6830672140516</v>
       </c>
       <c r="N6" t="n">
-        <v>64.80282381253788</v>
+        <v>49.92302905696169</v>
       </c>
       <c r="O6" t="n">
-        <v>78.11000716075637</v>
+        <v>88.20513532314942</v>
       </c>
       <c r="P6" t="n">
-        <v>54.41271061354207</v>
+        <v>61.63599242313416</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.29118375241432</v>
+        <v>157.7400177821597</v>
       </c>
       <c r="R6" t="n">
-        <v>125.8152395274176</v>
+        <v>113.1722117572473</v>
       </c>
       <c r="S6" t="n">
-        <v>35.35929670758072</v>
+        <v>85.28512237108868</v>
       </c>
       <c r="T6" t="n">
-        <v>20.61880412094936</v>
+        <v>83.20575981387415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>226.2801697967333</v>
+        <v>120.7539030738907</v>
       </c>
       <c r="B7" t="n">
-        <v>181.2911605974348</v>
+        <v>41.24363394484996</v>
       </c>
       <c r="C7" t="n">
-        <v>176.5389794560269</v>
+        <v>185.6865680130835</v>
       </c>
       <c r="D7" t="n">
-        <v>178.0132588113293</v>
+        <v>186.9280623980219</v>
       </c>
       <c r="E7" t="n">
-        <v>176.5476655704278</v>
+        <v>33.49828324879187</v>
       </c>
       <c r="F7" t="n">
-        <v>188.1743435505365</v>
+        <v>85.85220602406625</v>
       </c>
       <c r="G7" t="n">
-        <v>234.417858935205</v>
+        <v>148.7654154012178</v>
       </c>
       <c r="H7" t="n">
-        <v>180.7184208307293</v>
+        <v>194.6460234683364</v>
       </c>
       <c r="I7" t="n">
-        <v>185.4735418058264</v>
+        <v>48.20904612418344</v>
       </c>
       <c r="J7" t="n">
-        <v>182.2511230267559</v>
+        <v>70.08263427235606</v>
       </c>
       <c r="K7" t="n">
-        <v>232.1347445971783</v>
+        <v>208.4712132940843</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4247548348114</v>
+        <v>55.3243183901801</v>
       </c>
       <c r="M7" t="n">
-        <v>175.9123044451236</v>
+        <v>106.7512285891397</v>
       </c>
       <c r="N7" t="n">
-        <v>186.3583306513516</v>
+        <v>78.02264666668299</v>
       </c>
       <c r="O7" t="n">
-        <v>191.3927758504303</v>
+        <v>117.0821403343914</v>
       </c>
       <c r="P7" t="n">
-        <v>183.004820989483</v>
+        <v>53.62779203695158</v>
       </c>
       <c r="Q7" t="n">
-        <v>176.5493285308048</v>
+        <v>153.9957869315945</v>
       </c>
       <c r="R7" t="n">
-        <v>215.3125540381264</v>
+        <v>136.9364449854619</v>
       </c>
       <c r="S7" t="n">
-        <v>178.2703040125707</v>
+        <v>110.4894562005452</v>
       </c>
       <c r="T7" t="n">
-        <v>175.9407755821763</v>
+        <v>92.13726096659984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>218.8455207822523</v>
+        <v>160.0493177689842</v>
       </c>
       <c r="B8" t="n">
-        <v>171.9218765427531</v>
+        <v>62.11573751168088</v>
       </c>
       <c r="C8" t="n">
-        <v>166.9031395468409</v>
+        <v>205.9490738982662</v>
       </c>
       <c r="D8" t="n">
-        <v>168.4617672822116</v>
+        <v>142.3495497638629</v>
       </c>
       <c r="E8" t="n">
-        <v>166.9123271109248</v>
+        <v>114.85092939116</v>
       </c>
       <c r="F8" t="n">
-        <v>179.1653713581173</v>
+        <v>58.14657256796463</v>
       </c>
       <c r="G8" t="n">
-        <v>227.2495969434982</v>
+        <v>102.4103272591391</v>
       </c>
       <c r="H8" t="n">
-        <v>171.3178167931441</v>
+        <v>131.4167381096469</v>
       </c>
       <c r="I8" t="n">
-        <v>176.3266327961104</v>
+        <v>80.72342533273843</v>
       </c>
       <c r="J8" t="n">
-        <v>172.9338560482894</v>
+        <v>15.66631120675997</v>
       </c>
       <c r="K8" t="n">
-        <v>224.89372239441</v>
+        <v>220.9450112895767</v>
       </c>
       <c r="L8" t="n">
-        <v>195.1211869654853</v>
+        <v>110.0279439232315</v>
       </c>
       <c r="M8" t="n">
-        <v>166.2401443045891</v>
+        <v>37.63473924765582</v>
       </c>
       <c r="N8" t="n">
-        <v>177.2570848411291</v>
+        <v>148.7035874734884</v>
       </c>
       <c r="O8" t="n">
-        <v>182.5427110868846</v>
+        <v>156.6465472289091</v>
       </c>
       <c r="P8" t="n">
-        <v>173.7279805575644</v>
+        <v>42.46497498408479</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.9140860679373</v>
+        <v>82.00571082299813</v>
       </c>
       <c r="R8" t="n">
-        <v>207.4852829711974</v>
+        <v>148.9348671785497</v>
       </c>
       <c r="S8" t="n">
-        <v>168.7333636716554</v>
+        <v>134.5132229642619</v>
       </c>
       <c r="T8" t="n">
-        <v>166.270271653337</v>
+        <v>76.32409437377561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>142.3760276340117</v>
+        <v>83.1128462785329</v>
       </c>
       <c r="B9" t="n">
-        <v>43.98525789815593</v>
+        <v>72.03086787585009</v>
       </c>
       <c r="C9" t="n">
-        <v>15.30455059705754</v>
+        <v>152.3933889844532</v>
       </c>
       <c r="D9" t="n">
-        <v>27.51251195786545</v>
+        <v>195.948110493198</v>
       </c>
       <c r="E9" t="n">
-        <v>15.40442209140051</v>
+        <v>23.54168266890782</v>
       </c>
       <c r="F9" t="n">
-        <v>66.91637745931645</v>
+        <v>108.6394257004882</v>
       </c>
       <c r="G9" t="n">
-        <v>154.9837107226693</v>
+        <v>163.9701140310341</v>
       </c>
       <c r="H9" t="n">
-        <v>41.56158838585159</v>
+        <v>215.5655805487459</v>
       </c>
       <c r="I9" t="n">
-        <v>58.89526900863957</v>
+        <v>59.83433515886264</v>
       </c>
       <c r="J9" t="n">
-        <v>47.78796758720893</v>
+        <v>118.4638342935208</v>
       </c>
       <c r="K9" t="n">
-        <v>151.5082758492077</v>
+        <v>178.1582606058536</v>
       </c>
       <c r="L9" t="n">
-        <v>102.2245023524474</v>
+        <v>35.14195763114203</v>
       </c>
       <c r="M9" t="n">
-        <v>3.654703380065662</v>
+        <v>142.4130405595671</v>
       </c>
       <c r="N9" t="n">
-        <v>61.6250387810091</v>
+        <v>23.22926897880685</v>
       </c>
       <c r="O9" t="n">
-        <v>75.49445442769593</v>
+        <v>79.99958532265663</v>
       </c>
       <c r="P9" t="n">
-        <v>50.58638657776539</v>
+        <v>91.69974949317637</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.4234693334682</v>
+        <v>184.6109343273264</v>
       </c>
       <c r="R9" t="n">
-        <v>124.2083488660223</v>
+        <v>116.2405606161585</v>
       </c>
       <c r="S9" t="n">
-        <v>29.12935451287544</v>
+        <v>87.58412083663232</v>
       </c>
       <c r="T9" t="n">
-        <v>4.834719646486888</v>
+        <v>105.0125170689049</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>143.9193489337117</v>
+        <v>136.1753097931356</v>
       </c>
       <c r="B10" t="n">
-        <v>48.74985810266428</v>
+        <v>131.8282640821839</v>
       </c>
       <c r="C10" t="n">
-        <v>26.00144268383024</v>
+        <v>130.1083148171956</v>
       </c>
       <c r="D10" t="n">
-        <v>34.62346122059873</v>
+        <v>15.77136092030054</v>
       </c>
       <c r="E10" t="n">
-        <v>26.06035250399815</v>
+        <v>180.278372816048</v>
       </c>
       <c r="F10" t="n">
-        <v>70.14019763972961</v>
+        <v>89.07115956944064</v>
       </c>
       <c r="G10" t="n">
-        <v>156.4026737048656</v>
+        <v>30.89381247970104</v>
       </c>
       <c r="H10" t="n">
-        <v>46.57479341679969</v>
+        <v>55.00394267603254</v>
       </c>
       <c r="I10" t="n">
-        <v>62.53397847780546</v>
+        <v>128.2031592154676</v>
       </c>
       <c r="J10" t="n">
-        <v>52.20666239838309</v>
+        <v>139.6891848935268</v>
       </c>
       <c r="K10" t="n">
-        <v>152.9594828817822</v>
+        <v>128.9241045572778</v>
       </c>
       <c r="L10" t="n">
-        <v>104.363282019435</v>
+        <v>145.2857428381359</v>
       </c>
       <c r="M10" t="n">
-        <v>21.33547771808445</v>
+        <v>96.5798348254352</v>
       </c>
       <c r="N10" t="n">
-        <v>65.11137502328982</v>
+        <v>179.5156161511906</v>
       </c>
       <c r="O10" t="n">
-        <v>78.36618149430322</v>
+        <v>135.3206207775002</v>
       </c>
       <c r="P10" t="n">
-        <v>54.77981617035363</v>
+        <v>126.156196594896</v>
       </c>
       <c r="Q10" t="n">
-        <v>26.07161596340067</v>
+        <v>76.09833938513781</v>
       </c>
       <c r="R10" t="n">
-        <v>125.9744405849303</v>
+        <v>91.37144994495725</v>
       </c>
       <c r="S10" t="n">
-        <v>35.92165150712577</v>
+        <v>107.4334909716001</v>
       </c>
       <c r="T10" t="n">
-        <v>21.56896536050677</v>
+        <v>80.7858234358937</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>144.7346953166133</v>
+        <v>98.11578076695814</v>
       </c>
       <c r="B11" t="n">
-        <v>51.10676761368599</v>
+        <v>113.162694015314</v>
       </c>
       <c r="C11" t="n">
-        <v>30.18986671931345</v>
+        <v>164.1893027135841</v>
       </c>
       <c r="D11" t="n">
-        <v>37.87000261135064</v>
+        <v>230.9420401814479</v>
       </c>
       <c r="E11" t="n">
-        <v>30.24061843815439</v>
+        <v>59.01804235855194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.79833114933612</v>
+        <v>148.9353745287511</v>
       </c>
       <c r="G11" t="n">
-        <v>157.1532671404577</v>
+        <v>201.5566842504624</v>
       </c>
       <c r="H11" t="n">
-        <v>49.03635806936491</v>
+        <v>253.9027224331392</v>
       </c>
       <c r="I11" t="n">
-        <v>64.38828694065433</v>
+        <v>100.5237871510911</v>
       </c>
       <c r="J11" t="n">
-        <v>54.41404809116987</v>
+        <v>158.5648704794092</v>
       </c>
       <c r="K11" t="n">
-        <v>153.7268891064658</v>
+        <v>191.1900713812688</v>
       </c>
       <c r="L11" t="n">
-        <v>105.4848219639088</v>
+        <v>73.22760228525692</v>
       </c>
       <c r="M11" t="n">
-        <v>26.27842537802215</v>
+        <v>183.5215445539434</v>
       </c>
       <c r="N11" t="n">
-        <v>66.89427619993276</v>
+        <v>35.84306400188456</v>
       </c>
       <c r="O11" t="n">
-        <v>79.85368765991633</v>
+        <v>96.13398806183503</v>
       </c>
       <c r="P11" t="n">
-        <v>56.88744405004621</v>
+        <v>132.7453948085127</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.25032545002531</v>
+        <v>225.0937135803385</v>
       </c>
       <c r="R11" t="n">
-        <v>126.9051327235251</v>
+        <v>140.5882276215454</v>
       </c>
       <c r="S11" t="n">
-        <v>39.06044134272925</v>
+        <v>113.6706633152339</v>
       </c>
       <c r="T11" t="n">
-        <v>26.46834519973135</v>
+        <v>143.7159383147971</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>181.4249496847664</v>
+        <v>43.66671414919261</v>
       </c>
       <c r="B12" t="n">
-        <v>120.7426272517145</v>
+        <v>67.1991558744234</v>
       </c>
       <c r="C12" t="n">
-        <v>113.4826347608173</v>
+        <v>93.93030194103605</v>
       </c>
       <c r="D12" t="n">
-        <v>115.762763605189</v>
+        <v>122.4640718242605</v>
       </c>
       <c r="E12" t="n">
-        <v>113.4961468211551</v>
+        <v>85.52163306302657</v>
       </c>
       <c r="F12" t="n">
-        <v>130.8506044906055</v>
+        <v>65.02873297640859</v>
       </c>
       <c r="G12" t="n">
-        <v>191.4785359058482</v>
+        <v>97.34090244449963</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8809607587215</v>
+        <v>150.1806764886493</v>
       </c>
       <c r="I12" t="n">
-        <v>126.9359359475448</v>
+        <v>48.91289824843854</v>
       </c>
       <c r="J12" t="n">
-        <v>122.1792493404477</v>
+        <v>111.3181610633688</v>
       </c>
       <c r="K12" t="n">
-        <v>188.6765400734251</v>
+        <v>114.8418858524568</v>
       </c>
       <c r="L12" t="n">
-        <v>151.9668648241606</v>
+        <v>45.68872060654281</v>
       </c>
       <c r="M12" t="n">
-        <v>112.5052708990802</v>
+        <v>105.5374144109026</v>
       </c>
       <c r="N12" t="n">
-        <v>128.2252881768649</v>
+        <v>73.22888957625395</v>
       </c>
       <c r="O12" t="n">
-        <v>135.4381474054287</v>
+        <v>40.70550715007027</v>
       </c>
       <c r="P12" t="n">
-        <v>123.3006959845495</v>
+        <v>79.8131706478559</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.4987336033297</v>
+        <v>132.8774258104833</v>
       </c>
       <c r="R12" t="n">
-        <v>167.5463907438853</v>
+        <v>42.66363773803469</v>
       </c>
       <c r="S12" t="n">
-        <v>116.1576446800465</v>
+        <v>17.67621730852439</v>
       </c>
       <c r="T12" t="n">
-        <v>112.5497829288857</v>
+        <v>49.76536424937321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>205.6644165684804</v>
+        <v>124.7550808301777</v>
       </c>
       <c r="B13" t="n">
-        <v>154.7954195381112</v>
+        <v>85.64977292232672</v>
       </c>
       <c r="C13" t="n">
-        <v>149.2017032965458</v>
+        <v>145.0770139647499</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9432254585951</v>
+        <v>62.67400117569504</v>
       </c>
       <c r="E13" t="n">
-        <v>149.2119808111353</v>
+        <v>139.9701507162379</v>
       </c>
       <c r="F13" t="n">
-        <v>162.802704430517</v>
+        <v>40.95135914417012</v>
       </c>
       <c r="G13" t="n">
-        <v>214.5853433647802</v>
+        <v>22.425577265886</v>
       </c>
       <c r="H13" t="n">
-        <v>154.1242506121847</v>
+        <v>70.50250470167001</v>
       </c>
       <c r="I13" t="n">
-        <v>159.6733281083995</v>
+        <v>87.14319941325029</v>
       </c>
       <c r="J13" t="n">
-        <v>155.9185968501792</v>
+        <v>88.35910834289396</v>
       </c>
       <c r="K13" t="n">
-        <v>212.0888414047571</v>
+        <v>153.0674054178311</v>
       </c>
       <c r="L13" t="n">
-        <v>180.2131179432233</v>
+        <v>110.7449840678201</v>
       </c>
       <c r="M13" t="n">
-        <v>148.4596775370634</v>
+        <v>47.34207506319412</v>
       </c>
       <c r="N13" t="n">
-        <v>160.7002314944613</v>
+        <v>149.906717755663</v>
       </c>
       <c r="O13" t="n">
-        <v>166.5122567469075</v>
+        <v>122.5985076453201</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7989206104675</v>
+        <v>76.6854484332885</v>
       </c>
       <c r="Q13" t="n">
-        <v>149.2139484227028</v>
+        <v>50.06237628380143</v>
       </c>
       <c r="R13" t="n">
-        <v>193.5319945787675</v>
+        <v>91.83665269517384</v>
       </c>
       <c r="S13" t="n">
-        <v>151.2462835640908</v>
+        <v>93.45045271352581</v>
       </c>
       <c r="T13" t="n">
-        <v>148.4934123510963</v>
+        <v>40.18094392626725</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>143.67811350864</v>
+        <v>168.2750172110954</v>
       </c>
       <c r="B14" t="n">
-        <v>48.03300915961916</v>
+        <v>98.82645526385032</v>
       </c>
       <c r="C14" t="n">
-        <v>24.63120633543279</v>
+        <v>194.8038829782073</v>
       </c>
       <c r="D14" t="n">
-        <v>33.60662688804783</v>
+        <v>93.59566168442129</v>
       </c>
       <c r="E14" t="n">
-        <v>24.69338527887171</v>
+        <v>157.5852979162897</v>
       </c>
       <c r="F14" t="n">
-        <v>69.64387000187803</v>
+        <v>63.18746506398371</v>
       </c>
       <c r="G14" t="n">
-        <v>156.1807211083648</v>
+        <v>59.65988792760608</v>
       </c>
       <c r="H14" t="n">
-        <v>45.82393136468895</v>
+        <v>72.9506963196134</v>
       </c>
       <c r="I14" t="n">
-        <v>61.97676797123896</v>
+        <v>109.7804145857173</v>
       </c>
       <c r="J14" t="n">
-        <v>51.53791713560902</v>
+        <v>73.18671335925104</v>
       </c>
       <c r="K14" t="n">
-        <v>152.7325266842672</v>
+        <v>202.9148265234524</v>
       </c>
       <c r="L14" t="n">
-        <v>104.0303606538317</v>
+        <v>138.6894294635902</v>
       </c>
       <c r="M14" t="n">
-        <v>19.64240090612737</v>
+        <v>27.96619813343339</v>
       </c>
       <c r="N14" t="n">
-        <v>64.57640793139275</v>
+        <v>179.7765770562701</v>
       </c>
       <c r="O14" t="n">
-        <v>77.92226707364351</v>
+        <v>165.6288983041088</v>
       </c>
       <c r="P14" t="n">
-        <v>54.14286253566478</v>
+        <v>81.51735326766754</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.7052719645262</v>
+        <v>22.30095452151283</v>
       </c>
       <c r="R14" t="n">
-        <v>125.6987708157255</v>
+        <v>140.4716752358523</v>
       </c>
       <c r="S14" t="n">
-        <v>34.94261511246042</v>
+        <v>137.6867853799247</v>
       </c>
       <c r="T14" t="n">
-        <v>19.89576765598393</v>
+        <v>75.5425465772574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>152.6516448146753</v>
+        <v>145.5637307615742</v>
       </c>
       <c r="B15" t="n">
-        <v>70.47194003397537</v>
+        <v>81.98662799172152</v>
       </c>
       <c r="C15" t="n">
-        <v>57.14735942073639</v>
+        <v>173.3241377855723</v>
       </c>
       <c r="D15" t="n">
-        <v>61.55103357391022</v>
+        <v>84.89733990366268</v>
       </c>
       <c r="E15" t="n">
-        <v>57.17418683072774</v>
+        <v>140.386001648077</v>
       </c>
       <c r="F15" t="n">
-        <v>86.65675387448256</v>
+        <v>42.12780859051833</v>
       </c>
       <c r="G15" t="n">
-        <v>164.4735298130158</v>
+        <v>46.03906213220981</v>
       </c>
       <c r="H15" t="n">
-        <v>68.98519441836694</v>
+        <v>76.22960039744491</v>
       </c>
       <c r="I15" t="n">
-        <v>80.62409150734632</v>
+        <v>90.37377075045744</v>
       </c>
       <c r="J15" t="n">
-        <v>72.90597551573578</v>
+        <v>67.68757219815468</v>
       </c>
       <c r="K15" t="n">
-        <v>161.2028196731823</v>
+        <v>182.6483363989316</v>
       </c>
       <c r="L15" t="n">
-        <v>116.1096046888045</v>
+        <v>118.3585307724313</v>
       </c>
       <c r="M15" t="n">
-        <v>55.18104997715427</v>
+        <v>20.29290862302913</v>
       </c>
       <c r="N15" t="n">
-        <v>82.63919665961068</v>
+        <v>159.2902323546645</v>
       </c>
       <c r="O15" t="n">
-        <v>93.43984197932052</v>
+        <v>142.9378851174544</v>
       </c>
       <c r="P15" t="n">
-        <v>74.7701406096047</v>
+        <v>67.0187736345121</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.17932166496352</v>
+        <v>34.48413655117737</v>
       </c>
       <c r="R15" t="n">
-        <v>135.8650262128133</v>
+        <v>118.3248712946131</v>
       </c>
       <c r="S15" t="n">
-        <v>62.29053470730292</v>
+        <v>114.9530648167958</v>
       </c>
       <c r="T15" t="n">
-        <v>55.27174625290085</v>
+        <v>53.03006523997713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>148.9923859111362</v>
+        <v>78.49286342151883</v>
       </c>
       <c r="B16" t="n">
-        <v>62.14902032228154</v>
+        <v>97.22512162118983</v>
       </c>
       <c r="C16" t="n">
-        <v>46.49760298800326</v>
+        <v>87.88607843214999</v>
       </c>
       <c r="D16" t="n">
-        <v>51.81443938598356</v>
+        <v>73.31981450971091</v>
       </c>
       <c r="E16" t="n">
-        <v>46.53057096815065</v>
+        <v>133.3205388170829</v>
       </c>
       <c r="F16" t="n">
-        <v>80.03498851708414</v>
+        <v>67.57061764608613</v>
       </c>
       <c r="G16" t="n">
-        <v>161.0830481584581</v>
+        <v>58.7113671737158</v>
       </c>
       <c r="H16" t="n">
-        <v>60.45794773069153</v>
+        <v>107.8933329845846</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46053720367213</v>
+        <v>86.12514212344719</v>
       </c>
       <c r="J16" t="n">
-        <v>64.89597569008581</v>
+        <v>125.1068407893229</v>
       </c>
       <c r="K16" t="n">
-        <v>157.7420535730776</v>
+        <v>97.55181860872818</v>
       </c>
       <c r="L16" t="n">
-        <v>111.2548726836609</v>
+        <v>94.85553411457217</v>
       </c>
       <c r="M16" t="n">
-        <v>44.05853687366773</v>
+        <v>98.15666915847976</v>
       </c>
       <c r="N16" t="n">
-        <v>75.66665857174446</v>
+        <v>124.5579241555414</v>
       </c>
       <c r="O16" t="n">
-        <v>87.33390214565895</v>
+        <v>77.51219067114373</v>
       </c>
       <c r="P16" t="n">
-        <v>66.98343318796968</v>
+        <v>100.241638900464</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.53688022345835</v>
+        <v>105.871425085278</v>
       </c>
       <c r="R16" t="n">
-        <v>131.7403193508942</v>
+        <v>36.47326813959437</v>
       </c>
       <c r="S16" t="n">
-        <v>52.69076872649376</v>
+        <v>49.6793333744846</v>
       </c>
       <c r="T16" t="n">
-        <v>44.17207634594735</v>
+        <v>50.41953916295318</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>149.5047079186843</v>
+        <v>31.7029448030681</v>
       </c>
       <c r="B17" t="n">
-        <v>63.36739979971971</v>
+        <v>106.302606635566</v>
       </c>
       <c r="C17" t="n">
-        <v>48.11396589336741</v>
+        <v>54.76294603024412</v>
       </c>
       <c r="D17" t="n">
-        <v>53.2697170936914</v>
+        <v>121.6426262617446</v>
       </c>
       <c r="E17" t="n">
-        <v>48.14582707753868</v>
+        <v>118.5999474765151</v>
       </c>
       <c r="F17" t="n">
-        <v>80.9847270618846</v>
+        <v>97.13977000518057</v>
       </c>
       <c r="G17" t="n">
-        <v>161.5570333794796</v>
+        <v>108.8646290935842</v>
       </c>
       <c r="H17" t="n">
-        <v>61.7097243079661</v>
+        <v>158.4845627839642</v>
       </c>
       <c r="I17" t="n">
-        <v>74.49414176034415</v>
+        <v>88.02118033427621</v>
       </c>
       <c r="J17" t="n">
-        <v>66.06371387627523</v>
+        <v>148.6262734435612</v>
       </c>
       <c r="K17" t="n">
-        <v>158.2260474631463</v>
+        <v>76.34115825842166</v>
       </c>
       <c r="L17" t="n">
-        <v>111.9400434438711</v>
+        <v>79.44839528189122</v>
       </c>
       <c r="M17" t="n">
-        <v>45.76113309137452</v>
+        <v>135.6545255636648</v>
       </c>
       <c r="N17" t="n">
-        <v>76.67052790851973</v>
+        <v>93.18377605083302</v>
       </c>
       <c r="O17" t="n">
-        <v>88.20508542224584</v>
+        <v>32.28845278771387</v>
       </c>
       <c r="P17" t="n">
-        <v>68.11539438339436</v>
+        <v>117.9044924371082</v>
       </c>
       <c r="Q17" t="n">
-        <v>48.15192468936899</v>
+        <v>153.4024015887576</v>
       </c>
       <c r="R17" t="n">
-        <v>132.3194557615536</v>
+        <v>15.95480927289271</v>
       </c>
       <c r="S17" t="n">
-        <v>54.12248829596627</v>
+        <v>21.80463997002088</v>
       </c>
       <c r="T17" t="n">
-        <v>45.87045845716342</v>
+        <v>79.40721922293736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>195.8456604160529</v>
+        <v>128.0173511015188</v>
       </c>
       <c r="B18" t="n">
-        <v>141.4895486293117</v>
+        <v>25.36076933903121</v>
       </c>
       <c r="C18" t="n">
-        <v>135.3470307318818</v>
+        <v>180.8090576321723</v>
       </c>
       <c r="D18" t="n">
-        <v>137.2644446795701</v>
+        <v>145.24091692446</v>
       </c>
       <c r="E18" t="n">
-        <v>135.3583602106981</v>
+        <v>78.60901203159236</v>
       </c>
       <c r="F18" t="n">
-        <v>150.2078261317858</v>
+        <v>44.44416098910983</v>
       </c>
       <c r="G18" t="n">
-        <v>205.1939084094046</v>
+        <v>105.0677362007748</v>
       </c>
       <c r="H18" t="n">
-        <v>140.754946940113</v>
+        <v>145.9875878605044</v>
       </c>
       <c r="I18" t="n">
-        <v>146.8102250204634</v>
+        <v>45.1265338522384</v>
       </c>
       <c r="J18" t="n">
-        <v>142.7174807270476</v>
+        <v>25.09993227751615</v>
       </c>
       <c r="K18" t="n">
-        <v>202.5817047755267</v>
+        <v>198.8825638710157</v>
       </c>
       <c r="L18" t="n">
-        <v>168.9213969281707</v>
+        <v>73.39718565529695</v>
       </c>
       <c r="M18" t="n">
-        <v>134.5286077968375</v>
+        <v>54.76978031111301</v>
       </c>
       <c r="N18" t="n">
-        <v>147.9264508589317</v>
+        <v>111.4443545533063</v>
       </c>
       <c r="O18" t="n">
-        <v>154.2206280245756</v>
+        <v>124.446207393024</v>
       </c>
       <c r="P18" t="n">
-        <v>143.6787109002381</v>
+        <v>8.738652682528215</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.3605291997616</v>
+        <v>102.5278281489397</v>
       </c>
       <c r="R18" t="n">
-        <v>183.0636593837853</v>
+        <v>125.0271899879189</v>
       </c>
       <c r="S18" t="n">
-        <v>137.5976335308709</v>
+        <v>105.810318976003</v>
       </c>
       <c r="T18" t="n">
-        <v>134.5658350883284</v>
+        <v>58.67796500962402</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>152.4881994047674</v>
+        <v>60.45231748818961</v>
       </c>
       <c r="B19" t="n">
-        <v>70.11719208036318</v>
+        <v>49.62953168576681</v>
       </c>
       <c r="C19" t="n">
-        <v>56.70932006156617</v>
+        <v>125.8238882551359</v>
       </c>
       <c r="D19" t="n">
-        <v>61.14455026491688</v>
+        <v>156.2516106874333</v>
       </c>
       <c r="E19" t="n">
-        <v>56.73635459594919</v>
+        <v>45.81629399945292</v>
       </c>
       <c r="F19" t="n">
-        <v>86.36850864258902</v>
+        <v>74.30222890286413</v>
       </c>
       <c r="G19" t="n">
-        <v>164.3218436551736</v>
+        <v>125.2330066155177</v>
       </c>
       <c r="H19" t="n">
-        <v>68.62276110753787</v>
+        <v>177.4511171229288</v>
       </c>
       <c r="I19" t="n">
-        <v>80.3141981499366</v>
+        <v>30.37855348707548</v>
       </c>
       <c r="J19" t="n">
-        <v>72.56312809535839</v>
+        <v>100.0591955055969</v>
       </c>
       <c r="K19" t="n">
-        <v>161.0480529645325</v>
+        <v>149.5283273813611</v>
       </c>
       <c r="L19" t="n">
-        <v>115.8946357433025</v>
+        <v>5.91745048387523</v>
       </c>
       <c r="M19" t="n">
-        <v>54.72727445856884</v>
+        <v>112.1467835716575</v>
       </c>
       <c r="N19" t="n">
-        <v>82.33688795204816</v>
+        <v>42.96715589479131</v>
       </c>
       <c r="O19" t="n">
-        <v>93.1725837475956</v>
+        <v>56.75875203718382</v>
       </c>
       <c r="P19" t="n">
-        <v>74.43587992267157</v>
+        <v>68.63185175505865</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.74152905190071</v>
+        <v>150.1802230933413</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6813606981105</v>
+        <v>81.18325191632749</v>
       </c>
       <c r="S19" t="n">
-        <v>61.88890859599994</v>
+        <v>52.86904698319996</v>
       </c>
       <c r="T19" t="n">
-        <v>54.81872150029937</v>
+        <v>67.34974051974856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>142.4878787505635</v>
+        <v>165.3510598206822</v>
       </c>
       <c r="B20" t="n">
-        <v>44.34597229018334</v>
+        <v>65.30761917532035</v>
       </c>
       <c r="C20" t="n">
-        <v>16.31231482568659</v>
+        <v>212.6171074297935</v>
       </c>
       <c r="D20" t="n">
-        <v>28.08559524429044</v>
+        <v>149.987534197086</v>
       </c>
       <c r="E20" t="n">
-        <v>16.40605272344473</v>
+        <v>115.5597676956778</v>
       </c>
       <c r="F20" t="n">
-        <v>67.15403128831609</v>
+        <v>65.26259928946537</v>
       </c>
       <c r="G20" t="n">
-        <v>155.0864692207624</v>
+        <v>110.1233259580542</v>
       </c>
       <c r="H20" t="n">
-        <v>41.94315170739287</v>
+        <v>138.1969905847133</v>
       </c>
       <c r="I20" t="n">
-        <v>59.1651507020344</v>
+        <v>84.60777439158724</v>
       </c>
       <c r="J20" t="n">
-        <v>48.12018487194903</v>
+        <v>15.47869985224125</v>
       </c>
       <c r="K20" t="n">
-        <v>151.6133898994216</v>
+        <v>227.9936631519031</v>
       </c>
       <c r="L20" t="n">
-        <v>102.3802286928484</v>
+        <v>113.3704243331746</v>
       </c>
       <c r="M20" t="n">
-        <v>6.724522495366015</v>
+        <v>45.087919025288</v>
       </c>
       <c r="N20" t="n">
-        <v>61.88301665849279</v>
+        <v>151.2111842890743</v>
       </c>
       <c r="O20" t="n">
-        <v>75.70518473215608</v>
+        <v>161.8975953174585</v>
       </c>
       <c r="P20" t="n">
-        <v>50.9003423661329</v>
+        <v>46.27729053975919</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.42393839110627</v>
+        <v>88.29945124512805</v>
       </c>
       <c r="R20" t="n">
-        <v>124.3365444027537</v>
+        <v>155.6655215870414</v>
       </c>
       <c r="S20" t="n">
-        <v>29.67122579758371</v>
+        <v>140.4819421878874</v>
       </c>
       <c r="T20" t="n">
-        <v>7.432150432717741</v>
+        <v>83.34703003353346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>145.6725098172915</v>
+        <v>97.0160613168844</v>
       </c>
       <c r="B21" t="n">
-        <v>53.70521188856179</v>
+        <v>8.393195259057681</v>
       </c>
       <c r="C21" t="n">
-        <v>34.40604802365313</v>
+        <v>155.2097466046778</v>
       </c>
       <c r="D21" t="n">
-        <v>41.30962582570459</v>
+        <v>147.3798399427089</v>
       </c>
       <c r="E21" t="n">
-        <v>34.4505891328154</v>
+        <v>52.88683617897856</v>
       </c>
       <c r="F21" t="n">
-        <v>73.67053986435654</v>
+        <v>48.31360814181037</v>
       </c>
       <c r="G21" t="n">
-        <v>158.0173960708</v>
+        <v>110.0809474154358</v>
       </c>
       <c r="H21" t="n">
-        <v>51.73888770338018</v>
+        <v>158.1602319014029</v>
       </c>
       <c r="I21" t="n">
-        <v>66.46953876196262</v>
+        <v>12.83218789306432</v>
       </c>
       <c r="J21" t="n">
-        <v>56.86155746850558</v>
+        <v>58.81576456246268</v>
       </c>
       <c r="K21" t="n">
-        <v>154.6101695310746</v>
+        <v>175.7813728030993</v>
       </c>
       <c r="L21" t="n">
-        <v>106.7679528362025</v>
+        <v>39.6701205481728</v>
       </c>
       <c r="M21" t="n">
-        <v>31.03069010551158</v>
+        <v>78.04309590068469</v>
       </c>
       <c r="N21" t="n">
-        <v>68.89987138151207</v>
+        <v>78.61653127979274</v>
       </c>
       <c r="O21" t="n">
-        <v>81.54115231564666</v>
+        <v>93.3487056122587</v>
       </c>
       <c r="P21" t="n">
-        <v>59.23284037274554</v>
+        <v>28.16058627673423</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.45911023094567</v>
+        <v>121.9584497823806</v>
       </c>
       <c r="R21" t="n">
-        <v>127.9736722910284</v>
+        <v>102.2810402486009</v>
       </c>
       <c r="S21" t="n">
-        <v>42.40361029399275</v>
+        <v>78.80915929507297</v>
       </c>
       <c r="T21" t="n">
-        <v>31.19168776594426</v>
+        <v>52.2363599872462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>143.4473305372925</v>
+        <v>20.45186384419567</v>
       </c>
       <c r="B22" t="n">
-        <v>47.33821189907461</v>
+        <v>104.2229666234636</v>
       </c>
       <c r="C22" t="n">
-        <v>23.2472076261278</v>
+        <v>86.18431776495778</v>
       </c>
       <c r="D22" t="n">
-        <v>32.60585388647397</v>
+        <v>169.4532718023674</v>
       </c>
       <c r="E22" t="n">
-        <v>23.31307816236261</v>
+        <v>88.78158562181473</v>
       </c>
       <c r="F22" t="n">
-        <v>69.16650175997133</v>
+        <v>116.6378148127269</v>
       </c>
       <c r="G22" t="n">
-        <v>155.9684390599664</v>
+        <v>149.4021981583883</v>
       </c>
       <c r="H22" t="n">
-        <v>45.0951108501726</v>
+        <v>201.7086696571563</v>
       </c>
       <c r="I22" t="n">
-        <v>61.43985762544068</v>
+        <v>84.01592699644199</v>
       </c>
       <c r="J22" t="n">
-        <v>50.89099369780995</v>
+        <v>154.015961982634</v>
       </c>
       <c r="K22" t="n">
-        <v>152.5154452645174</v>
+        <v>112.9619288107654</v>
       </c>
       <c r="L22" t="n">
-        <v>103.7113893197846</v>
+        <v>59.47205704860381</v>
       </c>
       <c r="M22" t="n">
-        <v>17.87624821461885</v>
+        <v>157.2054814451644</v>
       </c>
       <c r="N22" t="n">
-        <v>64.06128938910983</v>
+        <v>49.3612485396681</v>
       </c>
       <c r="O22" t="n">
-        <v>77.49590984542255</v>
+        <v>19.67616852466493</v>
       </c>
       <c r="P22" t="n">
-        <v>53.5274312892887</v>
+        <v>121.8840652058845</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.32566825869806</v>
+        <v>186.6248221445641</v>
       </c>
       <c r="R22" t="n">
-        <v>125.4349126896412</v>
+        <v>67.27441990524548</v>
       </c>
       <c r="S22" t="n">
-        <v>33.9812108049607</v>
+        <v>46.79241187124135</v>
       </c>
       <c r="T22" t="n">
-        <v>18.15428069339368</v>
+        <v>102.9661362934243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>142.4412030877186</v>
+        <v>97.93867021211395</v>
       </c>
       <c r="B23" t="n">
-        <v>44.19576908034428</v>
+        <v>76.19562024821653</v>
       </c>
       <c r="C23" t="n">
-        <v>15.89944531151077</v>
+        <v>167.2297970231251</v>
       </c>
       <c r="D23" t="n">
-        <v>27.84782588403477</v>
+        <v>207.2990906140869</v>
       </c>
       <c r="E23" t="n">
-        <v>15.99560290223083</v>
+        <v>18.84072499327475</v>
       </c>
       <c r="F23" t="n">
-        <v>67.0549376594561</v>
+        <v>116.2325368661724</v>
       </c>
       <c r="G23" t="n">
-        <v>155.0435863930007</v>
+        <v>173.9771639745092</v>
       </c>
       <c r="H23" t="n">
-        <v>41.78431190519692</v>
+        <v>224.7935594020974</v>
       </c>
       <c r="I23" t="n">
-        <v>59.05265280947037</v>
+        <v>67.4515271516286</v>
       </c>
       <c r="J23" t="n">
-        <v>47.98179798998741</v>
+        <v>118.981599348867</v>
       </c>
       <c r="K23" t="n">
-        <v>151.5695244534185</v>
+        <v>193.0274768209249</v>
       </c>
       <c r="L23" t="n">
-        <v>102.3152577743972</v>
+        <v>47.032480252308</v>
       </c>
       <c r="M23" t="n">
-        <v>5.64977424611734</v>
+        <v>147.4382747394807</v>
       </c>
       <c r="N23" t="n">
-        <v>61.77546840774826</v>
+        <v>35.54687655626581</v>
       </c>
       <c r="O23" t="n">
-        <v>75.61729789916647</v>
+        <v>94.84859988412381</v>
       </c>
       <c r="P23" t="n">
-        <v>50.76953416401366</v>
+        <v>94.99071272040428</v>
       </c>
       <c r="Q23" t="n">
-        <v>16.01394699992046</v>
+        <v>191.3923160940987</v>
       </c>
       <c r="R23" t="n">
-        <v>124.2830520234329</v>
+        <v>130.6688552615138</v>
       </c>
       <c r="S23" t="n">
-        <v>29.44626269278674</v>
+        <v>101.9630401548186</v>
       </c>
       <c r="T23" t="n">
-        <v>6.475925130508665</v>
+        <v>114.5777499227635</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>152.0702606638138</v>
+        <v>71.57812096386948</v>
       </c>
       <c r="B24" t="n">
-        <v>69.203568158634</v>
+        <v>33.54843818471959</v>
       </c>
       <c r="C24" t="n">
-        <v>55.57571594228281</v>
+        <v>127.9154360085601</v>
       </c>
       <c r="D24" t="n">
-        <v>60.09466904602356</v>
+        <v>133.6849294161093</v>
       </c>
       <c r="E24" t="n">
-        <v>55.60330164198382</v>
+        <v>62.03607627284207</v>
       </c>
       <c r="F24" t="n">
-        <v>85.62845616847899</v>
+        <v>47.72254716598518</v>
       </c>
       <c r="G24" t="n">
-        <v>163.9340767591884</v>
+        <v>100.3578746579399</v>
       </c>
       <c r="H24" t="n">
-        <v>67.68896928358687</v>
+        <v>151.926288782457</v>
       </c>
       <c r="I24" t="n">
-        <v>79.51781967030682</v>
+        <v>15.05930654686285</v>
       </c>
       <c r="J24" t="n">
-        <v>71.6806862385925</v>
+        <v>80.82864254967964</v>
       </c>
       <c r="K24" t="n">
-        <v>160.6523843094743</v>
+        <v>148.6424742132145</v>
       </c>
       <c r="L24" t="n">
-        <v>115.3441798042924</v>
+        <v>29.26748949613098</v>
       </c>
       <c r="M24" t="n">
-        <v>53.55173004036075</v>
+        <v>86.35292389118884</v>
       </c>
       <c r="N24" t="n">
-        <v>81.56026200473052</v>
+        <v>69.61661902181096</v>
       </c>
       <c r="O24" t="n">
-        <v>92.48699142503702</v>
+        <v>68.00945974044205</v>
       </c>
       <c r="P24" t="n">
-        <v>73.5759025803594</v>
+        <v>48.60782285581196</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.60858153019053</v>
+        <v>123.5245272214102</v>
       </c>
       <c r="R24" t="n">
-        <v>135.2114819885609</v>
+        <v>75.4653383669457</v>
       </c>
       <c r="S24" t="n">
-        <v>60.85187119436994</v>
+        <v>51.52538753976994</v>
       </c>
       <c r="T24" t="n">
-        <v>53.6451810284907</v>
+        <v>41.38827384180468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>142.3868209629156</v>
+        <v>90.41772618716709</v>
       </c>
       <c r="B25" t="n">
-        <v>44.02018231961113</v>
+        <v>120.5235816713243</v>
       </c>
       <c r="C25" t="n">
-        <v>15.40463592761642</v>
+        <v>80.72176663816926</v>
       </c>
       <c r="D25" t="n">
-        <v>27.56831248582701</v>
+        <v>63.93368522295452</v>
       </c>
       <c r="E25" t="n">
-        <v>15.50386271399951</v>
+        <v>155.7391104629368</v>
       </c>
       <c r="F25" t="n">
-        <v>66.93933904186859</v>
+        <v>88.68667693477204</v>
       </c>
       <c r="G25" t="n">
-        <v>154.9936260897608</v>
+        <v>63.63028684453345</v>
       </c>
       <c r="H25" t="n">
-        <v>41.59854766983422</v>
+        <v>105.15515773941</v>
       </c>
       <c r="I25" t="n">
-        <v>58.92135649053353</v>
+        <v>109.4402995390511</v>
       </c>
       <c r="J25" t="n">
-        <v>47.82011485976009</v>
+        <v>146.2430924706848</v>
       </c>
       <c r="K25" t="n">
-        <v>151.5184186489686</v>
+        <v>84.08695455130585</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2395345269629</v>
+        <v>116.6936611532197</v>
       </c>
       <c r="M25" t="n">
-        <v>4.05344247285928</v>
+        <v>115.0343426595393</v>
       </c>
       <c r="N25" t="n">
-        <v>61.64997115851224</v>
+        <v>143.6263075221981</v>
       </c>
       <c r="O25" t="n">
-        <v>75.51480774272007</v>
+        <v>90.30531714540577</v>
       </c>
       <c r="P25" t="n">
-        <v>50.61675657407968</v>
+        <v>122.7938093403883</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.52278793789795</v>
+        <v>114.0863363781685</v>
       </c>
       <c r="R25" t="n">
-        <v>124.220720763921</v>
+        <v>43.31721156829379</v>
       </c>
       <c r="S25" t="n">
-        <v>29.18206355659745</v>
+        <v>65.89694484542066</v>
       </c>
       <c r="T25" t="n">
-        <v>5.142767070813385</v>
+        <v>72.48964547420813</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>206.1001225034177</v>
+        <v>99.08790003086646</v>
       </c>
       <c r="B26" t="n">
-        <v>155.373840022863</v>
+        <v>73.39119431791507</v>
       </c>
       <c r="C26" t="n">
-        <v>149.801724022325</v>
+        <v>168.3348592120463</v>
       </c>
       <c r="D26" t="n">
-        <v>151.5363506400845</v>
+        <v>205.8567465030488</v>
       </c>
       <c r="E26" t="n">
-        <v>149.8119603738399</v>
+        <v>15.52040310994032</v>
       </c>
       <c r="F26" t="n">
-        <v>163.3527741526316</v>
+        <v>113.9243729264572</v>
       </c>
       <c r="G26" t="n">
-        <v>215.0029717014418</v>
+        <v>172.1623515851248</v>
       </c>
       <c r="H26" t="n">
-        <v>154.7051805216551</v>
+        <v>222.7550092721658</v>
       </c>
       <c r="I26" t="n">
-        <v>160.2341410645152</v>
+        <v>65.28469818949141</v>
       </c>
       <c r="J26" t="n">
-        <v>156.4928659626344</v>
+        <v>115.6989428710468</v>
       </c>
       <c r="K26" t="n">
-        <v>212.511375935225</v>
+        <v>193.9744896186093</v>
       </c>
       <c r="L26" t="n">
-        <v>180.7101993034385</v>
+        <v>46.13244716299803</v>
       </c>
       <c r="M26" t="n">
-        <v>149.0626851625825</v>
+        <v>144.6484129360096</v>
       </c>
       <c r="N26" t="n">
-        <v>161.2574731782804</v>
+        <v>37.91643256399972</v>
       </c>
       <c r="O26" t="n">
-        <v>167.050111943747</v>
+        <v>95.92938997398379</v>
       </c>
       <c r="P26" t="n">
-        <v>157.3699773085008</v>
+        <v>92.02387634129737</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.8139201054541</v>
+        <v>188.8617021174078</v>
       </c>
       <c r="R26" t="n">
-        <v>193.9949514268514</v>
+        <v>130.7667993740072</v>
       </c>
       <c r="S26" t="n">
-        <v>151.8382249152687</v>
+        <v>102.0455024717469</v>
       </c>
       <c r="T26" t="n">
-        <v>149.096283539004</v>
+        <v>112.7142416046451</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>144.5623249171902</v>
+        <v>126.7565039220773</v>
       </c>
       <c r="B27" t="n">
-        <v>50.61655315200439</v>
+        <v>36.95269070452454</v>
       </c>
       <c r="C27" t="n">
-        <v>29.35237315108084</v>
+        <v>189.8379306489695</v>
       </c>
       <c r="D27" t="n">
-        <v>37.20579060917919</v>
+        <v>182.1058392042635</v>
       </c>
       <c r="E27" t="n">
-        <v>29.40457040312654</v>
+        <v>44.97842475642083</v>
       </c>
       <c r="F27" t="n">
-        <v>71.45022122359113</v>
+        <v>80.10696075813452</v>
       </c>
       <c r="G27" t="n">
-        <v>156.994532165902</v>
+        <v>143.140213473488</v>
       </c>
       <c r="H27" t="n">
-        <v>48.52523230008642</v>
+        <v>187.3790502709052</v>
       </c>
       <c r="I27" t="n">
-        <v>63.99988478288393</v>
+        <v>48.73443072965915</v>
       </c>
       <c r="J27" t="n">
-        <v>53.95389130302401</v>
+        <v>58.78156693143897</v>
       </c>
       <c r="K27" t="n">
-        <v>153.564612432103</v>
+        <v>211.7580922279049</v>
       </c>
       <c r="L27" t="n">
-        <v>105.2481896368195</v>
+        <v>61.81491943456008</v>
       </c>
       <c r="M27" t="n">
-        <v>25.31184302690463</v>
+        <v>97.49463632978626</v>
       </c>
       <c r="N27" t="n">
-        <v>66.52050770539317</v>
+        <v>88.32167491497249</v>
       </c>
       <c r="O27" t="n">
-        <v>79.54083976145748</v>
+        <v>123.0516845347452</v>
       </c>
       <c r="P27" t="n">
-        <v>56.44745386301777</v>
+        <v>45.48429790237451</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.41455331809122</v>
+        <v>145.193228566553</v>
       </c>
       <c r="R27" t="n">
-        <v>126.7085098509406</v>
+        <v>139.1145576619901</v>
       </c>
       <c r="S27" t="n">
-        <v>38.41681708521899</v>
+        <v>113.8141902746311</v>
       </c>
       <c r="T27" t="n">
-        <v>25.50896028227186</v>
+        <v>88.4832226049641</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>169.2420501013717</v>
+        <v>155.1260109014182</v>
       </c>
       <c r="B28" t="n">
-        <v>101.5216291735</v>
+        <v>74.02431433014696</v>
       </c>
       <c r="C28" t="n">
-        <v>92.76943217812784</v>
+        <v>190.8197965274404</v>
       </c>
       <c r="D28" t="n">
-        <v>95.54515472752168</v>
+        <v>110.1917325794696</v>
       </c>
       <c r="E28" t="n">
-        <v>92.78596067102175</v>
+        <v>132.3555891906736</v>
       </c>
       <c r="F28" t="n">
-        <v>113.356693009068</v>
+        <v>46.43853674242373</v>
       </c>
       <c r="G28" t="n">
-        <v>179.977467664823</v>
+        <v>71.31686933918172</v>
       </c>
       <c r="H28" t="n">
-        <v>100.4952929585725</v>
+        <v>97.64046330818884</v>
       </c>
       <c r="I28" t="n">
-        <v>108.8144796857219</v>
+        <v>87.48313764629813</v>
       </c>
       <c r="J28" t="n">
-        <v>103.2261019499937</v>
+        <v>46.00883945430824</v>
       </c>
       <c r="K28" t="n">
-        <v>176.9934912036993</v>
+        <v>202.4359478749326</v>
       </c>
       <c r="L28" t="n">
-        <v>137.1925185966053</v>
+        <v>117.2751458236202</v>
       </c>
       <c r="M28" t="n">
-        <v>91.5712571414777</v>
+        <v>6.731076533623108</v>
       </c>
       <c r="N28" t="n">
-        <v>110.3158360455798</v>
+        <v>158.183019756131</v>
       </c>
       <c r="O28" t="n">
-        <v>118.6227251710642</v>
+        <v>152.1188497539904</v>
       </c>
       <c r="P28" t="n">
-        <v>104.5510439195587</v>
+        <v>55.50436586971524</v>
       </c>
       <c r="Q28" t="n">
-        <v>92.78912481511398</v>
+        <v>49.07634017434804</v>
       </c>
       <c r="R28" t="n">
-        <v>154.2713589934887</v>
+        <v>134.3511403068098</v>
       </c>
       <c r="S28" t="n">
-        <v>96.02321371424279</v>
+        <v>126.1043277609898</v>
       </c>
       <c r="T28" t="n">
-        <v>91.625939513516</v>
+        <v>62.91635667799912</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>169.0530685537528</v>
+        <v>125.279681282143</v>
       </c>
       <c r="B29" t="n">
-        <v>101.2062728044377</v>
+        <v>29.84322839172793</v>
       </c>
       <c r="C29" t="n">
-        <v>92.42421766818947</v>
+        <v>186.6628799265805</v>
       </c>
       <c r="D29" t="n">
-        <v>95.21000502484316</v>
+        <v>173.9557465997374</v>
       </c>
       <c r="E29" t="n">
-        <v>92.44080788574384</v>
+        <v>50.47664182577601</v>
       </c>
       <c r="F29" t="n">
-        <v>113.0743486157523</v>
+        <v>71.81129870412178</v>
       </c>
       <c r="G29" t="n">
-        <v>179.799770110996</v>
+        <v>134.763335576427</v>
       </c>
       <c r="H29" t="n">
-        <v>100.1767057341872</v>
+        <v>178.589254809703</v>
       </c>
       <c r="I29" t="n">
-        <v>108.5203181630011</v>
+        <v>44.25078575924353</v>
       </c>
       <c r="J29" t="n">
-        <v>102.9159685797841</v>
+        <v>50.90618942412964</v>
       </c>
       <c r="K29" t="n">
-        <v>176.8127947672299</v>
+        <v>207.9085518343346</v>
       </c>
       <c r="L29" t="n">
-        <v>136.9593210548464</v>
+        <v>61.4678099303734</v>
       </c>
       <c r="M29" t="n">
-        <v>91.22150842534471</v>
+        <v>88.60950031375766</v>
       </c>
       <c r="N29" t="n">
-        <v>110.0256885793488</v>
+        <v>91.49184756970796</v>
       </c>
       <c r="O29" t="n">
-        <v>118.3529441625109</v>
+        <v>121.5671243044479</v>
       </c>
       <c r="P29" t="n">
-        <v>104.2448523889506</v>
+        <v>36.66548653155646</v>
       </c>
       <c r="Q29" t="n">
-        <v>92.44398384361962</v>
+        <v>136.2876291966416</v>
       </c>
       <c r="R29" t="n">
-        <v>154.0640148464997</v>
+        <v>134.6934052552634</v>
       </c>
       <c r="S29" t="n">
-        <v>95.68973840979893</v>
+        <v>110.3205924607989</v>
       </c>
       <c r="T29" t="n">
-        <v>91.27640032702374</v>
+        <v>80.99675146999377</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>143.220793259499</v>
+        <v>140.8749413623536</v>
       </c>
       <c r="B30" t="n">
-        <v>46.64724310617491</v>
+        <v>61.47199260853939</v>
       </c>
       <c r="C30" t="n">
-        <v>21.80577093379614</v>
+        <v>178.3033202392187</v>
       </c>
       <c r="D30" t="n">
-        <v>31.59431422378058</v>
+        <v>107.6353890380689</v>
       </c>
       <c r="E30" t="n">
-        <v>21.87598219530548</v>
+        <v>120.191069686971</v>
       </c>
       <c r="F30" t="n">
-        <v>68.6954434392632</v>
+        <v>32.20664716591322</v>
       </c>
       <c r="G30" t="n">
-        <v>155.7601135284876</v>
+        <v>67.4154200458909</v>
       </c>
       <c r="H30" t="n">
-        <v>44.36922363749729</v>
+        <v>101.2939696596725</v>
       </c>
       <c r="I30" t="n">
-        <v>60.90907230158177</v>
+        <v>73.69822681017095</v>
       </c>
       <c r="J30" t="n">
-        <v>50.2489027059838</v>
+        <v>42.97590580131054</v>
       </c>
       <c r="K30" t="n">
-        <v>152.3023966582237</v>
+        <v>190.9367411472725</v>
       </c>
       <c r="L30" t="n">
-        <v>103.3978300461127</v>
+        <v>103.3073012961617</v>
       </c>
       <c r="M30" t="n">
-        <v>15.9567927176973</v>
+        <v>9.888431243128217</v>
       </c>
       <c r="N30" t="n">
-        <v>63.55240185705155</v>
+        <v>144.3147375821818</v>
       </c>
       <c r="O30" t="n">
-        <v>77.07577457524999</v>
+        <v>137.8345230414108</v>
       </c>
       <c r="P30" t="n">
-        <v>52.91734010732604</v>
+        <v>44.16793558376512</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.88939887981687</v>
+        <v>56.50922738233775</v>
       </c>
       <c r="R30" t="n">
-        <v>125.1757816235345</v>
+        <v>121.5237611604087</v>
       </c>
       <c r="S30" t="n">
-        <v>33.01184138117823</v>
+        <v>112.1281941446424</v>
       </c>
       <c r="T30" t="n">
-        <v>16.26766397180064</v>
+        <v>49.23817787057681</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>157.0780689598141</v>
+        <v>64.18372649942954</v>
       </c>
       <c r="B31" t="n">
-        <v>79.60709400342759</v>
+        <v>95.60381966972697</v>
       </c>
       <c r="C31" t="n">
-        <v>68.09416841610714</v>
+        <v>77.66275461687849</v>
       </c>
       <c r="D31" t="n">
-        <v>71.82983236465861</v>
+        <v>87.29802697013861</v>
       </c>
       <c r="E31" t="n">
-        <v>68.11668461745109</v>
+        <v>125.7669754969997</v>
       </c>
       <c r="F31" t="n">
-        <v>94.23581100399669</v>
+        <v>72.24656705296314</v>
       </c>
       <c r="G31" t="n">
-        <v>168.5898487236741</v>
+        <v>72.62983977878078</v>
       </c>
       <c r="H31" t="n">
-        <v>78.294010833896</v>
+        <v>122.3237871013619</v>
       </c>
       <c r="I31" t="n">
-        <v>88.72000459255675</v>
+        <v>81.97385887501132</v>
       </c>
       <c r="J31" t="n">
-        <v>81.76965420875523</v>
+        <v>128.7163555449983</v>
       </c>
       <c r="K31" t="n">
-        <v>165.4005566922399</v>
+        <v>90.55442768160651</v>
       </c>
       <c r="L31" t="n">
-        <v>121.8705681635595</v>
+        <v>86.35536144806824</v>
       </c>
       <c r="M31" t="n">
-        <v>66.45256473680706</v>
+        <v>106.5384625262361</v>
       </c>
       <c r="N31" t="n">
-        <v>90.55513187039233</v>
+        <v>113.0789118387705</v>
       </c>
       <c r="O31" t="n">
-        <v>100.5087018752045</v>
+        <v>63.32500719119659</v>
       </c>
       <c r="P31" t="n">
-        <v>83.43601746427254</v>
+        <v>101.4705647892501</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.12099463149157</v>
+        <v>118.4920288796518</v>
       </c>
       <c r="R31" t="n">
-        <v>140.8200995288911</v>
+        <v>22.96337492432539</v>
       </c>
       <c r="S31" t="n">
-        <v>72.46451405784796</v>
+        <v>36.27243820441304</v>
       </c>
       <c r="T31" t="n">
-        <v>66.52789653493785</v>
+        <v>54.12942550671449</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>151.6182607364856</v>
+        <v>57.54373954798938</v>
       </c>
       <c r="B32" t="n">
-        <v>68.20459409954249</v>
+        <v>53.26418713022125</v>
       </c>
       <c r="C32" t="n">
-        <v>54.32672466561879</v>
+        <v>123.56658471525</v>
       </c>
       <c r="D32" t="n">
-        <v>58.9415138772983</v>
+        <v>157.5306802215138</v>
       </c>
       <c r="E32" t="n">
-        <v>54.35494424508305</v>
+        <v>46.91289437253245</v>
       </c>
       <c r="F32" t="n">
-        <v>84.82314139545748</v>
+        <v>77.23307933187462</v>
       </c>
       <c r="G32" t="n">
-        <v>163.5148749603048</v>
+        <v>127.1265282047681</v>
       </c>
       <c r="H32" t="n">
-        <v>66.66730362832303</v>
+        <v>179.5076844427816</v>
       </c>
       <c r="I32" t="n">
-        <v>78.64996157351941</v>
+        <v>33.95589115211913</v>
       </c>
       <c r="J32" t="n">
-        <v>70.71671365407325</v>
+        <v>103.69183940837</v>
       </c>
       <c r="K32" t="n">
-        <v>160.224596721963</v>
+        <v>147.5503716753453</v>
       </c>
       <c r="L32" t="n">
-        <v>114.7476040060165</v>
+        <v>7.932403676246984</v>
       </c>
       <c r="M32" t="n">
-        <v>52.25438355499299</v>
+        <v>115.3754722222029</v>
       </c>
       <c r="N32" t="n">
-        <v>80.7143676719141</v>
+        <v>40.34686900220285</v>
       </c>
       <c r="O32" t="n">
-        <v>91.74190096815913</v>
+        <v>53.8673164646972</v>
       </c>
       <c r="P32" t="n">
-        <v>72.63708591973649</v>
+        <v>72.23960290950809</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.3603453833444</v>
+        <v>152.9512024682758</v>
       </c>
       <c r="R32" t="n">
-        <v>134.7029237690837</v>
+        <v>80.08653974311829</v>
       </c>
       <c r="S32" t="n">
-        <v>59.7133405383825</v>
+        <v>51.55721776946746</v>
       </c>
       <c r="T32" t="n">
-        <v>52.3501505057644</v>
+        <v>69.70477467209494</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>146.0760571853189</v>
+        <v>78.13669759053677</v>
       </c>
       <c r="B33" t="n">
-        <v>54.79036548824071</v>
+        <v>93.60792720331629</v>
       </c>
       <c r="C33" t="n">
-        <v>36.07645363593274</v>
+        <v>146.2325574777105</v>
       </c>
       <c r="D33" t="n">
-        <v>42.71088329921778</v>
+        <v>207.3580127983688</v>
       </c>
       <c r="E33" t="n">
-        <v>36.11893489484066</v>
+        <v>46.1015346857348</v>
       </c>
       <c r="F33" t="n">
-        <v>74.46531279894972</v>
+        <v>126.806760397551</v>
       </c>
       <c r="G33" t="n">
-        <v>158.3894940560635</v>
+        <v>178.1766822274994</v>
       </c>
       <c r="H33" t="n">
-        <v>52.86441967072621</v>
+        <v>230.641903518397</v>
       </c>
       <c r="I33" t="n">
-        <v>67.34934260679708</v>
+        <v>79.14003786014305</v>
       </c>
       <c r="J33" t="n">
-        <v>57.88757279489133</v>
+        <v>141.285758947709</v>
       </c>
       <c r="K33" t="n">
-        <v>154.9904477339404</v>
+        <v>172.9178651597821</v>
       </c>
       <c r="L33" t="n">
-        <v>107.3178928192929</v>
+        <v>50.60877453215931</v>
       </c>
       <c r="M33" t="n">
-        <v>32.87306031941617</v>
+        <v>162.6540667806289</v>
       </c>
       <c r="N33" t="n">
-        <v>69.74902610595065</v>
+        <v>12.58130209013966</v>
       </c>
       <c r="O33" t="n">
-        <v>82.25991665023233</v>
+        <v>75.73312999065919</v>
       </c>
       <c r="P33" t="n">
-        <v>60.21846681013087</v>
+        <v>113.5071001589854</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.12706249127024</v>
+        <v>202.969866486349</v>
       </c>
       <c r="R33" t="n">
-        <v>128.4328430191873</v>
+        <v>118.3798420114786</v>
       </c>
       <c r="S33" t="n">
-        <v>43.76985871926579</v>
+        <v>90.89750918852424</v>
       </c>
       <c r="T33" t="n">
-        <v>33.02507762334309</v>
+        <v>120.7216050226494</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>166.894216154611</v>
+        <v>154.3214965371966</v>
       </c>
       <c r="B34" t="n">
-        <v>97.55741413848789</v>
+        <v>55.14124643254311</v>
       </c>
       <c r="C34" t="n">
-        <v>88.41366076573824</v>
+        <v>201.7516456178161</v>
       </c>
       <c r="D34" t="n">
-        <v>91.32187281945568</v>
+        <v>143.4931718806949</v>
       </c>
       <c r="E34" t="n">
-        <v>88.43100339242554</v>
+        <v>107.5210537362672</v>
       </c>
       <c r="F34" t="n">
-        <v>109.8205250092116</v>
+        <v>54.89643186813323</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7714733313228</v>
+        <v>103.2101727201115</v>
       </c>
       <c r="H34" t="n">
-        <v>96.48892045295202</v>
+        <v>134.8160925679188</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1256336609733</v>
+        <v>74.05582315516425</v>
       </c>
       <c r="J34" t="n">
-        <v>99.32993500016639</v>
+        <v>9.121899036279007</v>
       </c>
       <c r="K34" t="n">
-        <v>174.7498320222963</v>
+        <v>217.4055799196013</v>
       </c>
       <c r="L34" t="n">
-        <v>134.2854981828889</v>
+        <v>103.146834827013</v>
       </c>
       <c r="M34" t="n">
-        <v>87.15562516451483</v>
+        <v>40.0967303521555</v>
       </c>
       <c r="N34" t="n">
-        <v>106.6789180006154</v>
+        <v>141.5787543898147</v>
       </c>
       <c r="O34" t="n">
-        <v>115.2482485348763</v>
+        <v>150.8767377387003</v>
       </c>
       <c r="P34" t="n">
-        <v>100.7061500009621</v>
+        <v>35.70294661361978</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.43432335525377</v>
+        <v>86.27672624531273</v>
       </c>
       <c r="R34" t="n">
-        <v>151.6919907874</v>
+        <v>144.8484150177558</v>
       </c>
       <c r="S34" t="n">
-        <v>91.82192241157841</v>
+        <v>129.4216926369313</v>
       </c>
       <c r="T34" t="n">
-        <v>87.21307617026976</v>
+        <v>72.8250623256526</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>152.3394362496755</v>
+        <v>188.762776491624</v>
       </c>
       <c r="B35" t="n">
-        <v>69.7930763356608</v>
+        <v>170.7650748715707</v>
       </c>
       <c r="C35" t="n">
-        <v>56.30807989095332</v>
+        <v>178.8457262682986</v>
       </c>
       <c r="D35" t="n">
-        <v>60.7725999629749</v>
+        <v>38.25576363333696</v>
       </c>
       <c r="E35" t="n">
-        <v>56.33530697527188</v>
+        <v>224.5132750281984</v>
       </c>
       <c r="F35" t="n">
-        <v>86.1055873001619</v>
+        <v>126.0171213420741</v>
       </c>
       <c r="G35" t="n">
-        <v>164.1838030421885</v>
+        <v>64.07208228177883</v>
       </c>
       <c r="H35" t="n">
-        <v>68.29155307344416</v>
+        <v>25.20876941577825</v>
       </c>
       <c r="I35" t="n">
-        <v>80.03138948955035</v>
+        <v>171.5868530520225</v>
       </c>
       <c r="J35" t="n">
-        <v>72.24998573110045</v>
+        <v>164.7625754860489</v>
       </c>
       <c r="K35" t="n">
-        <v>160.9072038251479</v>
+        <v>173.3474939285695</v>
       </c>
       <c r="L35" t="n">
-        <v>115.698830906944</v>
+        <v>192.5786165199855</v>
       </c>
       <c r="M35" t="n">
-        <v>54.31139336110197</v>
+        <v>116.7090180913183</v>
       </c>
       <c r="N35" t="n">
-        <v>82.06105042460133</v>
+        <v>229.1210979056781</v>
       </c>
       <c r="O35" t="n">
-        <v>92.92891499077963</v>
+        <v>187.8291148670852</v>
       </c>
       <c r="P35" t="n">
-        <v>74.1306488506826</v>
+        <v>160.37116131815</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.34051826446507</v>
+        <v>75.62929917380652</v>
       </c>
       <c r="R35" t="n">
-        <v>135.5141487817844</v>
+        <v>143.9507715427275</v>
       </c>
       <c r="S35" t="n">
-        <v>61.52145874704911</v>
+        <v>159.6029319726865</v>
       </c>
       <c r="T35" t="n">
-        <v>54.40353946287148</v>
+        <v>123.5311036275154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>163.4636496583144</v>
+        <v>142.7301608335877</v>
       </c>
       <c r="B36" t="n">
-        <v>91.56491919475805</v>
+        <v>158.85430297139</v>
       </c>
       <c r="C36" t="n">
-        <v>81.75365914595614</v>
+        <v>119.6413986885028</v>
       </c>
       <c r="D36" t="n">
-        <v>84.89034002174201</v>
+        <v>31.24735638670867</v>
       </c>
       <c r="E36" t="n">
-        <v>81.77241426511334</v>
+        <v>202.447897312519</v>
       </c>
       <c r="F36" t="n">
-        <v>104.5334065600705</v>
+        <v>118.4261247297055</v>
       </c>
       <c r="G36" t="n">
-        <v>174.5548111744369</v>
+        <v>64.04128405696687</v>
       </c>
       <c r="H36" t="n">
-        <v>90.4256442826383</v>
+        <v>75.75249781593502</v>
       </c>
       <c r="I36" t="n">
-        <v>99.58957890449837</v>
+        <v>152.3043965573745</v>
       </c>
       <c r="J36" t="n">
-        <v>93.45117099796778</v>
+        <v>171.5364123565852</v>
       </c>
       <c r="K36" t="n">
-        <v>171.4764974145871</v>
+        <v>111.8641175726865</v>
       </c>
       <c r="L36" t="n">
-        <v>129.9972322627709</v>
+        <v>164.9754892236636</v>
       </c>
       <c r="M36" t="n">
-        <v>80.39146951991577</v>
+        <v>129.5841379600605</v>
       </c>
       <c r="N36" t="n">
-        <v>101.2278465617844</v>
+        <v>194.9856238110219</v>
       </c>
       <c r="O36" t="n">
-        <v>110.2217953224803</v>
+        <v>142.7361931685757</v>
       </c>
       <c r="P36" t="n">
-        <v>94.91266523373162</v>
+        <v>155.5639992280121</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.77600455546674</v>
+        <v>107.6841920638129</v>
       </c>
       <c r="R36" t="n">
-        <v>147.909247320101</v>
+        <v>95.40164582134076</v>
       </c>
       <c r="S36" t="n">
-        <v>85.42804462886916</v>
+        <v>118.0906658653281</v>
       </c>
       <c r="T36" t="n">
-        <v>80.45375086865378</v>
+        <v>107.3252763872781</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>197.0306607504625</v>
+        <v>105.8005232746277</v>
       </c>
       <c r="B37" t="n">
-        <v>143.1252980548521</v>
+        <v>131.2771405336087</v>
       </c>
       <c r="C37" t="n">
-        <v>137.0561100422045</v>
+        <v>90.36511959790086</v>
       </c>
       <c r="D37" t="n">
-        <v>138.9499418681226</v>
+        <v>51.31733875132392</v>
       </c>
       <c r="E37" t="n">
-        <v>137.0672982548828</v>
+        <v>169.4867312390842</v>
       </c>
       <c r="F37" t="n">
-        <v>151.7496280166798</v>
+        <v>95.9938931019763</v>
       </c>
       <c r="G37" t="n">
-        <v>206.3252253610572</v>
+        <v>59.69415274996477</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3991350397815</v>
+        <v>94.87777214409714</v>
       </c>
       <c r="I37" t="n">
-        <v>148.3873334975833</v>
+        <v>121.7014766180383</v>
       </c>
       <c r="J37" t="n">
-        <v>144.3393150774906</v>
+        <v>152.8392786252371</v>
       </c>
       <c r="K37" t="n">
-        <v>203.7275280410641</v>
+        <v>89.47400905585299</v>
       </c>
       <c r="L37" t="n">
-        <v>170.2938545929608</v>
+        <v>130.8824791028989</v>
       </c>
       <c r="M37" t="n">
-        <v>136.2479537010345</v>
+        <v>117.7039943078084</v>
       </c>
       <c r="N37" t="n">
-        <v>149.4917838400621</v>
+        <v>158.8620913711725</v>
       </c>
       <c r="O37" t="n">
-        <v>155.722704446906</v>
+        <v>105.7571242453551</v>
       </c>
       <c r="P37" t="n">
-        <v>145.2898156717053</v>
+        <v>131.6563767359809</v>
       </c>
       <c r="Q37" t="n">
-        <v>137.0694402016854</v>
+        <v>110.2542723924605</v>
       </c>
       <c r="R37" t="n">
-        <v>184.3308491787158</v>
+        <v>58.54692593601474</v>
       </c>
       <c r="S37" t="n">
-        <v>139.2790986661665</v>
+        <v>81.35381519287657</v>
       </c>
       <c r="T37" t="n">
-        <v>136.2847113398385</v>
+        <v>81.31682222546533</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>150.4693204102434</v>
+        <v>138.145992354738</v>
       </c>
       <c r="B38" t="n">
-        <v>65.61086840034145</v>
+        <v>77.43791893418256</v>
       </c>
       <c r="C38" t="n">
-        <v>51.03246426401071</v>
+        <v>166.2186381645275</v>
       </c>
       <c r="D38" t="n">
-        <v>55.91977694976371</v>
+        <v>82.822836483185</v>
       </c>
       <c r="E38" t="n">
-        <v>51.06250444161218</v>
+        <v>135.3907801126179</v>
       </c>
       <c r="F38" t="n">
-        <v>82.75194687835055</v>
+        <v>35.89353007645069</v>
       </c>
       <c r="G38" t="n">
-        <v>162.4500961195397</v>
+        <v>42.90019201365664</v>
       </c>
       <c r="H38" t="n">
-        <v>64.01131750741105</v>
+        <v>78.35041104211446</v>
       </c>
       <c r="I38" t="n">
-        <v>76.41162118081029</v>
+        <v>84.62034868122149</v>
       </c>
       <c r="J38" t="n">
-        <v>68.21856775098527</v>
+        <v>67.86564434471407</v>
       </c>
       <c r="K38" t="n">
-        <v>159.1378044044822</v>
+        <v>175.9463615462884</v>
       </c>
       <c r="L38" t="n">
-        <v>113.2251386445835</v>
+        <v>112.1014498422328</v>
       </c>
       <c r="M38" t="n">
-        <v>48.8204874686427</v>
+        <v>23.0467871012441</v>
       </c>
       <c r="N38" t="n">
-        <v>78.53488743635219</v>
+        <v>152.9067429322232</v>
       </c>
       <c r="O38" t="n">
-        <v>89.83037230923121</v>
+        <v>135.5358514362626</v>
       </c>
       <c r="P38" t="n">
-        <v>70.20730479711322</v>
+        <v>63.68190929188052</v>
       </c>
       <c r="Q38" t="n">
-        <v>51.06825379979297</v>
+        <v>40.29191311496114</v>
       </c>
       <c r="R38" t="n">
-        <v>133.408384548735</v>
+        <v>111.0193878727503</v>
       </c>
       <c r="S38" t="n">
-        <v>56.73272806957561</v>
+        <v>107.5053222252403</v>
       </c>
       <c r="T38" t="n">
-        <v>48.92297674855611</v>
+        <v>45.78047063758242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>180.7467704488354</v>
+        <v>45.61068343901</v>
       </c>
       <c r="B39" t="n">
-        <v>119.7211956806748</v>
+        <v>94.26117310656782</v>
       </c>
       <c r="C39" t="n">
-        <v>112.3952447918551</v>
+        <v>113.3132652818794</v>
       </c>
       <c r="D39" t="n">
-        <v>114.6969925371839</v>
+        <v>184.5781071186746</v>
       </c>
       <c r="E39" t="n">
-        <v>112.4088875614965</v>
+        <v>65.76180270450824</v>
       </c>
       <c r="F39" t="n">
-        <v>129.9086731327853</v>
+        <v>116.8829838539848</v>
       </c>
       <c r="G39" t="n">
-        <v>190.8360877093512</v>
+        <v>159.6374431473572</v>
       </c>
       <c r="H39" t="n">
-        <v>118.85212413751</v>
+        <v>212.547240958573</v>
       </c>
       <c r="I39" t="n">
-        <v>125.9647351223474</v>
+        <v>75.47230565333655</v>
       </c>
       <c r="J39" t="n">
-        <v>121.1699287321704</v>
+        <v>144.6481779652021</v>
       </c>
       <c r="K39" t="n">
-        <v>188.0245181715479</v>
+        <v>140.0136729535356</v>
       </c>
       <c r="L39" t="n">
-        <v>151.1565766483505</v>
+        <v>46.22098889038032</v>
       </c>
       <c r="M39" t="n">
-        <v>111.4083418763577</v>
+        <v>156.1448370250775</v>
       </c>
       <c r="N39" t="n">
-        <v>127.2639272834373</v>
+        <v>22.46386810655762</v>
       </c>
       <c r="O39" t="n">
-        <v>134.5283406282059</v>
+        <v>43.50369791523273</v>
       </c>
       <c r="P39" t="n">
-        <v>122.3006307826671</v>
+        <v>113.6110689259661</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4114993633817</v>
+        <v>191.1694314085038</v>
       </c>
       <c r="R39" t="n">
-        <v>166.8117972772509</v>
+        <v>88.6290633356215</v>
       </c>
       <c r="S39" t="n">
-        <v>115.0955302224196</v>
+        <v>63.09340137914519</v>
       </c>
       <c r="T39" t="n">
-        <v>111.4532919967071</v>
+        <v>106.5599196622038</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>187.1079565121907</v>
+        <v>99.79385910774971</v>
       </c>
       <c r="B40" t="n">
-        <v>129.1245796031657</v>
+        <v>55.09846439258619</v>
       </c>
       <c r="C40" t="n">
-        <v>122.3629168265651</v>
+        <v>134.3952390355619</v>
       </c>
       <c r="D40" t="n">
-        <v>124.4804902768248</v>
+        <v>90.76909675752576</v>
       </c>
       <c r="E40" t="n">
-        <v>122.3754483762859</v>
+        <v>106.7789133833522</v>
       </c>
       <c r="F40" t="n">
-        <v>138.6227099634281</v>
+        <v>15.61962039816275</v>
       </c>
       <c r="G40" t="n">
-        <v>196.8715437403157</v>
+        <v>53.72611083234072</v>
       </c>
       <c r="H40" t="n">
-        <v>128.3192104654714</v>
+        <v>104.0729982040366</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9337128256946</v>
+        <v>53.85263619112862</v>
       </c>
       <c r="J40" t="n">
-        <v>130.4689387994059</v>
+        <v>73.22956207870396</v>
       </c>
       <c r="K40" t="n">
-        <v>194.1473970882087</v>
+        <v>147.9739635496064</v>
       </c>
       <c r="L40" t="n">
-        <v>158.7082323842481</v>
+        <v>77.35054735353032</v>
       </c>
       <c r="M40" t="n">
-        <v>121.4570335638215</v>
+        <v>50.78799381229444</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1473449983064</v>
+        <v>117.0555064601875</v>
       </c>
       <c r="O40" t="n">
-        <v>142.9610674087965</v>
+        <v>97.07737703238882</v>
       </c>
       <c r="P40" t="n">
-        <v>131.5197196329209</v>
+        <v>51.36910804377474</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.3778474708859</v>
+        <v>77.44207770925638</v>
       </c>
       <c r="R40" t="n">
-        <v>173.6841042621647</v>
+        <v>77.52047920961044</v>
       </c>
       <c r="S40" t="n">
-        <v>124.8478011006352</v>
+        <v>69.64469142221654</v>
       </c>
       <c r="T40" t="n">
-        <v>121.4982660756404</v>
+        <v>7.226026076407893</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>142.9094465046026</v>
+        <v>83.62697038977164</v>
       </c>
       <c r="B41" t="n">
-        <v>45.68237699352246</v>
+        <v>174.6162793497807</v>
       </c>
       <c r="C41" t="n">
-        <v>19.65721049358012</v>
+        <v>14.41091336989727</v>
       </c>
       <c r="D41" t="n">
-        <v>30.15153345424925</v>
+        <v>145.1483637547961</v>
       </c>
       <c r="E41" t="n">
-        <v>19.73506714913963</v>
+        <v>183.2105759973783</v>
       </c>
       <c r="F41" t="n">
-        <v>68.04394335786792</v>
+        <v>160.0715386678284</v>
       </c>
       <c r="G41" t="n">
-        <v>155.4738796222024</v>
+        <v>150.9009479984577</v>
       </c>
       <c r="H41" t="n">
-        <v>43.35368824639924</v>
+        <v>189.8256958701809</v>
       </c>
       <c r="I41" t="n">
-        <v>60.17332770431633</v>
+        <v>156.5170355256107</v>
       </c>
       <c r="J41" t="n">
-        <v>49.35449829070451</v>
+        <v>214.8412449045703</v>
       </c>
       <c r="K41" t="n">
-        <v>152.0096520166092</v>
+        <v>15.35942111861184</v>
       </c>
       <c r="L41" t="n">
-        <v>102.9661378153835</v>
+        <v>145.7775777570725</v>
       </c>
       <c r="M41" t="n">
-        <v>12.86598275326396</v>
+        <v>194.9042192042273</v>
       </c>
       <c r="N41" t="n">
-        <v>62.84760982067574</v>
+        <v>149.2966160952921</v>
       </c>
       <c r="O41" t="n">
-        <v>76.49568160848349</v>
+        <v>86.77069417305384</v>
       </c>
       <c r="P41" t="n">
-        <v>52.06879259600846</v>
+        <v>185.1680423978081</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.74993827057331</v>
+        <v>201.0341347739718</v>
       </c>
       <c r="R41" t="n">
-        <v>124.819431914404</v>
+        <v>69.22969581607303</v>
       </c>
       <c r="S41" t="n">
-        <v>31.63377861950417</v>
+        <v>90.26394044710385</v>
       </c>
       <c r="T41" t="n">
-        <v>13.24957242597468</v>
+        <v>141.8261758954291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>148.0272932697131</v>
+        <v>108.7278893005733</v>
       </c>
       <c r="B42" t="n">
-        <v>59.79840483059785</v>
+        <v>115.834159158591</v>
       </c>
       <c r="C42" t="n">
-        <v>43.30560676049551</v>
+        <v>106.1829202800071</v>
       </c>
       <c r="D42" t="n">
-        <v>48.97024221043296</v>
+        <v>42.67387712388385</v>
       </c>
       <c r="E42" t="n">
-        <v>43.34100284818994</v>
+        <v>159.1815856189892</v>
       </c>
       <c r="F42" t="n">
-        <v>78.22370408127256</v>
+        <v>77.32661799458535</v>
       </c>
       <c r="G42" t="n">
-        <v>160.1908140227923</v>
+        <v>38.87080374958956</v>
       </c>
       <c r="H42" t="n">
-        <v>58.03888297574079</v>
+        <v>80.48181467063328</v>
       </c>
       <c r="I42" t="n">
-        <v>71.4828582215121</v>
+        <v>108.8001469271044</v>
       </c>
       <c r="J42" t="n">
-        <v>62.64851278388748</v>
+        <v>133.0991571334244</v>
       </c>
       <c r="K42" t="n">
-        <v>156.8308131672995</v>
+        <v>108.72973601312</v>
       </c>
       <c r="L42" t="n">
-        <v>109.959061423433</v>
+        <v>122.3013666895967</v>
       </c>
       <c r="M42" t="n">
-        <v>40.67558438071964</v>
+        <v>96.32995976354562</v>
       </c>
       <c r="N42" t="n">
-        <v>73.74816413089654</v>
+        <v>154.3822073060475</v>
       </c>
       <c r="O42" t="n">
-        <v>85.67706202509653</v>
+        <v>107.9432613530336</v>
       </c>
       <c r="P42" t="n">
-        <v>64.80840080508007</v>
+        <v>113.9608276405036</v>
       </c>
       <c r="Q42" t="n">
-        <v>43.34777634662722</v>
+        <v>89.58715084664946</v>
       </c>
       <c r="R42" t="n">
-        <v>130.6478481871795</v>
+        <v>63.96653837256281</v>
       </c>
       <c r="S42" t="n">
-        <v>49.89654900144455</v>
+        <v>80.42373267078854</v>
       </c>
       <c r="T42" t="n">
-        <v>40.79853945886919</v>
+        <v>64.52105531709279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>152.3021006980285</v>
+        <v>52.26325526740148</v>
       </c>
       <c r="B43" t="n">
-        <v>69.71154527450118</v>
+        <v>57.05815006657473</v>
       </c>
       <c r="C43" t="n">
-        <v>56.20699156839329</v>
+        <v>104.0192515074555</v>
       </c>
       <c r="D43" t="n">
-        <v>60.67894978016042</v>
+        <v>123.1699342800692</v>
       </c>
       <c r="E43" t="n">
-        <v>56.2342675969161</v>
+        <v>79.02843763197384</v>
       </c>
       <c r="F43" t="n">
-        <v>86.03951536630862</v>
+        <v>56.99886406586836</v>
       </c>
       <c r="G43" t="n">
-        <v>164.1491615012382</v>
+        <v>95.18945329996914</v>
       </c>
       <c r="H43" t="n">
-        <v>68.20822722624078</v>
+        <v>148.078288539422</v>
       </c>
       <c r="I43" t="n">
-        <v>79.9602985474139</v>
+        <v>39.07881338854645</v>
       </c>
       <c r="J43" t="n">
-        <v>72.17123026738336</v>
+        <v>101.3773026789349</v>
       </c>
       <c r="K43" t="n">
-        <v>160.8718567151854</v>
+        <v>124.587192471428</v>
       </c>
       <c r="L43" t="n">
-        <v>115.6496671564474</v>
+        <v>39.9311667292974</v>
       </c>
       <c r="M43" t="n">
-        <v>54.2065816021247</v>
+        <v>97.63980991608224</v>
       </c>
       <c r="N43" t="n">
-        <v>81.99171931940697</v>
+        <v>72.28118614621833</v>
       </c>
       <c r="O43" t="n">
-        <v>92.86769772922659</v>
+        <v>49.05135870527263</v>
       </c>
       <c r="P43" t="n">
-        <v>74.05389347756581</v>
+        <v>69.73989521336766</v>
       </c>
       <c r="Q43" t="n">
-        <v>56.23948824866719</v>
+        <v>127.5492731470605</v>
       </c>
       <c r="R43" t="n">
-        <v>135.4721763323194</v>
+        <v>51.6714171754835</v>
       </c>
       <c r="S43" t="n">
-        <v>61.4289502313715</v>
+        <v>27.85273156266716</v>
       </c>
       <c r="T43" t="n">
-        <v>54.29890557139864</v>
+        <v>43.19357303026111</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>151.4400711724374</v>
+        <v>89.76580808207935</v>
       </c>
       <c r="B44" t="n">
-        <v>67.8075572796965</v>
+        <v>25.16283664923445</v>
       </c>
       <c r="C44" t="n">
-        <v>53.82742034363088</v>
+        <v>152.6770036653859</v>
       </c>
       <c r="D44" t="n">
-        <v>58.48162297768182</v>
+        <v>160.1579925569814</v>
       </c>
       <c r="E44" t="n">
-        <v>53.85590155073129</v>
+        <v>36.41359159988804</v>
       </c>
       <c r="F44" t="n">
-        <v>84.50422169424287</v>
+        <v>64.33017745454343</v>
       </c>
       <c r="G44" t="n">
-        <v>163.3496633031121</v>
+        <v>124.3259246624109</v>
       </c>
       <c r="H44" t="n">
-        <v>66.26105599088341</v>
+        <v>173.7730941522976</v>
       </c>
       <c r="I44" t="n">
-        <v>78.3059041418465</v>
+        <v>17.09147458317572</v>
       </c>
       <c r="J44" t="n">
-        <v>70.33385925703327</v>
+        <v>73.87968548312385</v>
       </c>
       <c r="K44" t="n">
-        <v>160.0559888372555</v>
+        <v>175.0121908308527</v>
       </c>
       <c r="L44" t="n">
-        <v>114.5120552303449</v>
+        <v>26.29463055602506</v>
       </c>
       <c r="M44" t="n">
-        <v>51.73508257138763</v>
+        <v>95.65243398053813</v>
       </c>
       <c r="N44" t="n">
-        <v>80.37914727485548</v>
+        <v>62.08872099030499</v>
       </c>
       <c r="O44" t="n">
-        <v>91.44711346569387</v>
+        <v>86.05388840146912</v>
       </c>
       <c r="P44" t="n">
-        <v>72.26440630675074</v>
+        <v>45.0300625907312</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.86135273229281</v>
+        <v>139.1167201314669</v>
       </c>
       <c r="R44" t="n">
-        <v>134.502326522241</v>
+        <v>103.2424734443874</v>
       </c>
       <c r="S44" t="n">
-        <v>59.25943980674142</v>
+        <v>76.98161852189536</v>
       </c>
       <c r="T44" t="n">
-        <v>51.83180901658902</v>
+        <v>65.14336905430916</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>142.4820103557689</v>
+        <v>117.8555464064411</v>
       </c>
       <c r="B45" t="n">
-        <v>44.3271129507423</v>
+        <v>141.8453750716037</v>
       </c>
       <c r="C45" t="n">
-        <v>16.26097472965479</v>
+        <v>97.71081145282736</v>
       </c>
       <c r="D45" t="n">
-        <v>28.05580767706157</v>
+        <v>44.33006293596159</v>
       </c>
       <c r="E45" t="n">
-        <v>16.3550068832332</v>
+        <v>181.5274628201691</v>
       </c>
       <c r="F45" t="n">
-        <v>67.14157879033149</v>
+        <v>104.7860382644553</v>
       </c>
       <c r="G45" t="n">
-        <v>155.0810775676666</v>
+        <v>61.44267800093913</v>
       </c>
       <c r="H45" t="n">
-        <v>41.92321146257203</v>
+        <v>89.60436596650004</v>
       </c>
       <c r="I45" t="n">
-        <v>59.15101640530447</v>
+        <v>133.0956956926796</v>
       </c>
       <c r="J45" t="n">
-        <v>48.10280528510484</v>
+        <v>160.7753214017476</v>
       </c>
       <c r="K45" t="n">
-        <v>151.6078747327466</v>
+        <v>93.58338191593022</v>
       </c>
       <c r="L45" t="n">
-        <v>102.3720611855896</v>
+        <v>143.133457572975</v>
       </c>
       <c r="M45" t="n">
-        <v>6.599006514380836</v>
+        <v>123.2053125037555</v>
       </c>
       <c r="N45" t="n">
-        <v>61.86950327052459</v>
+        <v>171.3997182099868</v>
       </c>
       <c r="O45" t="n">
-        <v>75.69413900373024</v>
+        <v>117.9201766939854</v>
       </c>
       <c r="P45" t="n">
-        <v>50.88391236113532</v>
+        <v>141.1269068156623</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.37294831302571</v>
+        <v>110.8027812653752</v>
       </c>
       <c r="R45" t="n">
-        <v>124.3298192639404</v>
+        <v>70.50319427033361</v>
       </c>
       <c r="S45" t="n">
-        <v>29.64303163506315</v>
+        <v>93.85525392989587</v>
       </c>
       <c r="T45" t="n">
-        <v>7.318780242684134</v>
+        <v>91.14505109458069</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>193.3410906162034</v>
+        <v>22.99582332071338</v>
       </c>
       <c r="B46" t="n">
-        <v>138.0019818270353</v>
+        <v>82.98057517895968</v>
       </c>
       <c r="C46" t="n">
-        <v>131.6968995261468</v>
+        <v>82.08361964454778</v>
       </c>
       <c r="D46" t="n">
-        <v>133.6666839195683</v>
+        <v>136.9723984001754</v>
       </c>
       <c r="E46" t="n">
-        <v>131.7085429871279</v>
+        <v>88.1192332528793</v>
       </c>
       <c r="F46" t="n">
-        <v>146.9273481966506</v>
+        <v>85.82320416475309</v>
       </c>
       <c r="G46" t="n">
-        <v>202.8048191369972</v>
+        <v>115.4862075727495</v>
       </c>
       <c r="H46" t="n">
-        <v>137.2487147662121</v>
+        <v>167.9142259786001</v>
       </c>
       <c r="I46" t="n">
-        <v>143.4520713946722</v>
+        <v>63.17853417345793</v>
       </c>
       <c r="J46" t="n">
-        <v>139.260668969879</v>
+        <v>129.8042237242821</v>
       </c>
       <c r="K46" t="n">
-        <v>200.1614391600483</v>
+        <v>105.7984629704721</v>
       </c>
       <c r="L46" t="n">
-        <v>166.0111229918876</v>
+        <v>49.51178361956423</v>
       </c>
       <c r="M46" t="n">
-        <v>130.855649219353</v>
+        <v>126.3907143947082</v>
       </c>
       <c r="N46" t="n">
-        <v>144.5942235380894</v>
+        <v>64.35476439676468</v>
       </c>
       <c r="O46" t="n">
-        <v>151.0273376748645</v>
+        <v>19.86199255854153</v>
       </c>
       <c r="P46" t="n">
-        <v>140.2455938089223</v>
+        <v>97.77876606644001</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.710772080732</v>
+        <v>153.2195286108032</v>
       </c>
       <c r="R46" t="n">
-        <v>180.381700856394</v>
+        <v>41.61693708453602</v>
       </c>
       <c r="S46" t="n">
-        <v>134.0088182552136</v>
+        <v>14.45632830617295</v>
       </c>
       <c r="T46" t="n">
-        <v>130.8939211341849</v>
+        <v>70.65855051662251</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>149.1656945377561</v>
+        <v>17.53145126658816</v>
       </c>
       <c r="B47" t="n">
-        <v>62.56336063909599</v>
+        <v>118.6720378529895</v>
       </c>
       <c r="C47" t="n">
-        <v>47.04997822601187</v>
+        <v>69.46564539210004</v>
       </c>
       <c r="D47" t="n">
-        <v>52.31070154683443</v>
+        <v>167.0116665566156</v>
       </c>
       <c r="E47" t="n">
-        <v>47.08255942554869</v>
+        <v>107.195794663243</v>
       </c>
       <c r="F47" t="n">
-        <v>80.35715745574885</v>
+        <v>125.7648403800126</v>
       </c>
       <c r="G47" t="n">
-        <v>161.2433619454096</v>
+        <v>151.199492043699</v>
       </c>
       <c r="H47" t="n">
-        <v>60.88379760860232</v>
+        <v>202.3632424221498</v>
       </c>
       <c r="I47" t="n">
-        <v>73.81140761217277</v>
+        <v>98.36384433484211</v>
       </c>
       <c r="J47" t="n">
-        <v>65.29288650539527</v>
+        <v>167.5216233823683</v>
       </c>
       <c r="K47" t="n">
-        <v>157.9057593404684</v>
+        <v>96.51250377078679</v>
       </c>
       <c r="L47" t="n">
-        <v>111.486860496185</v>
+        <v>76.21107169063471</v>
       </c>
       <c r="M47" t="n">
-        <v>44.64110257247865</v>
+        <v>166.3434648397706</v>
       </c>
       <c r="N47" t="n">
-        <v>76.00734561113927</v>
+        <v>67.51141447161946</v>
       </c>
       <c r="O47" t="n">
-        <v>87.62924073290692</v>
+        <v>20.14821125113744</v>
       </c>
       <c r="P47" t="n">
-        <v>67.36804649895542</v>
+        <v>135.2908138265414</v>
       </c>
       <c r="Q47" t="n">
-        <v>47.08879472200081</v>
+        <v>191.9188332368379</v>
       </c>
       <c r="R47" t="n">
-        <v>131.9362918613139</v>
+        <v>61.53148487164175</v>
       </c>
       <c r="S47" t="n">
-        <v>53.17885365845219</v>
+        <v>48.78983225673399</v>
       </c>
       <c r="T47" t="n">
-        <v>44.753164090938</v>
+        <v>110.4811869443882</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>193.7063438548272</v>
+        <v>13.21948207210417</v>
       </c>
       <c r="B48" t="n">
-        <v>138.5132387792985</v>
+        <v>109.3397814004153</v>
       </c>
       <c r="C48" t="n">
-        <v>132.2325363658339</v>
+        <v>76.11001594038153</v>
       </c>
       <c r="D48" t="n">
-        <v>134.1944586001798</v>
+        <v>164.5414382835381</v>
       </c>
       <c r="E48" t="n">
-        <v>132.2441326665713</v>
+        <v>97.83404185113204</v>
       </c>
       <c r="F48" t="n">
-        <v>147.4076523693441</v>
+        <v>118.0548273049416</v>
       </c>
       <c r="G48" t="n">
-        <v>203.153058047699</v>
+        <v>146.6121578224013</v>
       </c>
       <c r="H48" t="n">
-        <v>137.7627672265574</v>
+        <v>198.3906076433089</v>
       </c>
       <c r="I48" t="n">
-        <v>143.9439721432048</v>
+        <v>89.03024154056989</v>
       </c>
       <c r="J48" t="n">
-        <v>139.7673218276712</v>
+        <v>158.4590094802378</v>
       </c>
       <c r="K48" t="n">
-        <v>200.5142689575066</v>
+        <v>102.9206789659224</v>
       </c>
       <c r="L48" t="n">
-        <v>166.4363640733876</v>
+        <v>66.51635293235343</v>
       </c>
       <c r="M48" t="n">
-        <v>131.3947155008905</v>
+        <v>158.6921823573662</v>
       </c>
       <c r="N48" t="n">
-        <v>145.082251876391</v>
+        <v>59.40493466098724</v>
       </c>
       <c r="O48" t="n">
-        <v>151.4946436482133</v>
+        <v>14.18984521178177</v>
       </c>
       <c r="P48" t="n">
-        <v>140.7487012791195</v>
+        <v>126.2296459072325</v>
       </c>
       <c r="Q48" t="n">
-        <v>132.2463527324823</v>
+        <v>185.827289689708</v>
       </c>
       <c r="R48" t="n">
-        <v>180.773140518129</v>
+        <v>60.46756030496491</v>
       </c>
       <c r="S48" t="n">
-        <v>134.5352507675979</v>
+        <v>43.49820782407055</v>
       </c>
       <c r="T48" t="n">
-        <v>131.432830445151</v>
+        <v>103.3377261508705</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>148.2679659889649</v>
+        <v>164.9169078541411</v>
       </c>
       <c r="B49" t="n">
-        <v>60.39171636931089</v>
+        <v>152.2965605354761</v>
       </c>
       <c r="C49" t="n">
-        <v>44.12126202458287</v>
+        <v>156.2980927662061</v>
       </c>
       <c r="D49" t="n">
-        <v>49.69300562348482</v>
+        <v>14.87912174858051</v>
       </c>
       <c r="E49" t="n">
-        <v>44.15600427613477</v>
+        <v>204.1253453156259</v>
       </c>
       <c r="F49" t="n">
-        <v>78.67819307750858</v>
+        <v>107.873559183462</v>
       </c>
       <c r="G49" t="n">
-        <v>160.4132384905687</v>
+        <v>44.81748643403534</v>
       </c>
       <c r="H49" t="n">
-        <v>58.64999678447526</v>
+        <v>32.38466077228732</v>
       </c>
       <c r="I49" t="n">
-        <v>71.97992223713516</v>
+        <v>151.3582209041214</v>
       </c>
       <c r="J49" t="n">
-        <v>63.21508000295607</v>
+        <v>151.9310076094196</v>
       </c>
       <c r="K49" t="n">
-        <v>157.0579961175604</v>
+        <v>152.3723565328323</v>
       </c>
       <c r="L49" t="n">
-        <v>110.2828426132983</v>
+        <v>170.8755789670656</v>
       </c>
       <c r="M49" t="n">
-        <v>41.54290974956217</v>
+        <v>105.1130940450767</v>
       </c>
       <c r="N49" t="n">
-        <v>74.23006061175539</v>
+        <v>206.5374040957951</v>
       </c>
       <c r="O49" t="n">
-        <v>86.0922130218492</v>
+        <v>164.0199708193038</v>
       </c>
       <c r="P49" t="n">
-        <v>65.35624683730796</v>
+        <v>143.7166353347086</v>
       </c>
       <c r="Q49" t="n">
-        <v>44.16265277295329</v>
+        <v>71.49517976324665</v>
       </c>
       <c r="R49" t="n">
-        <v>130.9204736536174</v>
+        <v>120.0694849975293</v>
       </c>
       <c r="S49" t="n">
-        <v>50.60608449584676</v>
+        <v>135.9313550283418</v>
       </c>
       <c r="T49" t="n">
-        <v>41.6633052904367</v>
+        <v>103.1907722631262</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>142.3443129433583</v>
+        <v>119.4921676072892</v>
       </c>
       <c r="B50" t="n">
-        <v>43.88249189418443</v>
+        <v>33.95472671229318</v>
       </c>
       <c r="C50" t="n">
-        <v>15.00664690907892</v>
+        <v>164.9213495457558</v>
       </c>
       <c r="D50" t="n">
-        <v>27.3479157653296</v>
+        <v>119.9565634327955</v>
       </c>
       <c r="E50" t="n">
-        <v>15.10848776171532</v>
+        <v>92.70794281711933</v>
       </c>
       <c r="F50" t="n">
-        <v>66.84887250173774</v>
+        <v>20.01609857089547</v>
       </c>
       <c r="G50" t="n">
-        <v>154.9545764791861</v>
+        <v>79.869373204792</v>
       </c>
       <c r="H50" t="n">
-        <v>41.45281427877759</v>
+        <v>122.5393753983276</v>
       </c>
       <c r="I50" t="n">
-        <v>58.81855909554309</v>
+        <v>46.19062570954026</v>
       </c>
       <c r="J50" t="n">
-        <v>47.6933960689738</v>
+        <v>38.22864914505248</v>
       </c>
       <c r="K50" t="n">
-        <v>151.478473167891</v>
+        <v>180.8104452613296</v>
       </c>
       <c r="L50" t="n">
-        <v>102.1803262065716</v>
+        <v>76.07602141876968</v>
       </c>
       <c r="M50" t="n">
-        <v>2.080153665510547</v>
+        <v>37.74103967249633</v>
       </c>
       <c r="N50" t="n">
-        <v>61.55173098489391</v>
+        <v>116.8952510874259</v>
       </c>
       <c r="O50" t="n">
-        <v>75.43462621244525</v>
+        <v>116.1871990184601</v>
       </c>
       <c r="P50" t="n">
-        <v>50.49705624559709</v>
+        <v>19.52131337543542</v>
       </c>
       <c r="Q50" t="n">
-        <v>15.12790761329232</v>
+        <v>82.4099779789159</v>
       </c>
       <c r="R50" t="n">
-        <v>124.1719940666952</v>
+        <v>108.0297375507773</v>
       </c>
       <c r="S50" t="n">
-        <v>28.97394479204809</v>
+        <v>93.20910882856413</v>
       </c>
       <c r="T50" t="n">
-        <v>3.787439311196931</v>
+        <v>36.70021777824633</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>180.4904960545059</v>
+        <v>96.16807943491712</v>
       </c>
       <c r="B51" t="n">
-        <v>119.3339383139937</v>
+        <v>150.5772577959072</v>
       </c>
       <c r="C51" t="n">
-        <v>111.9826557558743</v>
+        <v>59.31486962221418</v>
       </c>
       <c r="D51" t="n">
-        <v>114.2927129584054</v>
+        <v>84.31904395725978</v>
       </c>
       <c r="E51" t="n">
-        <v>111.9963487848188</v>
+        <v>178.4806878802027</v>
       </c>
       <c r="F51" t="n">
-        <v>129.5518718252981</v>
+        <v>122.3865719829457</v>
       </c>
       <c r="G51" t="n">
-        <v>190.5933800280818</v>
+        <v>95.54059759249499</v>
       </c>
       <c r="H51" t="n">
-        <v>118.4620257733072</v>
+        <v>129.4886865999997</v>
       </c>
       <c r="I51" t="n">
-        <v>125.596730183396</v>
+        <v>137.0733590448177</v>
       </c>
       <c r="J51" t="n">
-        <v>120.7873162516532</v>
+        <v>179.9927654902884</v>
       </c>
       <c r="K51" t="n">
-        <v>187.7781765061115</v>
+        <v>53.72463928271748</v>
       </c>
       <c r="L51" t="n">
-        <v>150.8500407768134</v>
+        <v>138.5745422830517</v>
       </c>
       <c r="M51" t="n">
-        <v>110.9920843031476</v>
+        <v>149.7606909724898</v>
       </c>
       <c r="N51" t="n">
-        <v>126.8996900150731</v>
+        <v>158.3391704456627</v>
       </c>
       <c r="O51" t="n">
-        <v>134.1838238033788</v>
+        <v>97.39487485385665</v>
       </c>
       <c r="P51" t="n">
-        <v>121.9215667064522</v>
+        <v>155.0394738380243</v>
       </c>
       <c r="Q51" t="n">
-        <v>111.9989702070568</v>
+        <v>146.2339417353093</v>
       </c>
       <c r="R51" t="n">
-        <v>166.5340801433276</v>
+        <v>52.692520916945</v>
       </c>
       <c r="S51" t="n">
-        <v>114.6926554557768</v>
+        <v>81.24345316576283</v>
       </c>
       <c r="T51" t="n">
-        <v>111.0372029331651</v>
+        <v>105.4184093852278</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>149.6339455134895</v>
+        <v>55.4908854894435</v>
       </c>
       <c r="B52" t="n">
-        <v>63.6717152074638</v>
+        <v>94.22258507930145</v>
       </c>
       <c r="C52" t="n">
-        <v>48.51405645862839</v>
+        <v>123.1181412822353</v>
       </c>
       <c r="D52" t="n">
-        <v>53.63135947675369</v>
+        <v>192.067058771286</v>
       </c>
       <c r="E52" t="n">
-        <v>48.54565505854377</v>
+        <v>59.690040326168</v>
       </c>
       <c r="F52" t="n">
-        <v>81.22306308783733</v>
+        <v>120.3042091283493</v>
       </c>
       <c r="G52" t="n">
-        <v>161.67663713246</v>
+        <v>165.8479942911336</v>
       </c>
       <c r="H52" t="n">
-        <v>62.02217373043323</v>
+        <v>218.7378546555044</v>
       </c>
       <c r="I52" t="n">
-        <v>74.75317462618634</v>
+        <v>76.46160458873945</v>
       </c>
       <c r="J52" t="n">
-        <v>66.35566480120006</v>
+        <v>144.2226836076844</v>
       </c>
       <c r="K52" t="n">
-        <v>158.3481672009269</v>
+        <v>149.8590553949762</v>
       </c>
       <c r="L52" t="n">
-        <v>112.1125920059768</v>
+        <v>46.49858691788315</v>
       </c>
       <c r="M52" t="n">
-        <v>46.18161172901344</v>
+        <v>158.7488866919823</v>
       </c>
       <c r="N52" t="n">
-        <v>76.92223222095133</v>
+        <v>13.87662283524509</v>
       </c>
       <c r="O52" t="n">
-        <v>88.42396199237255</v>
+        <v>53.32983324017935</v>
       </c>
       <c r="P52" t="n">
-        <v>68.39858852409319</v>
+        <v>113.9489260766756</v>
       </c>
       <c r="Q52" t="n">
-        <v>48.55170245597493</v>
+        <v>195.4720563137319</v>
       </c>
       <c r="R52" t="n">
-        <v>132.4654609062929</v>
+        <v>97.89872167443187</v>
       </c>
       <c r="S52" t="n">
-        <v>54.47847005404856</v>
+        <v>71.70371403960593</v>
       </c>
       <c r="T52" t="n">
-        <v>46.28994403921023</v>
+        <v>111.2088459224438</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>143.0189966208025</v>
+        <v>81.60426790015019</v>
       </c>
       <c r="B53" t="n">
-        <v>46.02394009586244</v>
+        <v>51.99218799013374</v>
       </c>
       <c r="C53" t="n">
-        <v>20.4384299435681</v>
+        <v>149.5009524377033</v>
       </c>
       <c r="D53" t="n">
-        <v>30.666569156199</v>
+        <v>179.1945561110919</v>
       </c>
       <c r="E53" t="n">
-        <v>20.51332175807406</v>
+        <v>19.77077443415445</v>
       </c>
       <c r="F53" t="n">
-        <v>68.27372643893082</v>
+        <v>88.93819549555809</v>
       </c>
       <c r="G53" t="n">
-        <v>155.5745825607393</v>
+        <v>145.8055284443735</v>
       </c>
       <c r="H53" t="n">
-        <v>43.71345077587905</v>
+        <v>196.8149357297171</v>
       </c>
       <c r="I53" t="n">
-        <v>60.43304444739044</v>
+        <v>40.00986620396942</v>
       </c>
       <c r="J53" t="n">
-        <v>49.67081633813137</v>
+        <v>99.45119120039428</v>
       </c>
       <c r="K53" t="n">
-        <v>152.1126483905262</v>
+        <v>174.0536309436825</v>
       </c>
       <c r="L53" t="n">
-        <v>103.118131435678</v>
+        <v>20.38251784641638</v>
       </c>
       <c r="M53" t="n">
-        <v>14.03057398599608</v>
+        <v>122.2451977693948</v>
       </c>
       <c r="N53" t="n">
-        <v>63.09631965765612</v>
+        <v>37.05875733671389</v>
       </c>
       <c r="O53" t="n">
-        <v>76.70014862381757</v>
+        <v>78.08767477090936</v>
       </c>
       <c r="P53" t="n">
-        <v>52.36871830181992</v>
+        <v>71.77590085108811</v>
       </c>
       <c r="Q53" t="n">
-        <v>20.52762908522756</v>
+        <v>164.7126411240692</v>
       </c>
       <c r="R53" t="n">
-        <v>124.9448441417402</v>
+        <v>107.21963939523</v>
       </c>
       <c r="S53" t="n">
-        <v>32.12505943834227</v>
+        <v>78.70744722023639</v>
       </c>
       <c r="T53" t="n">
-        <v>14.3831381708017</v>
+        <v>86.45157978775744</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>198.4504846725607</v>
+        <v>74.36993213692713</v>
       </c>
       <c r="B54" t="n">
-        <v>145.0736521023052</v>
+        <v>165.2452720151294</v>
       </c>
       <c r="C54" t="n">
-        <v>139.0895067606154</v>
+        <v>5.125505260243615</v>
       </c>
       <c r="D54" t="n">
-        <v>140.9560212838213</v>
+        <v>141.2576850367089</v>
       </c>
       <c r="E54" t="n">
-        <v>139.1005314220741</v>
+        <v>173.7474595786355</v>
       </c>
       <c r="F54" t="n">
-        <v>153.5886167468511</v>
+        <v>151.5029669158085</v>
       </c>
       <c r="G54" t="n">
-        <v>207.681516296712</v>
+        <v>144.7667274113823</v>
       </c>
       <c r="H54" t="n">
-        <v>144.357290259579</v>
+        <v>185.3536087074829</v>
       </c>
       <c r="I54" t="n">
-        <v>150.2674759671347</v>
+        <v>147.0550837344483</v>
       </c>
       <c r="J54" t="n">
-        <v>146.2714991652493</v>
+        <v>205.8865424381244</v>
       </c>
       <c r="K54" t="n">
-        <v>205.1009977370491</v>
+        <v>22.0728606175556</v>
       </c>
       <c r="L54" t="n">
-        <v>171.934611126262</v>
+        <v>136.2353741694225</v>
       </c>
       <c r="M54" t="n">
-        <v>138.2932336693653</v>
+        <v>186.8968589464144</v>
       </c>
       <c r="N54" t="n">
-        <v>151.358207662136</v>
+        <v>140.287257909047</v>
       </c>
       <c r="O54" t="n">
-        <v>157.5153144023427</v>
+        <v>77.45711892289273</v>
       </c>
       <c r="P54" t="n">
-        <v>147.2095245863138</v>
+        <v>176.020073032693</v>
       </c>
       <c r="Q54" t="n">
-        <v>139.1026420605081</v>
+        <v>194.5336570617182</v>
       </c>
       <c r="R54" t="n">
-        <v>185.8477214010355</v>
+        <v>60.40542995496191</v>
       </c>
       <c r="S54" t="n">
-        <v>141.280504374348</v>
+        <v>80.78337872997955</v>
       </c>
       <c r="T54" t="n">
-        <v>138.329447826533</v>
+        <v>133.2636480418253</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>144.8200713853688</v>
+        <v>78.82751382909437</v>
       </c>
       <c r="B55" t="n">
-        <v>51.34805491534949</v>
+        <v>60.28731050644679</v>
       </c>
       <c r="C55" t="n">
-        <v>30.59655373077746</v>
+        <v>147.5653557885662</v>
       </c>
       <c r="D55" t="n">
-        <v>38.19500157683132</v>
+        <v>184.1832976549902</v>
       </c>
       <c r="E55" t="n">
-        <v>30.64663197143344</v>
+        <v>21.69929108363536</v>
       </c>
       <c r="F55" t="n">
-        <v>71.97028139100314</v>
+        <v>96.13147080790279</v>
       </c>
       <c r="G55" t="n">
-        <v>157.2319001366787</v>
+        <v>151.71956714532</v>
       </c>
       <c r="H55" t="n">
-        <v>49.28778205983113</v>
+        <v>203.1727303991483</v>
       </c>
       <c r="I55" t="n">
-        <v>64.57997013643224</v>
+        <v>47.36281468839104</v>
       </c>
       <c r="J55" t="n">
-        <v>54.64073276721854</v>
+        <v>107.8888625852756</v>
       </c>
       <c r="K55" t="n">
-        <v>153.8072738267669</v>
+        <v>172.6767028837273</v>
       </c>
       <c r="L55" t="n">
-        <v>105.6019351736888</v>
+        <v>23.48535308300281</v>
       </c>
       <c r="M55" t="n">
-        <v>26.74465718641241</v>
+        <v>130.2040897686819</v>
       </c>
       <c r="N55" t="n">
-        <v>67.07879870706789</v>
+        <v>28.96910016071947</v>
       </c>
       <c r="O55" t="n">
-        <v>80.00832757005934</v>
+        <v>75.45036143704303</v>
       </c>
       <c r="P55" t="n">
-        <v>57.10431103005779</v>
+        <v>80.12289610546415</v>
       </c>
       <c r="Q55" t="n">
-        <v>30.65621042305934</v>
+        <v>172.1291950279394</v>
       </c>
       <c r="R55" t="n">
-        <v>127.0024950906319</v>
+        <v>107.9283380982571</v>
       </c>
       <c r="S55" t="n">
-        <v>39.37561587530073</v>
+        <v>79.21932347279046</v>
       </c>
       <c r="T55" t="n">
-        <v>26.93128933568878</v>
+        <v>92.63375551957002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>146.6693108762219</v>
+        <v>102.234060463108</v>
       </c>
       <c r="B56" t="n">
-        <v>56.35296283632512</v>
+        <v>163.7102416412685</v>
       </c>
       <c r="C56" t="n">
-        <v>38.40810822004705</v>
+        <v>54.87982131637402</v>
       </c>
       <c r="D56" t="n">
-        <v>44.69778319219692</v>
+        <v>95.08351254359236</v>
       </c>
       <c r="E56" t="n">
-        <v>38.44801331714007</v>
+        <v>189.1765554924213</v>
       </c>
       <c r="F56" t="n">
-        <v>75.62245090145299</v>
+        <v>136.5778649642456</v>
       </c>
       <c r="G56" t="n">
-        <v>158.9367927744643</v>
+        <v>109.2162360808768</v>
       </c>
       <c r="H56" t="n">
-        <v>54.48228278275338</v>
+        <v>140.7148867809869</v>
       </c>
       <c r="I56" t="n">
-        <v>68.62657079925364</v>
+        <v>149.5520045983915</v>
       </c>
       <c r="J56" t="n">
-        <v>59.36870685959973</v>
+        <v>194.1579673995983</v>
       </c>
       <c r="K56" t="n">
-        <v>155.5497063927302</v>
+        <v>43.31095694345313</v>
       </c>
       <c r="L56" t="n">
-        <v>108.1240139343267</v>
+        <v>149.2776242485537</v>
       </c>
       <c r="M56" t="n">
-        <v>35.4162443641504</v>
+        <v>164.1724414525859</v>
       </c>
       <c r="N56" t="n">
-        <v>70.98308892141723</v>
+        <v>166.4286262980715</v>
       </c>
       <c r="O56" t="n">
-        <v>83.30886001740997</v>
+        <v>103.9047953555645</v>
       </c>
       <c r="P56" t="n">
-        <v>61.64362104111077</v>
+        <v>168.7977922941416</v>
       </c>
       <c r="Q56" t="n">
-        <v>38.45564866629331</v>
+        <v>159.8125159044098</v>
       </c>
       <c r="R56" t="n">
-        <v>129.1071935876869</v>
+        <v>62.30865087577204</v>
       </c>
       <c r="S56" t="n">
-        <v>45.71075149679481</v>
+        <v>91.00313436169453</v>
       </c>
       <c r="T56" t="n">
-        <v>35.55739054156081</v>
+        <v>119.4512535043597</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>156.4387094451759</v>
+        <v>160.5392710169782</v>
       </c>
       <c r="B57" t="n">
-        <v>78.33798236103992</v>
+        <v>109.7933954181753</v>
       </c>
       <c r="C57" t="n">
-        <v>66.60604955264354</v>
+        <v>177.3549592492573</v>
       </c>
       <c r="D57" t="n">
-        <v>70.42069924576866</v>
+        <v>65.03994533958802</v>
       </c>
       <c r="E57" t="n">
-        <v>66.62906864125702</v>
+        <v>167.5198785923466</v>
       </c>
       <c r="F57" t="n">
-        <v>93.16618560566397</v>
+        <v>67.17587873029849</v>
       </c>
       <c r="G57" t="n">
-        <v>167.9943069196077</v>
+        <v>35.14233295518906</v>
       </c>
       <c r="H57" t="n">
-        <v>77.00326095163935</v>
+        <v>47.55438448533966</v>
       </c>
       <c r="I57" t="n">
-        <v>87.58304219214661</v>
+        <v>116.097674717649</v>
       </c>
       <c r="J57" t="n">
-        <v>80.5346286646151</v>
+        <v>95.59586690488879</v>
       </c>
       <c r="K57" t="n">
-        <v>164.793489613003</v>
+        <v>182.4563270679937</v>
       </c>
       <c r="L57" t="n">
-        <v>121.0453859064311</v>
+        <v>142.4664328317499</v>
       </c>
       <c r="M57" t="n">
-        <v>64.92683131670277</v>
+        <v>47.35546598685284</v>
       </c>
       <c r="N57" t="n">
-        <v>89.44150028254327</v>
+        <v>182.7345600781875</v>
       </c>
       <c r="O57" t="n">
-        <v>99.50652851630777</v>
+        <v>158.3740293495787</v>
       </c>
       <c r="P57" t="n">
-        <v>82.22602431728312</v>
+        <v>95.76901867627092</v>
       </c>
       <c r="Q57" t="n">
-        <v>66.63347487796015</v>
+        <v>15.67534843173636</v>
       </c>
       <c r="R57" t="n">
-        <v>140.1065683544309</v>
+        <v>126.3149754655308</v>
       </c>
       <c r="S57" t="n">
-        <v>71.06796649945804</v>
+        <v>129.2337743089387</v>
       </c>
       <c r="T57" t="n">
-        <v>65.00393128181894</v>
+        <v>73.03524286336157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>142.5455447339944</v>
+        <v>48.70228478852231</v>
       </c>
       <c r="B58" t="n">
-        <v>44.53091051211083</v>
+        <v>138.7270506064451</v>
       </c>
       <c r="C58" t="n">
-        <v>16.80857958449283</v>
+        <v>22.54706556051431</v>
       </c>
       <c r="D58" t="n">
-        <v>28.37670511003743</v>
+        <v>133.3070528053463</v>
       </c>
       <c r="E58" t="n">
-        <v>16.89956504293417</v>
+        <v>146.9144059331671</v>
       </c>
       <c r="F58" t="n">
-        <v>67.27630081200995</v>
+        <v>127.8808850337801</v>
       </c>
       <c r="G58" t="n">
-        <v>155.1394523260875</v>
+        <v>129.5668866339923</v>
       </c>
       <c r="H58" t="n">
-        <v>42.13863675803108</v>
+        <v>174.8354918940615</v>
       </c>
       <c r="I58" t="n">
-        <v>59.30389355067976</v>
+        <v>120.2245354777521</v>
       </c>
       <c r="J58" t="n">
-        <v>48.29067119834292</v>
+        <v>180.7430302926656</v>
       </c>
       <c r="K58" t="n">
-        <v>151.6675862848419</v>
+        <v>46.88487252780387</v>
       </c>
       <c r="L58" t="n">
-        <v>102.4604702306009</v>
+        <v>109.11995757198</v>
       </c>
       <c r="M58" t="n">
-        <v>7.852129358753469</v>
+        <v>165.0024136234173</v>
       </c>
       <c r="N58" t="n">
-        <v>62.01567933540041</v>
+        <v>115.1728556747805</v>
       </c>
       <c r="O58" t="n">
-        <v>75.81366452036066</v>
+        <v>51.47928352323519</v>
       </c>
       <c r="P58" t="n">
-        <v>51.06154703556736</v>
+        <v>150.2707150522028</v>
       </c>
       <c r="Q58" t="n">
-        <v>16.91692894560856</v>
+        <v>177.5280708461026</v>
       </c>
       <c r="R58" t="n">
-        <v>124.4026245972883</v>
+        <v>37.30483018736766</v>
       </c>
       <c r="S58" t="n">
-        <v>29.9469259358471</v>
+        <v>53.9622855531134</v>
       </c>
       <c r="T58" t="n">
-        <v>8.466025793160631</v>
+        <v>109.7903084566879</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>209.3953493265276</v>
+        <v>27.51169318666543</v>
       </c>
       <c r="B59" t="n">
-        <v>159.7190720831578</v>
+        <v>77.20329361310372</v>
       </c>
       <c r="C59" t="n">
-        <v>154.3039479200566</v>
+        <v>88.84254316470374</v>
       </c>
       <c r="D59" t="n">
-        <v>155.9885168497006</v>
+        <v>139.3509874166896</v>
       </c>
       <c r="E59" t="n">
-        <v>154.3138856185913</v>
+        <v>81.44058718393269</v>
       </c>
       <c r="F59" t="n">
-        <v>167.4911360252099</v>
+        <v>82.75190009549449</v>
       </c>
       <c r="G59" t="n">
-        <v>218.1637679911715</v>
+        <v>116.0974281093496</v>
       </c>
       <c r="H59" t="n">
-        <v>159.0686792045895</v>
+        <v>168.8094334280108</v>
       </c>
       <c r="I59" t="n">
-        <v>164.4510011715881</v>
+        <v>57.20448470749979</v>
       </c>
       <c r="J59" t="n">
-        <v>160.8078633676033</v>
+        <v>124.7424584392013</v>
       </c>
       <c r="K59" t="n">
-        <v>215.7086848634919</v>
+        <v>112.5728829607659</v>
       </c>
       <c r="L59" t="n">
-        <v>184.4595564234696</v>
+        <v>42.72942441277451</v>
       </c>
       <c r="M59" t="n">
-        <v>153.5865747112485</v>
+        <v>123.3928265669536</v>
       </c>
       <c r="N59" t="n">
-        <v>165.4482531775375</v>
+        <v>59.36484551194761</v>
       </c>
       <c r="O59" t="n">
-        <v>171.0990699100176</v>
+        <v>24.01521839493794</v>
       </c>
       <c r="P59" t="n">
-        <v>161.6615649489166</v>
+        <v>92.59582487651279</v>
       </c>
       <c r="Q59" t="n">
-        <v>154.3157881780672</v>
+        <v>152.0544720618965</v>
       </c>
       <c r="R59" t="n">
-        <v>197.4922606148432</v>
+        <v>47.32156595289987</v>
       </c>
       <c r="S59" t="n">
-        <v>156.2817915467903</v>
+        <v>19.00998318409862</v>
       </c>
       <c r="T59" t="n">
-        <v>153.6191836614092</v>
+        <v>68.46515773383685</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>153.2268177990811</v>
+        <v>84.46555416753506</v>
       </c>
       <c r="B60" t="n">
-        <v>71.70932547695061</v>
+        <v>41.13762653606084</v>
       </c>
       <c r="C60" t="n">
-        <v>58.66646160260429</v>
+        <v>150.7306668158153</v>
       </c>
       <c r="D60" t="n">
-        <v>62.96397987916297</v>
+        <v>171.6148693715743</v>
       </c>
       <c r="E60" t="n">
-        <v>58.69259466033153</v>
+        <v>23.98327988723689</v>
       </c>
       <c r="F60" t="n">
-        <v>87.66599124101469</v>
+        <v>79.02251848637476</v>
       </c>
       <c r="G60" t="n">
-        <v>165.0074999427602</v>
+        <v>137.2074115505899</v>
       </c>
       <c r="H60" t="n">
-        <v>70.24877278036182</v>
+        <v>187.6488526166891</v>
       </c>
       <c r="I60" t="n">
-        <v>81.70787697396115</v>
+        <v>30.20755528920182</v>
       </c>
       <c r="J60" t="n">
-        <v>74.10272798020382</v>
+        <v>88.88138356870606</v>
       </c>
       <c r="K60" t="n">
-        <v>161.7475876135145</v>
+        <v>174.4612377278081</v>
       </c>
       <c r="L60" t="n">
-        <v>116.8647651313152</v>
+        <v>19.31071253047647</v>
       </c>
       <c r="M60" t="n">
-        <v>56.75280878325066</v>
+        <v>111.5597232317947</v>
       </c>
       <c r="N60" t="n">
-        <v>83.69689273057169</v>
+        <v>47.12026798439103</v>
       </c>
       <c r="O60" t="n">
-        <v>94.37657070124665</v>
+        <v>80.82485056307897</v>
       </c>
       <c r="P60" t="n">
-        <v>75.93752007398631</v>
+        <v>60.92154742794065</v>
       </c>
       <c r="Q60" t="n">
-        <v>58.69759666521606</v>
+        <v>154.4770344424034</v>
       </c>
       <c r="R60" t="n">
-        <v>136.5109459934091</v>
+        <v>105.3167404100281</v>
       </c>
       <c r="S60" t="n">
-        <v>63.6870767293391</v>
+        <v>77.41009626124055</v>
       </c>
       <c r="T60" t="n">
-        <v>56.84099719438493</v>
+        <v>77.73592799915941</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>147.9002020253723</v>
+        <v>5.177018243188684</v>
       </c>
       <c r="B61" t="n">
-        <v>59.48310202630964</v>
+        <v>107.7807361619973</v>
       </c>
       <c r="C61" t="n">
-        <v>42.86917054577763</v>
+        <v>69.98399864278905</v>
       </c>
       <c r="D61" t="n">
-        <v>48.58471805554462</v>
+        <v>156.3477248580859</v>
       </c>
       <c r="E61" t="n">
-        <v>42.90492669000965</v>
+        <v>101.0480957644174</v>
       </c>
       <c r="F61" t="n">
-        <v>77.98293458560526</v>
+        <v>113.3540722789359</v>
       </c>
       <c r="G61" t="n">
-        <v>160.0733803718567</v>
+        <v>139.2721883734664</v>
       </c>
       <c r="H61" t="n">
-        <v>57.71396835654284</v>
+        <v>190.7598814492701</v>
       </c>
       <c r="I61" t="n">
-        <v>71.21930374487731</v>
+        <v>87.52899019969745</v>
       </c>
       <c r="J61" t="n">
-        <v>62.34762513858251</v>
+        <v>156.0651547499908</v>
       </c>
       <c r="K61" t="n">
-        <v>156.7108616692049</v>
+        <v>96.46248445464138</v>
       </c>
       <c r="L61" t="n">
-        <v>109.787910971612</v>
+        <v>67.36746941953247</v>
       </c>
       <c r="M61" t="n">
-        <v>40.21061266756995</v>
+        <v>153.9051326677616</v>
       </c>
       <c r="N61" t="n">
-        <v>73.49273378413643</v>
+        <v>65.21207870391464</v>
       </c>
       <c r="O61" t="n">
-        <v>85.45729438521052</v>
+        <v>7.673741500594709</v>
       </c>
       <c r="P61" t="n">
-        <v>64.51758691473354</v>
+        <v>123.8655223844301</v>
       </c>
       <c r="Q61" t="n">
-        <v>42.91176902186051</v>
+        <v>179.4924840857251</v>
       </c>
       <c r="R61" t="n">
-        <v>130.5038330560777</v>
+        <v>51.92873977854953</v>
       </c>
       <c r="S61" t="n">
-        <v>49.51823713180681</v>
+        <v>36.46946680823238</v>
       </c>
       <c r="T61" t="n">
-        <v>40.33498516629454</v>
+        <v>97.97299867720008</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>166.5412695860168</v>
+        <v>50.85007168380187</v>
       </c>
       <c r="B62" t="n">
-        <v>96.95238080031221</v>
+        <v>145.3468147284709</v>
       </c>
       <c r="C62" t="n">
-        <v>87.74560102625861</v>
+        <v>18.47380320747581</v>
       </c>
       <c r="D62" t="n">
-        <v>90.67524218171766</v>
+        <v>141.7138380323473</v>
       </c>
       <c r="E62" t="n">
-        <v>87.76307566654378</v>
+        <v>150.6176077743913</v>
       </c>
       <c r="F62" t="n">
-        <v>109.2834058892711</v>
+        <v>136.0689693430731</v>
       </c>
       <c r="G62" t="n">
-        <v>177.4401640549555</v>
+        <v>138.5228489133808</v>
       </c>
       <c r="H62" t="n">
-        <v>95.87714461557778</v>
+        <v>183.5575601084162</v>
       </c>
       <c r="I62" t="n">
-        <v>104.5644009311079</v>
+        <v>126.4693545384937</v>
       </c>
       <c r="J62" t="n">
-        <v>98.73576391864091</v>
+        <v>188.2833043780501</v>
       </c>
       <c r="K62" t="n">
-        <v>174.4127830214319</v>
+        <v>45.14561439365833</v>
       </c>
       <c r="L62" t="n">
-        <v>133.8465917073983</v>
+        <v>113.6895857694088</v>
       </c>
       <c r="M62" t="n">
-        <v>86.47784737883873</v>
+        <v>173.5381257317448</v>
       </c>
       <c r="N62" t="n">
-        <v>106.1258999266547</v>
+        <v>116.7178519471415</v>
       </c>
       <c r="O62" t="n">
-        <v>114.7365411707052</v>
+        <v>54.00253704190139</v>
       </c>
       <c r="P62" t="n">
-        <v>100.1201465114618</v>
+        <v>157.5079278613854</v>
       </c>
       <c r="Q62" t="n">
-        <v>87.7664208952484</v>
+        <v>186.4887181629473</v>
       </c>
       <c r="R62" t="n">
-        <v>151.3035860728521</v>
+        <v>45.99671905458408</v>
       </c>
       <c r="S62" t="n">
-        <v>91.17883814141436</v>
+        <v>60.52160993506815</v>
       </c>
       <c r="T62" t="n">
-        <v>86.53574836182783</v>
+        <v>118.0553289054122</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>154.1252064863073</v>
+        <v>72.29327897304425</v>
       </c>
       <c r="B63" t="n">
-        <v>73.60943514233283</v>
+        <v>47.91401593831037</v>
       </c>
       <c r="C63" t="n">
-        <v>60.9743823140826</v>
+        <v>116.9785020226309</v>
       </c>
       <c r="D63" t="n">
-        <v>65.11976922438917</v>
+        <v>110.1106587110813</v>
       </c>
       <c r="E63" t="n">
-        <v>60.99952663403251</v>
+        <v>85.86227309018106</v>
       </c>
       <c r="F63" t="n">
-        <v>89.22694437155029</v>
+        <v>36.40913989095856</v>
       </c>
       <c r="G63" t="n">
-        <v>165.842083377453</v>
+        <v>78.21711440986951</v>
       </c>
       <c r="H63" t="n">
-        <v>72.18733724664574</v>
+        <v>130.6223458421626</v>
       </c>
       <c r="I63" t="n">
-        <v>83.38044579639782</v>
+        <v>35.92084177152174</v>
       </c>
       <c r="J63" t="n">
-        <v>75.94297779072234</v>
+        <v>85.33527106327732</v>
       </c>
       <c r="K63" t="n">
-        <v>162.5989043025986</v>
+        <v>134.7700167374124</v>
       </c>
       <c r="L63" t="n">
-        <v>118.0402258165052</v>
+        <v>51.0911907349808</v>
       </c>
       <c r="M63" t="n">
-        <v>59.13546217289823</v>
+        <v>76.9891219316664</v>
       </c>
       <c r="N63" t="n">
-        <v>85.33048361732686</v>
+        <v>88.83896742601787</v>
       </c>
       <c r="O63" t="n">
-        <v>95.82827703210296</v>
+        <v>69.27131579317837</v>
       </c>
       <c r="P63" t="n">
-        <v>77.73434592637373</v>
+        <v>55.41895873976945</v>
       </c>
       <c r="Q63" t="n">
-        <v>61.00433948406005</v>
+        <v>107.1396580942362</v>
       </c>
       <c r="R63" t="n">
-        <v>137.5185804087198</v>
+        <v>60.88080358523472</v>
       </c>
       <c r="S63" t="n">
-        <v>65.81918659435705</v>
+        <v>44.38132277243042</v>
       </c>
       <c r="T63" t="n">
-        <v>59.2201025300205</v>
+        <v>22.49737019595251</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>158.9327046860582</v>
+        <v>99.3061091623139</v>
       </c>
       <c r="B64" t="n">
-        <v>83.20681634549062</v>
+        <v>97.92403971966925</v>
       </c>
       <c r="C64" t="n">
-        <v>72.26963845878028</v>
+        <v>108.2238535851899</v>
       </c>
       <c r="D64" t="n">
-        <v>75.79980005393554</v>
+        <v>55.64215899773664</v>
       </c>
       <c r="E64" t="n">
-        <v>72.29085415151039</v>
+        <v>142.0141744845945</v>
       </c>
       <c r="F64" t="n">
-        <v>97.29580127766374</v>
+        <v>60.19970627688809</v>
       </c>
       <c r="G64" t="n">
-        <v>170.319176734016</v>
+        <v>36.57195545637163</v>
       </c>
       <c r="H64" t="n">
-        <v>81.95143075712511</v>
+        <v>86.34850962223135</v>
       </c>
       <c r="I64" t="n">
-        <v>91.96371069930214</v>
+        <v>91.12591532166704</v>
       </c>
       <c r="J64" t="n">
-        <v>85.27814034147936</v>
+        <v>116.8404300268377</v>
       </c>
       <c r="K64" t="n">
-        <v>167.1628817195508</v>
+        <v>115.0160777451886</v>
       </c>
       <c r="L64" t="n">
-        <v>124.2518420595463</v>
+        <v>105.8953686035097</v>
       </c>
       <c r="M64" t="n">
-        <v>70.72501842192182</v>
+        <v>83.17714624551174</v>
       </c>
       <c r="N64" t="n">
-        <v>93.73535500944024</v>
+        <v>139.6353727849522</v>
       </c>
       <c r="O64" t="n">
-        <v>103.3831902357457</v>
+        <v>98.00218130701298</v>
       </c>
       <c r="P64" t="n">
-        <v>86.87723453805398</v>
+        <v>96.44092159165567</v>
       </c>
       <c r="Q64" t="n">
-        <v>72.29491531404786</v>
+        <v>84.73574126272499</v>
       </c>
       <c r="R64" t="n">
-        <v>142.8859170877537</v>
+        <v>58.63266594875098</v>
       </c>
       <c r="S64" t="n">
-        <v>76.40150959452107</v>
+        <v>69.17371332904048</v>
       </c>
       <c r="T64" t="n">
-        <v>70.79580416977439</v>
+        <v>46.6805682475399</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>206.9054873885626</v>
+        <v>78.62074441936451</v>
       </c>
       <c r="B65" t="n">
-        <v>156.4405650048128</v>
+        <v>37.91078196486237</v>
       </c>
       <c r="C65" t="n">
-        <v>150.9078418626271</v>
+        <v>126.4634969409684</v>
       </c>
       <c r="D65" t="n">
-        <v>152.6298980569975</v>
+        <v>116.0196150661357</v>
       </c>
       <c r="E65" t="n">
-        <v>150.9180031892411</v>
+        <v>79.4022033445099</v>
       </c>
       <c r="F65" t="n">
-        <v>164.3677250525038</v>
+        <v>31.84540693361591</v>
       </c>
       <c r="G65" t="n">
-        <v>215.7751099085013</v>
+        <v>81.9401736191045</v>
       </c>
       <c r="H65" t="n">
-        <v>155.7764844121625</v>
+        <v>133.4415575836223</v>
       </c>
       <c r="I65" t="n">
-        <v>161.2687203962932</v>
+        <v>27.57819083572348</v>
       </c>
       <c r="J65" t="n">
-        <v>157.5520146261986</v>
+        <v>76.23725757495055</v>
       </c>
       <c r="K65" t="n">
-        <v>213.2925341343606</v>
+        <v>144.672601084584</v>
       </c>
       <c r="L65" t="n">
-        <v>181.628181590477</v>
+        <v>47.63865826432043</v>
       </c>
       <c r="M65" t="n">
-        <v>150.1742465386593</v>
+        <v>72.18009177531876</v>
       </c>
       <c r="N65" t="n">
-        <v>162.2855288416642</v>
+        <v>87.37517610102904</v>
       </c>
       <c r="O65" t="n">
-        <v>168.0427330056055</v>
+        <v>75.38457627597148</v>
       </c>
       <c r="P65" t="n">
-        <v>158.4232620976253</v>
+        <v>45.7002698036463</v>
       </c>
       <c r="Q65" t="n">
-        <v>150.9199485586256</v>
+        <v>106.1986290110449</v>
       </c>
       <c r="R65" t="n">
-        <v>194.8503564140473</v>
+        <v>70.72336586112625</v>
       </c>
       <c r="S65" t="n">
-        <v>152.9296137476144</v>
+        <v>52.53037420354425</v>
       </c>
       <c r="T65" t="n">
-        <v>150.2075962816724</v>
+        <v>22.92842906932418</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>146.4155539902276</v>
+        <v>166.7630345836206</v>
       </c>
       <c r="B66" t="n">
-        <v>55.68917415253761</v>
+        <v>119.870900063165</v>
       </c>
       <c r="C66" t="n">
-        <v>37.42740272049705</v>
+        <v>179.870359965818</v>
       </c>
       <c r="D66" t="n">
-        <v>43.85794705245635</v>
+        <v>59.7355741018118</v>
       </c>
       <c r="E66" t="n">
-        <v>37.46835231758135</v>
+        <v>177.3592022890453</v>
       </c>
       <c r="F66" t="n">
-        <v>75.12910739322071</v>
+        <v>76.8013638325514</v>
       </c>
       <c r="G66" t="n">
-        <v>158.7026521353453</v>
+        <v>36.38299021166515</v>
       </c>
       <c r="H66" t="n">
-        <v>53.79541648299908</v>
+        <v>37.40167748715997</v>
       </c>
       <c r="I66" t="n">
-        <v>68.08255222172856</v>
+        <v>125.6326206181965</v>
       </c>
       <c r="J66" t="n">
-        <v>58.73900792097622</v>
+        <v>105.7346501635637</v>
       </c>
       <c r="K66" t="n">
-        <v>155.3104595840988</v>
+        <v>183.4588020040711</v>
       </c>
       <c r="L66" t="n">
-        <v>107.7795439154847</v>
+        <v>151.4886809996187</v>
       </c>
       <c r="M66" t="n">
-        <v>34.35022652357097</v>
+        <v>57.50822924867528</v>
       </c>
       <c r="N66" t="n">
-        <v>70.45726797275957</v>
+        <v>191.4700696877319</v>
       </c>
       <c r="O66" t="n">
-        <v>82.86129286198613</v>
+        <v>164.7534423310749</v>
       </c>
       <c r="P66" t="n">
-        <v>61.03739601604494</v>
+        <v>106.0854129355238</v>
       </c>
       <c r="Q66" t="n">
-        <v>37.47618726211098</v>
+        <v>17.83337946234572</v>
       </c>
       <c r="R66" t="n">
-        <v>128.8188461889327</v>
+        <v>130.5865103556123</v>
       </c>
       <c r="S66" t="n">
-        <v>44.88987079243103</v>
+        <v>135.4553944908171</v>
       </c>
       <c r="T66" t="n">
-        <v>34.49573480134177</v>
+        <v>81.49300994064279</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>143.4677816609502</v>
+        <v>178.8103321388766</v>
       </c>
       <c r="B67" t="n">
-        <v>47.4001481246685</v>
+        <v>89.38964934913986</v>
       </c>
       <c r="C67" t="n">
-        <v>23.37306994921978</v>
+        <v>216.5643223358904</v>
       </c>
       <c r="D67" t="n">
-        <v>32.6957098730845</v>
+        <v>130.6493382991061</v>
       </c>
       <c r="E67" t="n">
-        <v>23.43858677145988</v>
+        <v>145.047672559675</v>
       </c>
       <c r="F67" t="n">
-        <v>69.20890623432032</v>
+        <v>70.55838209370923</v>
       </c>
       <c r="G67" t="n">
-        <v>155.9872485789825</v>
+        <v>93.83165637623394</v>
       </c>
       <c r="H67" t="n">
-        <v>45.16012354974441</v>
+        <v>110.6580566471799</v>
       </c>
       <c r="I67" t="n">
-        <v>61.48759095519394</v>
+        <v>105.8603051146371</v>
       </c>
       <c r="J67" t="n">
-        <v>50.94861112915011</v>
+        <v>47.28383790766445</v>
       </c>
       <c r="K67" t="n">
-        <v>152.534680583377</v>
+        <v>228.2810900823069</v>
       </c>
       <c r="L67" t="n">
-        <v>103.7396742383489</v>
+        <v>135.8502158029076</v>
       </c>
       <c r="M67" t="n">
-        <v>18.03962268645022</v>
+        <v>32.58086743129414</v>
       </c>
       <c r="N67" t="n">
-        <v>64.1070708630031</v>
+        <v>175.9314983342928</v>
       </c>
       <c r="O67" t="n">
-        <v>77.53375896478053</v>
+        <v>175.6705979921789</v>
       </c>
       <c r="P67" t="n">
-        <v>53.58221381081925</v>
+        <v>69.50159493942135</v>
       </c>
       <c r="Q67" t="n">
-        <v>23.45110948662473</v>
+        <v>59.48527822852257</v>
       </c>
       <c r="R67" t="n">
-        <v>125.4583000757492</v>
+        <v>159.9647272062044</v>
       </c>
       <c r="S67" t="n">
-        <v>34.06743935504991</v>
+        <v>150.5717297033273</v>
       </c>
       <c r="T67" t="n">
-        <v>18.31517523621743</v>
+        <v>87.87443378507869</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>148.7345760237648</v>
+        <v>91.68400296150483</v>
       </c>
       <c r="B68" t="n">
-        <v>61.52839809791477</v>
+        <v>81.24371630200814</v>
       </c>
       <c r="C68" t="n">
-        <v>45.66475806468363</v>
+        <v>111.5946637653612</v>
       </c>
       <c r="D68" t="n">
-        <v>51.06837744005465</v>
+        <v>70.32450714585549</v>
       </c>
       <c r="E68" t="n">
-        <v>45.69832688510841</v>
+        <v>125.7776609803956</v>
       </c>
       <c r="F68" t="n">
-        <v>79.55402210074554</v>
+        <v>45.30204556406105</v>
       </c>
       <c r="G68" t="n">
-        <v>160.8446189634464</v>
+        <v>42.91283996589291</v>
       </c>
       <c r="H68" t="n">
-        <v>59.81978342725045</v>
+        <v>95.57363884836161</v>
       </c>
       <c r="I68" t="n">
-        <v>72.93622948664276</v>
+        <v>74.47982466744125</v>
       </c>
       <c r="J68" t="n">
-        <v>64.30187171649303</v>
+        <v>102.7644734916943</v>
       </c>
       <c r="K68" t="n">
-        <v>157.4985666948363</v>
+        <v>121.9772413522785</v>
       </c>
       <c r="L68" t="n">
-        <v>110.909376255273</v>
+        <v>90.50903703926777</v>
       </c>
       <c r="M68" t="n">
-        <v>43.17867201436906</v>
+        <v>73.73341072166011</v>
       </c>
       <c r="N68" t="n">
-        <v>75.15774254785111</v>
+        <v>125.8378605422347</v>
       </c>
       <c r="O68" t="n">
-        <v>86.89334559943961</v>
+        <v>89.85405701475776</v>
       </c>
       <c r="P68" t="n">
-        <v>66.40800679980778</v>
+        <v>80.56585737946013</v>
       </c>
       <c r="Q68" t="n">
-        <v>45.70475102665617</v>
+        <v>84.65651462826351</v>
       </c>
       <c r="R68" t="n">
-        <v>131.4486773921735</v>
+        <v>57.20563719777418</v>
       </c>
       <c r="S68" t="n">
-        <v>51.95729163904689</v>
+        <v>60.49001454205831</v>
       </c>
       <c r="T68" t="n">
-        <v>43.29451898552887</v>
+        <v>30.31665468983464</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>148.147793274745</v>
+        <v>60.46830396934588</v>
       </c>
       <c r="B69" t="n">
-        <v>60.09607574295524</v>
+        <v>88.87886028499349</v>
       </c>
       <c r="C69" t="n">
-        <v>43.7157257324366</v>
+        <v>128.910688848518</v>
       </c>
       <c r="D69" t="n">
-        <v>49.33329222307604</v>
+        <v>192.3622156916863</v>
       </c>
       <c r="E69" t="n">
-        <v>43.75079001921854</v>
+        <v>52.14044828163141</v>
       </c>
       <c r="F69" t="n">
-        <v>78.45149443836898</v>
+        <v>117.0934968474251</v>
       </c>
       <c r="G69" t="n">
-        <v>160.3021709045257</v>
+        <v>164.8489824701275</v>
       </c>
       <c r="H69" t="n">
-        <v>58.34553141835867</v>
+        <v>217.6347713034487</v>
       </c>
       <c r="I69" t="n">
-        <v>71.73205781891208</v>
+        <v>71.84821919440471</v>
       </c>
       <c r="J69" t="n">
-        <v>62.9327041644633</v>
+        <v>138.518509610604</v>
       </c>
       <c r="K69" t="n">
-        <v>156.9445540888098</v>
+        <v>155.4747303586804</v>
       </c>
       <c r="L69" t="n">
-        <v>110.1212254224464</v>
+        <v>41.86387602597345</v>
       </c>
       <c r="M69" t="n">
-        <v>41.11194794864369</v>
+        <v>154.8420056003812</v>
       </c>
       <c r="N69" t="n">
-        <v>73.98973450483925</v>
+        <v>6.531470140462551</v>
       </c>
       <c r="O69" t="n">
-        <v>85.88508634606583</v>
+        <v>58.00643371709427</v>
       </c>
       <c r="P69" t="n">
-        <v>65.08316152685614</v>
+        <v>108.7390181679306</v>
       </c>
       <c r="Q69" t="n">
-        <v>43.75750008417025</v>
+        <v>192.7532155682579</v>
       </c>
       <c r="R69" t="n">
-        <v>130.7843619679327</v>
+        <v>100.9333407709423</v>
       </c>
       <c r="S69" t="n">
-        <v>50.25290739521945</v>
+        <v>73.84088886343025</v>
       </c>
       <c r="T69" t="n">
-        <v>41.23360184844214</v>
+        <v>108.9988176084846</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>142.5818716393425</v>
+        <v>43.84299923186833</v>
       </c>
       <c r="B70" t="n">
-        <v>44.64705799606917</v>
+        <v>141.4094632959497</v>
       </c>
       <c r="C70" t="n">
-        <v>17.11391668540461</v>
+        <v>26.22134169711179</v>
       </c>
       <c r="D70" t="n">
-        <v>28.55862723536909</v>
+        <v>146.2687963148285</v>
       </c>
       <c r="E70" t="n">
-        <v>17.20328734013078</v>
+        <v>144.0783513821389</v>
       </c>
       <c r="F70" t="n">
-        <v>67.35323635590788</v>
+        <v>134.6359888137503</v>
       </c>
       <c r="G70" t="n">
-        <v>155.1728309489297</v>
+        <v>140.9155588867237</v>
       </c>
       <c r="H70" t="n">
-        <v>42.26135947283321</v>
+        <v>187.243818513118</v>
       </c>
       <c r="I70" t="n">
-        <v>59.39115748103498</v>
+        <v>122.1510517482722</v>
       </c>
       <c r="J70" t="n">
-        <v>48.39779665907538</v>
+        <v>185.5405716780693</v>
       </c>
       <c r="K70" t="n">
-        <v>151.701728817231</v>
+        <v>53.20010047159786</v>
       </c>
       <c r="L70" t="n">
-        <v>102.5110030998751</v>
+        <v>107.8552976675226</v>
       </c>
       <c r="M70" t="n">
-        <v>8.486090509377052</v>
+        <v>172.9042336818453</v>
       </c>
       <c r="N70" t="n">
-        <v>62.09913268394295</v>
+        <v>109.1067827966647</v>
       </c>
       <c r="O70" t="n">
-        <v>75.88194465531662</v>
+        <v>47.17016147812735</v>
       </c>
       <c r="P70" t="n">
-        <v>51.16287113065684</v>
+        <v>154.3576250840888</v>
       </c>
       <c r="Q70" t="n">
-        <v>17.22034499124538</v>
+        <v>187.9904343549036</v>
       </c>
       <c r="R70" t="n">
-        <v>124.4442477712835</v>
+        <v>46.59013348498482</v>
       </c>
       <c r="S70" t="n">
-        <v>30.11936535974576</v>
+        <v>57.02953611846107</v>
       </c>
       <c r="T70" t="n">
-        <v>9.057118161821792</v>
+        <v>116.8512709350018</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>143.2932617670778</v>
+        <v>98.01693861038063</v>
       </c>
       <c r="B71" t="n">
-        <v>46.86927069386402</v>
+        <v>81.46726170857255</v>
       </c>
       <c r="C71" t="n">
-        <v>22.27677921031914</v>
+        <v>117.7254707004074</v>
       </c>
       <c r="D71" t="n">
-        <v>31.92121453264431</v>
+        <v>67.12191417917339</v>
       </c>
       <c r="E71" t="n">
-        <v>22.3455105776852</v>
+        <v>128.3356266186226</v>
       </c>
       <c r="F71" t="n">
-        <v>68.84640292190383</v>
+        <v>42.85376200613514</v>
       </c>
       <c r="G71" t="n">
-        <v>155.8267506315121</v>
+        <v>37.16676697604482</v>
       </c>
       <c r="H71" t="n">
-        <v>44.60259243768648</v>
+        <v>90.03304895218946</v>
       </c>
       <c r="I71" t="n">
-        <v>61.07927909371094</v>
+        <v>76.31468852278174</v>
       </c>
       <c r="J71" t="n">
-        <v>50.45508367968034</v>
+        <v>99.710034626168</v>
       </c>
       <c r="K71" t="n">
-        <v>152.3705459523166</v>
+        <v>127.4710702422642</v>
       </c>
       <c r="L71" t="n">
-        <v>103.4981859947938</v>
+        <v>94.12035764749204</v>
       </c>
       <c r="M71" t="n">
-        <v>16.59465214470241</v>
+        <v>68.45601352823834</v>
       </c>
       <c r="N71" t="n">
-        <v>63.71554777107616</v>
+        <v>130.4027181800935</v>
       </c>
       <c r="O71" t="n">
-        <v>77.21035081090405</v>
+        <v>96.12193085749151</v>
       </c>
       <c r="P71" t="n">
-        <v>53.11316343433646</v>
+        <v>79.17122507014194</v>
       </c>
       <c r="Q71" t="n">
-        <v>22.35864551550131</v>
+        <v>78.07504792596178</v>
       </c>
       <c r="R71" t="n">
-        <v>125.2586905209811</v>
+        <v>63.70562623570339</v>
       </c>
       <c r="S71" t="n">
-        <v>33.32483934461185</v>
+        <v>66.7640706379827</v>
       </c>
       <c r="T71" t="n">
-        <v>16.89378989651343</v>
+        <v>29.92963085201225</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>147.628886101388</v>
+        <v>107.6001904121093</v>
       </c>
       <c r="B72" t="n">
-        <v>58.80525213841876</v>
+        <v>9.296878031811625</v>
       </c>
       <c r="C72" t="n">
-        <v>41.92354989350986</v>
+        <v>166.6095343873908</v>
       </c>
       <c r="D72" t="n">
-        <v>47.75241439893281</v>
+        <v>155.0760124174819</v>
       </c>
       <c r="E72" t="n">
-        <v>41.96011185239792</v>
+        <v>51.76956219715458</v>
       </c>
       <c r="F72" t="n">
-        <v>77.46713070053281</v>
+        <v>53.90630394293725</v>
       </c>
       <c r="G72" t="n">
-        <v>159.8227310368077</v>
+        <v>116.783683595312</v>
       </c>
       <c r="H72" t="n">
-        <v>57.01508919444633</v>
+        <v>163.1225577457246</v>
       </c>
       <c r="I72" t="n">
-        <v>70.65413985249369</v>
+        <v>23.97633715860543</v>
       </c>
       <c r="J72" t="n">
-        <v>61.70125292740698</v>
+        <v>52.0592517197878</v>
       </c>
       <c r="K72" t="n">
-        <v>156.4548254848515</v>
+        <v>187.2436628518472</v>
       </c>
       <c r="L72" t="n">
-        <v>109.4221350911288</v>
+        <v>47.42493706061573</v>
       </c>
       <c r="M72" t="n">
-        <v>39.20091355430355</v>
+        <v>78.35306531658398</v>
       </c>
       <c r="N72" t="n">
-        <v>72.94518607459023</v>
+        <v>83.80559497660452</v>
       </c>
       <c r="O72" t="n">
-        <v>84.98686613842855</v>
+        <v>103.9109077859735</v>
       </c>
       <c r="P72" t="n">
-        <v>63.89317079071001</v>
+        <v>25.18306303170051</v>
       </c>
       <c r="Q72" t="n">
-        <v>41.96710822746964</v>
+        <v>124.2354971183473</v>
       </c>
       <c r="R72" t="n">
-        <v>130.1962698955666</v>
+        <v>113.7241519011108</v>
       </c>
       <c r="S72" t="n">
-        <v>48.70188970699692</v>
+        <v>90.19508701546124</v>
       </c>
       <c r="T72" t="n">
-        <v>39.32847925811323</v>
+        <v>60.74282203417535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>150.9211937801916</v>
+        <v>31.78634502679474</v>
       </c>
       <c r="B73" t="n">
-        <v>66.64065125405496</v>
+        <v>84.71237421456819</v>
       </c>
       <c r="C73" t="n">
-        <v>52.3498114244472</v>
+        <v>76.50991777426751</v>
       </c>
       <c r="D73" t="n">
-        <v>57.12452889459114</v>
+        <v>122.502879842094</v>
       </c>
       <c r="E73" t="n">
-        <v>52.37909608963595</v>
+        <v>98.63483165787632</v>
       </c>
       <c r="F73" t="n">
-        <v>83.57077874158529</v>
+        <v>79.65810693659797</v>
       </c>
       <c r="G73" t="n">
-        <v>162.8687326547528</v>
+        <v>102.649068908918</v>
       </c>
       <c r="H73" t="n">
-        <v>65.0664208048379</v>
+        <v>154.6181148039077</v>
       </c>
       <c r="I73" t="n">
-        <v>77.29764678693206</v>
+        <v>66.20089568296878</v>
       </c>
       <c r="J73" t="n">
-        <v>69.20956099639284</v>
+        <v>128.3791306288347</v>
       </c>
       <c r="K73" t="n">
-        <v>159.5651313351288</v>
+        <v>98.03074612276963</v>
       </c>
       <c r="L73" t="n">
-        <v>113.8249637311728</v>
+        <v>58.91939530943404</v>
       </c>
       <c r="M73" t="n">
-        <v>50.19591959505824</v>
+        <v>119.5446849477817</v>
       </c>
       <c r="N73" t="n">
-        <v>79.39722219295939</v>
+        <v>78.67434025993178</v>
       </c>
       <c r="O73" t="n">
-        <v>90.58524237718164</v>
+        <v>29.84138321713344</v>
       </c>
       <c r="P73" t="n">
-        <v>71.17061187170172</v>
+        <v>97.11576028488933</v>
       </c>
       <c r="Q73" t="n">
-        <v>52.38470094863311</v>
+        <v>142.7162869242903</v>
       </c>
       <c r="R73" t="n">
-        <v>133.9178383010299</v>
+        <v>28.49535238159082</v>
       </c>
       <c r="S73" t="n">
-        <v>57.92057304217617</v>
+        <v>0.4819923483789416</v>
       </c>
       <c r="T73" t="n">
-        <v>50.29560618242328</v>
+        <v>62.94110281638898</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>153.401878239407</v>
+        <v>45.63996432374008</v>
       </c>
       <c r="B74" t="n">
-        <v>72.08263254698917</v>
+        <v>133.509589033227</v>
       </c>
       <c r="C74" t="n">
-        <v>59.12218087583431</v>
+        <v>27.58711742290913</v>
       </c>
       <c r="D74" t="n">
-        <v>63.3888106590482</v>
+        <v>129.8452068404926</v>
       </c>
       <c r="E74" t="n">
-        <v>59.14811258617642</v>
+        <v>142.7374086347546</v>
       </c>
       <c r="F74" t="n">
-        <v>87.97161232360521</v>
+        <v>122.4715429103385</v>
       </c>
       <c r="G74" t="n">
-        <v>165.1700747469257</v>
+        <v>124.9900449482846</v>
       </c>
       <c r="H74" t="n">
-        <v>70.6297998842693</v>
+        <v>170.8578538698305</v>
       </c>
       <c r="I74" t="n">
-        <v>82.03569780368176</v>
+        <v>115.1171498584479</v>
       </c>
       <c r="J74" t="n">
-        <v>74.46403728413539</v>
+        <v>175.3473775747808</v>
       </c>
       <c r="K74" t="n">
-        <v>161.9134356788731</v>
+        <v>50.85646560283838</v>
       </c>
       <c r="L74" t="n">
-        <v>117.0942008971516</v>
+        <v>104.6209316408182</v>
       </c>
       <c r="M74" t="n">
-        <v>57.22377005522475</v>
+        <v>159.6668150041559</v>
       </c>
       <c r="N74" t="n">
-        <v>84.01695309458592</v>
+        <v>112.0709267800581</v>
       </c>
       <c r="O74" t="n">
-        <v>94.66052847872989</v>
+        <v>48.18268707693252</v>
       </c>
       <c r="P74" t="n">
-        <v>76.29014031663657</v>
+        <v>144.9194237297872</v>
       </c>
       <c r="Q74" t="n">
-        <v>59.15307607231772</v>
+        <v>172.6522211994005</v>
       </c>
       <c r="R74" t="n">
-        <v>136.7074135903408</v>
+        <v>32.03226369451305</v>
       </c>
       <c r="S74" t="n">
-        <v>64.10711580529693</v>
+        <v>48.83278329294187</v>
       </c>
       <c r="T74" t="n">
-        <v>57.31123377311904</v>
+        <v>104.388911055545</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>148.8905125717716</v>
+        <v>23.66494770213216</v>
       </c>
       <c r="B75" t="n">
-        <v>61.90439727039846</v>
+        <v>123.9755806331346</v>
       </c>
       <c r="C75" t="n">
-        <v>46.17012841677964</v>
+        <v>45.91621930397078</v>
       </c>
       <c r="D75" t="n">
-        <v>51.52077060056185</v>
+        <v>147.3007650093517</v>
       </c>
       <c r="E75" t="n">
-        <v>46.20333006412045</v>
+        <v>123.9653814082878</v>
       </c>
       <c r="F75" t="n">
-        <v>79.84518182909814</v>
+        <v>121.6473784937142</v>
       </c>
       <c r="G75" t="n">
-        <v>160.9888259427097</v>
+        <v>136.3521096500932</v>
       </c>
       <c r="H75" t="n">
-        <v>60.20645412411349</v>
+        <v>185.4882402722338</v>
       </c>
       <c r="I75" t="n">
-        <v>73.25369752199578</v>
+        <v>104.2638342698978</v>
       </c>
       <c r="J75" t="n">
-        <v>64.66174553134303</v>
+        <v>169.8051579006084</v>
       </c>
       <c r="K75" t="n">
-        <v>157.6458345147237</v>
+        <v>72.43533489210235</v>
       </c>
       <c r="L75" t="n">
-        <v>111.1184069821447</v>
+        <v>88.22379616698538</v>
       </c>
       <c r="M75" t="n">
-        <v>43.71279384619898</v>
+        <v>161.1785993084909</v>
       </c>
       <c r="N75" t="n">
-        <v>75.46586575270241</v>
+        <v>89.28019262170784</v>
       </c>
       <c r="O75" t="n">
-        <v>87.15999161530183</v>
+        <v>27.03278413889158</v>
       </c>
       <c r="P75" t="n">
-        <v>66.75652774103183</v>
+        <v>138.0905878281263</v>
       </c>
       <c r="Q75" t="n">
-        <v>46.20968399940063</v>
+        <v>180.8081172091852</v>
       </c>
       <c r="R75" t="n">
-        <v>131.6250941768611</v>
+        <v>41.83631136055288</v>
       </c>
       <c r="S75" t="n">
-        <v>52.40201125320292</v>
+        <v>41.7956362380242</v>
       </c>
       <c r="T75" t="n">
-        <v>43.82722901466799</v>
+        <v>104.5558400778437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>143.2689346284766</v>
+        <v>77.53018181373101</v>
       </c>
       <c r="B76" t="n">
-        <v>46.79484263361852</v>
+        <v>77.62669045614969</v>
       </c>
       <c r="C76" t="n">
-        <v>22.11975708988975</v>
+        <v>146.7839973736553</v>
       </c>
       <c r="D76" t="n">
-        <v>31.81183268800342</v>
+        <v>196.4446555220539</v>
       </c>
       <c r="E76" t="n">
-        <v>22.18897484580713</v>
+        <v>31.84703943164222</v>
       </c>
       <c r="F76" t="n">
-        <v>68.79575537062988</v>
+        <v>112.1731155062141</v>
       </c>
       <c r="G76" t="n">
-        <v>155.8043804714934</v>
+        <v>165.6415474396357</v>
       </c>
       <c r="H76" t="n">
-        <v>44.524375502558</v>
+        <v>217.6921420119138</v>
       </c>
       <c r="I76" t="n">
-        <v>61.02218527992795</v>
+        <v>63.88047967042746</v>
       </c>
       <c r="J76" t="n">
-        <v>50.38595271356854</v>
+        <v>125.132588204563</v>
       </c>
       <c r="K76" t="n">
-        <v>152.3476682970154</v>
+        <v>172.8543134191397</v>
       </c>
       <c r="L76" t="n">
-        <v>103.4645024438013</v>
+        <v>36.70751329261014</v>
       </c>
       <c r="M76" t="n">
-        <v>16.3832610164795</v>
+        <v>147.1777353629544</v>
       </c>
       <c r="N76" t="n">
-        <v>63.66081832256563</v>
+        <v>15.02154803565394</v>
       </c>
       <c r="O76" t="n">
-        <v>77.16519315127314</v>
+        <v>74.58664287380519</v>
       </c>
       <c r="P76" t="n">
-        <v>53.04749656423907</v>
+        <v>97.48613981935127</v>
       </c>
       <c r="Q76" t="n">
-        <v>22.20220239116533</v>
+        <v>188.3365631713561</v>
       </c>
       <c r="R76" t="n">
-        <v>125.2308600655659</v>
+        <v>113.0443273039099</v>
       </c>
       <c r="S76" t="n">
-        <v>33.22007945617545</v>
+        <v>84.62435213109509</v>
       </c>
       <c r="T76" t="n">
-        <v>16.68618886378671</v>
+        <v>107.2700475041164</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>143.2625195118756</v>
+        <v>44.64427265988247</v>
       </c>
       <c r="B77" t="n">
-        <v>46.77519817613769</v>
+        <v>66.15524055825919</v>
       </c>
       <c r="C77" t="n">
-        <v>22.07816842556377</v>
+        <v>112.1187335890433</v>
       </c>
       <c r="D77" t="n">
-        <v>31.78292884995586</v>
+        <v>158.2229769243582</v>
       </c>
       <c r="E77" t="n">
-        <v>22.14751615914739</v>
+        <v>56.76466486198726</v>
       </c>
       <c r="F77" t="n">
-        <v>68.78239472661141</v>
+        <v>85.59412285535491</v>
       </c>
       <c r="G77" t="n">
-        <v>155.7984815119124</v>
+        <v>130.4979692354067</v>
       </c>
       <c r="H77" t="n">
-        <v>44.5037288460711</v>
+        <v>183.3297636264515</v>
       </c>
       <c r="I77" t="n">
-        <v>61.00712223707728</v>
+        <v>46.27509105141519</v>
       </c>
       <c r="J77" t="n">
-        <v>50.36770888342847</v>
+        <v>116.4124674909044</v>
       </c>
       <c r="K77" t="n">
-        <v>152.3416354869846</v>
+        <v>136.8385114116085</v>
       </c>
       <c r="L77" t="n">
-        <v>103.4556191478026</v>
+        <v>21.19356427172736</v>
       </c>
       <c r="M77" t="n">
-        <v>16.32706675572591</v>
+        <v>124.9909538016977</v>
       </c>
       <c r="N77" t="n">
-        <v>63.64637976201429</v>
+        <v>37.06630062209532</v>
       </c>
       <c r="O77" t="n">
-        <v>77.15328185751481</v>
+        <v>41.03417520769093</v>
       </c>
       <c r="P77" t="n">
-        <v>53.03016838597431</v>
+        <v>84.59886501453087</v>
       </c>
       <c r="Q77" t="n">
-        <v>22.16076845080289</v>
+        <v>160.0955878900481</v>
       </c>
       <c r="R77" t="n">
-        <v>125.2235208739683</v>
+        <v>72.64841408014297</v>
       </c>
       <c r="S77" t="n">
-        <v>33.19240193758873</v>
+        <v>44.00700537807534</v>
       </c>
       <c r="T77" t="n">
-        <v>16.63101819221521</v>
+        <v>75.63935440768452</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>155.5838049100767</v>
+        <v>118.8527025511414</v>
       </c>
       <c r="B78" t="n">
-        <v>76.61651269682812</v>
+        <v>32.34883750910031</v>
       </c>
       <c r="C78" t="n">
-        <v>64.57256673258259</v>
+        <v>182.1669262460764</v>
       </c>
       <c r="D78" t="n">
-        <v>68.50055050645672</v>
+        <v>178.1228742961126</v>
       </c>
       <c r="E78" t="n">
-        <v>64.5963104629511</v>
+        <v>39.4336018388262</v>
       </c>
       <c r="F78" t="n">
-        <v>91.72343581513752</v>
+        <v>76.68064673265879</v>
       </c>
       <c r="G78" t="n">
-        <v>167.1984978844726</v>
+        <v>139.6840790893552</v>
       </c>
       <c r="H78" t="n">
-        <v>75.25126400673209</v>
+        <v>185.1997141538507</v>
       </c>
       <c r="I78" t="n">
-        <v>86.04673042629777</v>
+        <v>41.81880494919556</v>
       </c>
       <c r="J78" t="n">
-        <v>78.86112446302087</v>
+        <v>61.65151160053794</v>
       </c>
       <c r="K78" t="n">
-        <v>163.9821476754575</v>
+        <v>204.2698607815565</v>
       </c>
       <c r="L78" t="n">
-        <v>119.9384675017213</v>
+        <v>53.89951417657548</v>
       </c>
       <c r="M78" t="n">
-        <v>62.83903215559738</v>
+        <v>97.23211571660481</v>
       </c>
       <c r="N78" t="n">
-        <v>87.93766263789828</v>
+        <v>81.29320512931423</v>
       </c>
       <c r="O78" t="n">
-        <v>98.15701582052806</v>
+        <v>115.1489189551818</v>
       </c>
       <c r="P78" t="n">
-        <v>80.58765173679564</v>
+        <v>44.06203534298051</v>
       </c>
       <c r="Q78" t="n">
-        <v>64.60085534833398</v>
+        <v>144.4333063072241</v>
       </c>
       <c r="R78" t="n">
-        <v>139.1513601567712</v>
+        <v>131.8787040648851</v>
       </c>
       <c r="S78" t="n">
-        <v>69.16578922988383</v>
+        <v>106.2710723208761</v>
       </c>
       <c r="T78" t="n">
-        <v>62.91869054196903</v>
+        <v>83.69575695723722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>204.866654488638</v>
+        <v>73.48157112567567</v>
       </c>
       <c r="B79" t="n">
-        <v>153.7339122929401</v>
+        <v>61.45044518406102</v>
       </c>
       <c r="C79" t="n">
-        <v>148.1001085263073</v>
+        <v>109.1868532291208</v>
       </c>
       <c r="D79" t="n">
-        <v>149.8544333370147</v>
+        <v>96.45140894750806</v>
       </c>
       <c r="E79" t="n">
-        <v>148.1104624815416</v>
+        <v>100.4083548693551</v>
       </c>
       <c r="F79" t="n">
-        <v>161.7937404500057</v>
+        <v>39.26105222899744</v>
       </c>
       <c r="G79" t="n">
-        <v>213.820867704474</v>
+        <v>66.98015790839246</v>
       </c>
       <c r="H79" t="n">
-        <v>153.058088664667</v>
+        <v>119.8637803849416</v>
       </c>
       <c r="I79" t="n">
-        <v>158.6444628347492</v>
+        <v>50.75110824412858</v>
       </c>
       <c r="J79" t="n">
-        <v>154.8647885177332</v>
+        <v>93.944332947579</v>
       </c>
       <c r="K79" t="n">
-        <v>211.315334340236</v>
+        <v>124.8798567524325</v>
       </c>
       <c r="L79" t="n">
-        <v>179.3021521279977</v>
+        <v>64.39689931875678</v>
       </c>
       <c r="M79" t="n">
-        <v>147.3525355510463</v>
+        <v>77.72326527555049</v>
       </c>
       <c r="N79" t="n">
-        <v>159.6779830824744</v>
+        <v>100.0877090954456</v>
       </c>
       <c r="O79" t="n">
-        <v>165.5259059055759</v>
+        <v>70.96857051827324</v>
       </c>
       <c r="P79" t="n">
-        <v>155.751068643272</v>
+        <v>66.20148668756582</v>
       </c>
       <c r="Q79" t="n">
-        <v>148.1124447263178</v>
+        <v>101.3871900568246</v>
       </c>
       <c r="R79" t="n">
-        <v>192.6840076512569</v>
+        <v>52.15405658016408</v>
       </c>
       <c r="S79" t="n">
-        <v>150.1596889010592</v>
+        <v>42.82505809096924</v>
       </c>
       <c r="T79" t="n">
-        <v>147.386523775365</v>
+        <v>21.31181345146735</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>157.7016004124777</v>
+        <v>173.6230211576187</v>
       </c>
       <c r="B80" t="n">
-        <v>80.83046727678376</v>
+        <v>148.3998300623228</v>
       </c>
       <c r="C80" t="n">
-        <v>69.52043438294827</v>
+        <v>171.4494603045789</v>
       </c>
       <c r="D80" t="n">
-        <v>73.18333035635651</v>
+        <v>32.20048676182633</v>
       </c>
       <c r="E80" t="n">
-        <v>69.54248879487956</v>
+        <v>203.0003027880571</v>
       </c>
       <c r="F80" t="n">
-        <v>95.27152302809921</v>
+        <v>103.6737744323174</v>
       </c>
       <c r="G80" t="n">
-        <v>169.170955300205</v>
+        <v>43.20980895812117</v>
       </c>
       <c r="H80" t="n">
-        <v>79.53758329853174</v>
+        <v>13.76724214222473</v>
       </c>
       <c r="I80" t="n">
-        <v>89.81934223437591</v>
+        <v>150.1020276490381</v>
       </c>
       <c r="J80" t="n">
-        <v>82.96114375978705</v>
+        <v>141.7957382760794</v>
       </c>
       <c r="K80" t="n">
-        <v>165.9928286963492</v>
+        <v>169.4098413161307</v>
       </c>
       <c r="L80" t="n">
-        <v>122.6731853708114</v>
+        <v>172.2668195439904</v>
       </c>
       <c r="M80" t="n">
-        <v>67.91331522324754</v>
+        <v>93.82570214728544</v>
       </c>
       <c r="N80" t="n">
-        <v>91.63245567252248</v>
+        <v>209.8524736832647</v>
       </c>
       <c r="O80" t="n">
-        <v>101.4804127758228</v>
+        <v>172.3511927041212</v>
       </c>
       <c r="P80" t="n">
-        <v>84.60404266233999</v>
+        <v>137.533880207151</v>
       </c>
       <c r="Q80" t="n">
-        <v>69.54671044770095</v>
+        <v>54.79562208022364</v>
       </c>
       <c r="R80" t="n">
-        <v>141.5152834708655</v>
+        <v>130.8798796289957</v>
       </c>
       <c r="S80" t="n">
-        <v>73.80637385858148</v>
+        <v>143.4495710997149</v>
       </c>
       <c r="T80" t="n">
-        <v>67.98702848246897</v>
+        <v>102.3710787081701</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>156.2989026109412</v>
+        <v>95.86910748158267</v>
       </c>
       <c r="B81" t="n">
-        <v>78.05841802721156</v>
+        <v>55.75339984532148</v>
       </c>
       <c r="C81" t="n">
-        <v>66.27701699323464</v>
+        <v>130.3549379816161</v>
       </c>
       <c r="D81" t="n">
-        <v>70.10957157746229</v>
+        <v>90.65533111298986</v>
       </c>
       <c r="E81" t="n">
-        <v>66.30015032044533</v>
+        <v>105.8531743006766</v>
       </c>
       <c r="F81" t="n">
-        <v>92.93123955280772</v>
+        <v>18.93896311745648</v>
       </c>
       <c r="G81" t="n">
-        <v>167.8641245231144</v>
+        <v>54.64211007293171</v>
       </c>
       <c r="H81" t="n">
-        <v>76.71883303139178</v>
+        <v>105.7672939412565</v>
       </c>
       <c r="I81" t="n">
-        <v>87.33307749154177</v>
+        <v>52.97230580059258</v>
       </c>
       <c r="J81" t="n">
-        <v>80.2627158689497</v>
+        <v>76.46511550171654</v>
       </c>
       <c r="K81" t="n">
-        <v>164.6607766389532</v>
+        <v>144.1381805242022</v>
       </c>
       <c r="L81" t="n">
-        <v>120.8646457561066</v>
+        <v>75.2987048783671</v>
       </c>
       <c r="M81" t="n">
-        <v>64.58924499744428</v>
+        <v>54.92149963095824</v>
       </c>
       <c r="N81" t="n">
-        <v>89.19674387164866</v>
+        <v>114.5866081999125</v>
       </c>
       <c r="O81" t="n">
-        <v>99.286587018988</v>
+        <v>93.1883865641659</v>
       </c>
       <c r="P81" t="n">
-        <v>81.95972315435638</v>
+        <v>53.44910785409692</v>
       </c>
       <c r="Q81" t="n">
-        <v>66.30457841525012</v>
+        <v>80.71169633541777</v>
       </c>
       <c r="R81" t="n">
-        <v>139.9504470895579</v>
+        <v>73.44599437751347</v>
       </c>
       <c r="S81" t="n">
-        <v>70.75968489811409</v>
+        <v>65.60801735181268</v>
       </c>
       <c r="T81" t="n">
-        <v>64.66674745650769</v>
+        <v>4.832758855204599</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>143.1708896954812</v>
+        <v>157.6795378565272</v>
       </c>
       <c r="B82" t="n">
-        <v>46.49379876630925</v>
+        <v>112.4972053359893</v>
       </c>
       <c r="C82" t="n">
-        <v>21.47556007029073</v>
+        <v>171.773663142362</v>
       </c>
       <c r="D82" t="n">
-        <v>31.3673193879627</v>
+        <v>57.07018313410858</v>
       </c>
       <c r="E82" t="n">
-        <v>21.546847363937</v>
+        <v>169.5206404269488</v>
       </c>
       <c r="F82" t="n">
-        <v>68.59134044201562</v>
+        <v>68.84229255719779</v>
       </c>
       <c r="G82" t="n">
-        <v>155.7142286392699</v>
+        <v>28.58133340691913</v>
       </c>
       <c r="H82" t="n">
-        <v>44.20787306023357</v>
+        <v>42.53673985883614</v>
       </c>
       <c r="I82" t="n">
-        <v>60.79163694912971</v>
+        <v>117.481150374204</v>
       </c>
       <c r="J82" t="n">
-        <v>50.10648917526455</v>
+        <v>101.412323279448</v>
       </c>
       <c r="K82" t="n">
-        <v>152.2554697281985</v>
+        <v>176.0808356770072</v>
       </c>
       <c r="L82" t="n">
-        <v>103.328695397553</v>
+        <v>142.9202169892735</v>
       </c>
       <c r="M82" t="n">
-        <v>15.50249232062491</v>
+        <v>53.33233990177052</v>
       </c>
       <c r="N82" t="n">
-        <v>63.4398598368222</v>
+        <v>182.7338214277898</v>
       </c>
       <c r="O82" t="n">
-        <v>76.98300501208192</v>
+        <v>155.6593210998194</v>
       </c>
       <c r="P82" t="n">
-        <v>52.7821268835379</v>
+        <v>99.50097182294905</v>
       </c>
       <c r="Q82" t="n">
-        <v>21.56046886399285</v>
+        <v>22.47431016245503</v>
       </c>
       <c r="R82" t="n">
-        <v>125.1186810167782</v>
+        <v>121.8497415414729</v>
       </c>
       <c r="S82" t="n">
-        <v>32.79465971300127</v>
+        <v>126.3686174629665</v>
       </c>
       <c r="T82" t="n">
-        <v>15.82229204050087</v>
+        <v>72.71629707032659</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>151.7979001848506</v>
+        <v>84.63239632618053</v>
       </c>
       <c r="B83" t="n">
-        <v>68.60300407457615</v>
+        <v>171.9949624137109</v>
       </c>
       <c r="C83" t="n">
-        <v>54.82607522581675</v>
+        <v>16.39898300771173</v>
       </c>
       <c r="D83" t="n">
-        <v>59.40208388533783</v>
+        <v>137.3903090308689</v>
       </c>
       <c r="E83" t="n">
-        <v>54.85403791571821</v>
+        <v>183.1918750982857</v>
       </c>
       <c r="F83" t="n">
-        <v>85.14382436775283</v>
+        <v>155.6002067362136</v>
       </c>
       <c r="G83" t="n">
-        <v>163.6814584644732</v>
+        <v>144.0973765454109</v>
       </c>
       <c r="H83" t="n">
-        <v>67.07484539560249</v>
+        <v>182.2218345902252</v>
       </c>
       <c r="I83" t="n">
-        <v>78.99570853716703</v>
+        <v>154.3512844429235</v>
       </c>
       <c r="J83" t="n">
-        <v>71.1010485281698</v>
+        <v>211.0104057925432</v>
       </c>
       <c r="K83" t="n">
-        <v>160.394597497823</v>
+        <v>10.81819517963089</v>
       </c>
       <c r="L83" t="n">
-        <v>114.9848604682136</v>
+        <v>145.116190568</v>
       </c>
       <c r="M83" t="n">
-        <v>52.77334661062616</v>
+        <v>189.6295449978287</v>
       </c>
       <c r="N83" t="n">
-        <v>81.05130881392292</v>
+        <v>150.874749175367</v>
       </c>
       <c r="O83" t="n">
-        <v>92.03848056668733</v>
+        <v>87.57636916398199</v>
       </c>
       <c r="P83" t="n">
-        <v>73.01131256650675</v>
+        <v>181.8207626689268</v>
       </c>
       <c r="Q83" t="n">
-        <v>54.85938991612518</v>
+        <v>194.4181506330648</v>
       </c>
       <c r="R83" t="n">
-        <v>134.9050895396928</v>
+        <v>65.53159340016333</v>
       </c>
       <c r="S83" t="n">
-        <v>60.16800270929558</v>
+        <v>88.38205157689498</v>
       </c>
       <c r="T83" t="n">
-        <v>52.86817350494672</v>
+        <v>137.3764058425207</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>147.0613209847711</v>
+        <v>15.45100931820775</v>
       </c>
       <c r="B84" t="n">
-        <v>57.36551052080243</v>
+        <v>89.30530217981574</v>
       </c>
       <c r="C84" t="n">
-        <v>39.87891866541645</v>
+        <v>82.57695067100819</v>
       </c>
       <c r="D84" t="n">
-        <v>45.96778436227589</v>
+        <v>148.8458764280286</v>
       </c>
       <c r="E84" t="n">
-        <v>39.9173534307453</v>
+        <v>86.24492007430311</v>
       </c>
       <c r="F84" t="n">
-        <v>76.3799741897228</v>
+        <v>96.49144689455095</v>
       </c>
       <c r="G84" t="n">
-        <v>159.2986173019498</v>
+        <v>127.8062470927191</v>
       </c>
       <c r="H84" t="n">
-        <v>55.52895203495164</v>
+        <v>180.2145587472356</v>
       </c>
       <c r="I84" t="n">
-        <v>69.46043187704082</v>
+        <v>69.06331824630489</v>
       </c>
       <c r="J84" t="n">
-        <v>60.33066161630533</v>
+        <v>137.6804948562216</v>
       </c>
       <c r="K84" t="n">
-        <v>155.9193911472996</v>
+        <v>107.7994387166589</v>
       </c>
       <c r="L84" t="n">
-        <v>108.6551782758214</v>
+        <v>50.1982196405733</v>
       </c>
       <c r="M84" t="n">
-        <v>37.00615815970728</v>
+        <v>137.1319996351606</v>
       </c>
       <c r="N84" t="n">
-        <v>71.78958343454767</v>
+        <v>56.56563617242995</v>
       </c>
       <c r="O84" t="n">
-        <v>83.99709241563343</v>
+        <v>11.73839377147703</v>
       </c>
       <c r="P84" t="n">
-        <v>62.57061124793435</v>
+        <v>105.4639486871072</v>
       </c>
       <c r="Q84" t="n">
-        <v>39.9247077788359</v>
+        <v>165.1914275377007</v>
       </c>
       <c r="R84" t="n">
-        <v>129.5523554898502</v>
+        <v>50.18635318498232</v>
       </c>
       <c r="S84" t="n">
-        <v>46.95336174633061</v>
+        <v>25.88235987924088</v>
       </c>
       <c r="T84" t="n">
-        <v>37.14126275458513</v>
+        <v>82.02569341976792</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>185.0580420171681</v>
+        <v>108.0174768399809</v>
       </c>
       <c r="B85" t="n">
-        <v>126.1358338568163</v>
+        <v>22.57577860936519</v>
       </c>
       <c r="C85" t="n">
-        <v>119.2047605566363</v>
+        <v>156.8933515277764</v>
       </c>
       <c r="D85" t="n">
-        <v>121.3774442992551</v>
+        <v>124.9289347889019</v>
       </c>
       <c r="E85" t="n">
-        <v>119.2176240761286</v>
+        <v>80.60082641445342</v>
       </c>
       <c r="F85" t="n">
-        <v>135.8430978837895</v>
+        <v>22.83038452140928</v>
       </c>
       <c r="G85" t="n">
-        <v>194.9243347038926</v>
+        <v>85.8809573555024</v>
       </c>
       <c r="H85" t="n">
-        <v>125.3112576728126</v>
+        <v>131.6940011218137</v>
       </c>
       <c r="I85" t="n">
-        <v>132.0764868626779</v>
+        <v>32.68333728069202</v>
       </c>
       <c r="J85" t="n">
-        <v>127.5117073703557</v>
+        <v>45.50449351592052</v>
       </c>
       <c r="K85" t="n">
-        <v>192.1725873302087</v>
+        <v>174.2224822228377</v>
       </c>
       <c r="L85" t="n">
-        <v>156.286258358157</v>
+        <v>62.55418263803816</v>
       </c>
       <c r="M85" t="n">
-        <v>118.2746909832503</v>
+        <v>50.99989276800576</v>
       </c>
       <c r="N85" t="n">
-        <v>133.316132088911</v>
+        <v>103.3870546340318</v>
       </c>
       <c r="O85" t="n">
-        <v>140.2674528168333</v>
+        <v>104.612270936431</v>
       </c>
       <c r="P85" t="n">
-        <v>128.5866562959867</v>
+        <v>16.60897156216003</v>
       </c>
       <c r="Q85" t="n">
-        <v>119.2200867164067</v>
+        <v>94.20587739230155</v>
       </c>
       <c r="R85" t="n">
-        <v>171.4737869133664</v>
+        <v>100.5803367281399</v>
       </c>
       <c r="S85" t="n">
-        <v>121.7541168286472</v>
+        <v>83.21072528905302</v>
       </c>
       <c r="T85" t="n">
-        <v>118.3170325204584</v>
+        <v>33.96590550836189</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>214.5061825325208</v>
+        <v>105.1009933052133</v>
       </c>
       <c r="B86" t="n">
-        <v>166.3630728623439</v>
+        <v>23.75181248492147</v>
       </c>
       <c r="C86" t="n">
-        <v>161.1713323417417</v>
+        <v>167.9411730171677</v>
       </c>
       <c r="D86" t="n">
-        <v>162.7848500753861</v>
+        <v>167.9638277208557</v>
       </c>
       <c r="E86" t="n">
-        <v>161.180846628265</v>
+        <v>36.44999513856482</v>
       </c>
       <c r="F86" t="n">
-        <v>173.8383463799399</v>
+        <v>68.18561545061546</v>
       </c>
       <c r="G86" t="n">
-        <v>223.0737987510015</v>
+        <v>130.4952114408867</v>
       </c>
       <c r="H86" t="n">
-        <v>165.738754457095</v>
+        <v>177.8840252687409</v>
       </c>
       <c r="I86" t="n">
-        <v>170.9111518053585</v>
+        <v>28.1762170021002</v>
       </c>
       <c r="J86" t="n">
-        <v>167.4086585154734</v>
+        <v>64.88225782864031</v>
       </c>
       <c r="K86" t="n">
-        <v>220.673348528167</v>
+        <v>190.0226654622731</v>
       </c>
       <c r="L86" t="n">
-        <v>190.2414728208331</v>
+        <v>40.79258938294087</v>
       </c>
       <c r="M86" t="n">
-        <v>160.484659567918</v>
+        <v>93.91878616348683</v>
       </c>
       <c r="N86" t="n">
-        <v>171.8709239650358</v>
+        <v>72.26665415464203</v>
       </c>
       <c r="O86" t="n">
-        <v>177.3171783814803</v>
+        <v>101.3906557438604</v>
       </c>
       <c r="P86" t="n">
-        <v>168.2288667465527</v>
+        <v>40.5899697600785</v>
       </c>
       <c r="Q86" t="n">
-        <v>161.1826681318891</v>
+        <v>139.7344692275948</v>
       </c>
       <c r="R86" t="n">
-        <v>202.9031370577049</v>
+        <v>117.7353704531546</v>
       </c>
       <c r="S86" t="n">
-        <v>163.0659019972325</v>
+        <v>92.0199562834232</v>
       </c>
       <c r="T86" t="n">
-        <v>160.515867171736</v>
+        <v>72.81001308023541</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>158.4504414812312</v>
+        <v>180.320523885281</v>
       </c>
       <c r="B87" t="n">
-        <v>82.28190611017398</v>
+        <v>156.6265293291627</v>
       </c>
       <c r="C87" t="n">
-        <v>71.20279790664193</v>
+        <v>175.7749823142503</v>
       </c>
       <c r="D87" t="n">
-        <v>74.78333688053702</v>
+        <v>34.77679864084819</v>
       </c>
       <c r="E87" t="n">
-        <v>71.2243313813912</v>
+        <v>211.1738209308926</v>
       </c>
       <c r="F87" t="n">
-        <v>96.50601397339916</v>
+        <v>111.9007557840486</v>
       </c>
       <c r="G87" t="n">
-        <v>169.8692430963424</v>
+        <v>51.18409444011298</v>
       </c>
       <c r="H87" t="n">
-        <v>81.01218914404889</v>
+        <v>12.97010915346734</v>
       </c>
       <c r="I87" t="n">
-        <v>91.12772285290694</v>
+        <v>158.2664395348872</v>
       </c>
       <c r="J87" t="n">
-        <v>84.37593855402339</v>
+        <v>149.5359302848904</v>
       </c>
       <c r="K87" t="n">
-        <v>166.7044294899083</v>
+        <v>172.5901811866886</v>
       </c>
       <c r="L87" t="n">
-        <v>123.6343724130216</v>
+        <v>180.2442316964076</v>
       </c>
       <c r="M87" t="n">
-        <v>69.63451742887618</v>
+        <v>101.4547289316552</v>
       </c>
       <c r="N87" t="n">
-        <v>92.91530856385869</v>
+        <v>217.6253627413952</v>
       </c>
       <c r="O87" t="n">
-        <v>102.6402543356731</v>
+        <v>179.142331066348</v>
       </c>
       <c r="P87" t="n">
-        <v>85.99181163198809</v>
+        <v>145.6991940840063</v>
       </c>
       <c r="Q87" t="n">
-        <v>71.22845335283247</v>
+        <v>60.8495931415384</v>
       </c>
       <c r="R87" t="n">
-        <v>142.3492995724943</v>
+        <v>136.9123571351933</v>
       </c>
       <c r="S87" t="n">
-        <v>75.39315920621031</v>
+        <v>150.3984058158624</v>
       </c>
       <c r="T87" t="n">
-        <v>69.70641057188588</v>
+        <v>110.4754416857692</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>161.8326697226595</v>
+        <v>53.66563301668634</v>
       </c>
       <c r="B88" t="n">
-        <v>88.62044153066397</v>
+        <v>104.475919075645</v>
       </c>
       <c r="C88" t="n">
-        <v>78.44175554958237</v>
+        <v>62.80640852169741</v>
       </c>
       <c r="D88" t="n">
-        <v>81.70567947795448</v>
+        <v>98.62928496679361</v>
       </c>
       <c r="E88" t="n">
-        <v>78.46130233874894</v>
+        <v>127.9139294781374</v>
       </c>
       <c r="F88" t="n">
-        <v>101.9641177915067</v>
+        <v>85.78379631327029</v>
       </c>
       <c r="G88" t="n">
-        <v>173.0284090376219</v>
+        <v>87.47087533843379</v>
       </c>
       <c r="H88" t="n">
-        <v>87.44281201949933</v>
+        <v>135.9872958336404</v>
       </c>
       <c r="I88" t="n">
-        <v>96.88927936734055</v>
+        <v>88.80811071831344</v>
       </c>
       <c r="J88" t="n">
-        <v>90.56803846191367</v>
+        <v>141.1109984049746</v>
       </c>
       <c r="K88" t="n">
-        <v>169.9224452375911</v>
+        <v>77.76546824307826</v>
       </c>
       <c r="L88" t="n">
-        <v>127.9403322878601</v>
+        <v>87.99685221364841</v>
       </c>
       <c r="M88" t="n">
-        <v>77.02101402551648</v>
+        <v>121.4173567475373</v>
       </c>
       <c r="N88" t="n">
-        <v>98.57243605330761</v>
+        <v>109.4826232565877</v>
       </c>
       <c r="O88" t="n">
-        <v>107.7881829982211</v>
+        <v>53.54881494677474</v>
       </c>
       <c r="P88" t="n">
-        <v>92.0753075027049</v>
+        <v>112.500218891507</v>
       </c>
       <c r="Q88" t="n">
-        <v>78.46504413433397</v>
+        <v>133.9774277987722</v>
       </c>
       <c r="R88" t="n">
-        <v>146.1047352851579</v>
+        <v>7.731065160812447</v>
       </c>
       <c r="S88" t="n">
-        <v>82.26420265862497</v>
+        <v>31.25757128915789</v>
       </c>
       <c r="T88" t="n">
-        <v>77.08601856875647</v>
+        <v>67.53867192039183</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>142.3458788554654</v>
+        <v>156.2538618938627</v>
       </c>
       <c r="B89" t="n">
-        <v>43.8875710726995</v>
+        <v>92.85996101931119</v>
       </c>
       <c r="C89" t="n">
-        <v>15.0214929774592</v>
+        <v>181.500355370238</v>
       </c>
       <c r="D89" t="n">
-        <v>27.35606507752259</v>
+        <v>83.57268672160778</v>
       </c>
       <c r="E89" t="n">
-        <v>15.12323385602397</v>
+        <v>151.4423699981258</v>
       </c>
       <c r="F89" t="n">
-        <v>66.85220680405156</v>
+        <v>53.69123826575341</v>
       </c>
       <c r="G89" t="n">
-        <v>154.9560149579939</v>
+        <v>47.49371231393648</v>
       </c>
       <c r="H89" t="n">
-        <v>41.45819112610818</v>
+        <v>68.87803417427271</v>
       </c>
       <c r="I89" t="n">
-        <v>58.82234859212936</v>
+        <v>101.8153916925389</v>
       </c>
       <c r="J89" t="n">
-        <v>47.69806944112197</v>
+        <v>74.28395675607183</v>
       </c>
       <c r="K89" t="n">
-        <v>151.479944656359</v>
+        <v>189.5904588003872</v>
       </c>
       <c r="L89" t="n">
-        <v>102.1825076199419</v>
+        <v>129.9108213256825</v>
       </c>
       <c r="M89" t="n">
-        <v>2.184682835155941</v>
+        <v>26.11561854251191</v>
       </c>
       <c r="N89" t="n">
-        <v>61.55535222102817</v>
+        <v>170.8530061387097</v>
       </c>
       <c r="O89" t="n">
-        <v>75.4375810298118</v>
+        <v>153.704929111273</v>
       </c>
       <c r="P89" t="n">
-        <v>50.50147016958105</v>
+        <v>77.11975517586835</v>
       </c>
       <c r="Q89" t="n">
-        <v>15.14263479630925</v>
+        <v>23.39635767924127</v>
       </c>
       <c r="R89" t="n">
-        <v>124.173789143754</v>
+        <v>127.3687151262815</v>
       </c>
       <c r="S89" t="n">
-        <v>28.98163688666909</v>
+        <v>125.4324012357763</v>
       </c>
       <c r="T89" t="n">
-        <v>3.845841436420373</v>
+        <v>64.2048819194076</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>149.7547505525389</v>
+        <v>153.0609451162899</v>
       </c>
       <c r="B90" t="n">
-        <v>63.95510128660244</v>
+        <v>56.10738845024919</v>
       </c>
       <c r="C90" t="n">
-        <v>48.88538981321703</v>
+        <v>198.9198321187305</v>
       </c>
       <c r="D90" t="n">
-        <v>53.96749375729782</v>
+        <v>137.9430643748975</v>
       </c>
       <c r="E90" t="n">
-        <v>48.91674854466839</v>
+        <v>110.2259035533857</v>
       </c>
       <c r="F90" t="n">
-        <v>81.44540281986457</v>
+        <v>51.27646786682403</v>
       </c>
       <c r="G90" t="n">
-        <v>161.788450321957</v>
+        <v>97.72763028217723</v>
       </c>
       <c r="H90" t="n">
-        <v>62.31306201244843</v>
+        <v>129.0613791728376</v>
       </c>
       <c r="I90" t="n">
-        <v>74.99469834469841</v>
+        <v>74.28677218578314</v>
       </c>
       <c r="J90" t="n">
-        <v>66.62763626550488</v>
+        <v>14.45389196219332</v>
       </c>
       <c r="K90" t="n">
-        <v>158.4623290217959</v>
+        <v>214.0522326995548</v>
       </c>
       <c r="L90" t="n">
-        <v>112.2737767665175</v>
+        <v>103.8000959786442</v>
       </c>
       <c r="M90" t="n">
-        <v>46.57154630252846</v>
+        <v>34.33373217905687</v>
       </c>
       <c r="N90" t="n">
-        <v>77.15696645782003</v>
+        <v>142.8714748419831</v>
       </c>
       <c r="O90" t="n">
-        <v>88.62823882684202</v>
+        <v>149.6698444134142</v>
       </c>
       <c r="P90" t="n">
-        <v>68.66246846136113</v>
+        <v>36.25355868405877</v>
       </c>
       <c r="Q90" t="n">
-        <v>48.92275007082823</v>
+        <v>80.64416289027393</v>
       </c>
       <c r="R90" t="n">
-        <v>132.6019079660462</v>
+        <v>141.9184610614348</v>
       </c>
       <c r="S90" t="n">
-        <v>54.8094094344125</v>
+        <v>127.4328668987484</v>
       </c>
       <c r="T90" t="n">
-        <v>46.67897366344311</v>
+        <v>69.40702114554139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>159.9768967402992</v>
+        <v>115.2828736245338</v>
       </c>
       <c r="B91" t="n">
-        <v>85.18437156064937</v>
+        <v>26.51787433771063</v>
       </c>
       <c r="C91" t="n">
-        <v>74.53793339497261</v>
+        <v>177.7425782539221</v>
       </c>
       <c r="D91" t="n">
-        <v>77.96545747988124</v>
+        <v>172.2970056676435</v>
       </c>
       <c r="E91" t="n">
-        <v>74.55850364502702</v>
+        <v>41.29798023099194</v>
       </c>
       <c r="F91" t="n">
-        <v>98.99230181227828</v>
+        <v>70.96083096420089</v>
       </c>
       <c r="G91" t="n">
-        <v>171.2939719756172</v>
+        <v>133.9296888857125</v>
       </c>
       <c r="H91" t="n">
-        <v>83.95856046270941</v>
+        <v>179.712631506277</v>
       </c>
       <c r="I91" t="n">
-        <v>93.75674353034826</v>
+        <v>36.51383176481699</v>
       </c>
       <c r="J91" t="n">
-        <v>87.20873862137677</v>
+        <v>58.91252780243406</v>
       </c>
       <c r="K91" t="n">
-        <v>168.1559749060826</v>
+        <v>199.5411696225617</v>
       </c>
       <c r="L91" t="n">
-        <v>125.5847248952714</v>
+        <v>50.94400491567824</v>
       </c>
       <c r="M91" t="n">
-        <v>73.04129724075102</v>
+        <v>92.51959703772359</v>
       </c>
       <c r="N91" t="n">
-        <v>95.4951289363827</v>
+        <v>80.86343783374555</v>
       </c>
       <c r="O91" t="n">
-        <v>104.9813645136647</v>
+        <v>111.5717825502635</v>
       </c>
       <c r="P91" t="n">
-        <v>88.77306321633046</v>
+        <v>39.07914975754323</v>
       </c>
       <c r="Q91" t="n">
-        <v>74.56244129651277</v>
+        <v>139.4462387890001</v>
       </c>
       <c r="R91" t="n">
-        <v>144.046479213617</v>
+        <v>126.8591151357738</v>
       </c>
       <c r="S91" t="n">
-        <v>78.55057950233248</v>
+        <v>101.6324393248517</v>
       </c>
       <c r="T91" t="n">
-        <v>73.10984037648835</v>
+        <v>77.83816855590337</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>147.0219518299436</v>
+        <v>171.7893377224595</v>
       </c>
       <c r="B92" t="n">
-        <v>57.26450896858107</v>
+        <v>89.65416056666155</v>
       </c>
       <c r="C92" t="n">
-        <v>39.73349146530303</v>
+        <v>205.5714371719784</v>
       </c>
       <c r="D92" t="n">
-        <v>45.84167742651989</v>
+        <v>114.9528649681557</v>
       </c>
       <c r="E92" t="n">
-        <v>39.77206676821613</v>
+        <v>147.3731012865422</v>
       </c>
       <c r="F92" t="n">
-        <v>76.30414567586173</v>
+        <v>63.18162654783664</v>
       </c>
       <c r="G92" t="n">
-        <v>159.2622731986878</v>
+        <v>78.62589108533567</v>
       </c>
       <c r="H92" t="n">
-        <v>55.42460378027404</v>
+        <v>95.46362921621302</v>
       </c>
       <c r="I92" t="n">
-        <v>69.37704077463549</v>
+        <v>103.9819917634708</v>
       </c>
       <c r="J92" t="n">
-        <v>60.2346322406101</v>
+        <v>54.85271857704251</v>
       </c>
       <c r="K92" t="n">
-        <v>155.8822591761007</v>
+        <v>216.070562721092</v>
       </c>
       <c r="L92" t="n">
-        <v>108.6018874433172</v>
+        <v>133.8774397096662</v>
       </c>
       <c r="M92" t="n">
-        <v>36.84939527104451</v>
+        <v>22.6001538619977</v>
       </c>
       <c r="N92" t="n">
-        <v>71.70890098032662</v>
+        <v>174.6753329421683</v>
       </c>
       <c r="O92" t="n">
-        <v>83.92814619888176</v>
+        <v>168.821466462902</v>
       </c>
       <c r="P92" t="n">
-        <v>62.47802479304653</v>
+        <v>70.47952598678253</v>
       </c>
       <c r="Q92" t="n">
-        <v>39.77944797663547</v>
+        <v>44.42397746953068</v>
       </c>
       <c r="R92" t="n">
-        <v>129.5076638777371</v>
+        <v>149.5495767004829</v>
       </c>
       <c r="S92" t="n">
-        <v>46.82990891921733</v>
+        <v>142.4869193746164</v>
       </c>
       <c r="T92" t="n">
-        <v>36.98507251724052</v>
+        <v>79.17091789339199</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>144.5819708859435</v>
+        <v>72.9255455858961</v>
       </c>
       <c r="B93" t="n">
-        <v>50.6726353448312</v>
+        <v>46.51809650051408</v>
       </c>
       <c r="C93" t="n">
-        <v>29.44897841013916</v>
+        <v>139.5241685376601</v>
       </c>
       <c r="D93" t="n">
-        <v>37.28205164223982</v>
+        <v>167.1093614308381</v>
       </c>
       <c r="E93" t="n">
-        <v>29.50100473531327</v>
+        <v>31.6994083781937</v>
       </c>
       <c r="F93" t="n">
-        <v>71.48996176177928</v>
+        <v>79.20098323104553</v>
       </c>
       <c r="G93" t="n">
-        <v>157.0126225810874</v>
+        <v>134.3395140350091</v>
       </c>
       <c r="H93" t="n">
-        <v>48.58372865042268</v>
+        <v>185.7891012307103</v>
       </c>
       <c r="I93" t="n">
-        <v>64.04424854757038</v>
+        <v>30.94232000176925</v>
       </c>
       <c r="J93" t="n">
-        <v>54.0065080017129</v>
+        <v>96.17741675840882</v>
       </c>
       <c r="K93" t="n">
-        <v>153.5831068549616</v>
+        <v>163.5260884810268</v>
       </c>
       <c r="L93" t="n">
-        <v>105.2751724844394</v>
+        <v>8.3469110270043</v>
       </c>
       <c r="M93" t="n">
-        <v>25.42380611197331</v>
+        <v>114.4456742303535</v>
       </c>
       <c r="N93" t="n">
-        <v>66.56319151891549</v>
+        <v>40.35627865884796</v>
       </c>
       <c r="O93" t="n">
-        <v>79.57653994588107</v>
+        <v>69.29262273705442</v>
       </c>
       <c r="P93" t="n">
-        <v>56.49774833936367</v>
+        <v>66.43121839891201</v>
       </c>
       <c r="Q93" t="n">
-        <v>29.51095502865643</v>
+        <v>155.3395380814704</v>
       </c>
       <c r="R93" t="n">
-        <v>126.7309235681902</v>
+        <v>95.42050627186737</v>
       </c>
       <c r="S93" t="n">
-        <v>38.49067880357172</v>
+        <v>67.12503015876425</v>
       </c>
       <c r="T93" t="n">
-        <v>25.62006195314668</v>
+        <v>75.24397585419293</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>147.6571626709744</v>
+        <v>58.1333474444579</v>
       </c>
       <c r="B94" t="n">
-        <v>58.87620364433342</v>
+        <v>94.82211377307934</v>
       </c>
       <c r="C94" t="n">
-        <v>42.02301407776013</v>
+        <v>74.41944786976218</v>
       </c>
       <c r="D94" t="n">
-        <v>47.83976126020511</v>
+        <v>93.31677955092222</v>
       </c>
       <c r="E94" t="n">
-        <v>42.05948957336215</v>
+        <v>122.3230360614576</v>
       </c>
       <c r="F94" t="n">
-        <v>77.52100370531491</v>
+        <v>74.27502517151791</v>
       </c>
       <c r="G94" t="n">
-        <v>159.8488505825731</v>
+        <v>78.30921891885481</v>
       </c>
       <c r="H94" t="n">
-        <v>57.08826562750602</v>
+        <v>128.2899094427607</v>
       </c>
       <c r="I94" t="n">
-        <v>70.71320353937978</v>
+        <v>80.20952262774291</v>
       </c>
       <c r="J94" t="n">
-        <v>61.76887799950606</v>
+        <v>129.9592657049633</v>
       </c>
       <c r="K94" t="n">
-        <v>156.4815071949441</v>
+        <v>88.8744403816973</v>
       </c>
       <c r="L94" t="n">
-        <v>109.4602819492406</v>
+        <v>82.65316699682094</v>
       </c>
       <c r="M94" t="n">
-        <v>39.30726777579427</v>
+        <v>109.8327150757515</v>
       </c>
       <c r="N94" t="n">
-        <v>73.00239617959541</v>
+        <v>108.0229123688099</v>
       </c>
       <c r="O94" t="n">
-        <v>85.03597528421244</v>
+        <v>57.2976084002773</v>
       </c>
       <c r="P94" t="n">
-        <v>63.95847832927902</v>
+        <v>101.8500677747292</v>
       </c>
       <c r="Q94" t="n">
-        <v>42.06646942021835</v>
+        <v>123.5300998013204</v>
       </c>
       <c r="R94" t="n">
-        <v>130.2283316764261</v>
+        <v>18.22737246255806</v>
       </c>
       <c r="S94" t="n">
-        <v>48.78753670291736</v>
+        <v>30.60311253532643</v>
       </c>
       <c r="T94" t="n">
-        <v>39.43448943833124</v>
+        <v>56.03698681375615</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>144.6005399942972</v>
+        <v>79.69449711050135</v>
       </c>
       <c r="B95" t="n">
-        <v>50.72559348266691</v>
+        <v>97.83801006029113</v>
       </c>
       <c r="C95" t="n">
-        <v>29.54000999964939</v>
+        <v>147.2604590570268</v>
       </c>
       <c r="D95" t="n">
-        <v>37.35399892960834</v>
+        <v>210.8953955930562</v>
       </c>
       <c r="E95" t="n">
-        <v>29.59187628001171</v>
+        <v>49.63942000908544</v>
       </c>
       <c r="F95" t="n">
-        <v>71.52750865281978</v>
+        <v>130.9669507231338</v>
       </c>
       <c r="G95" t="n">
-        <v>157.029721744546</v>
+        <v>182.0168825353435</v>
       </c>
       <c r="H95" t="n">
-        <v>48.63896124462821</v>
+        <v>234.5386035984336</v>
       </c>
       <c r="I95" t="n">
-        <v>64.08615789233673</v>
+        <v>83.3658907918129</v>
       </c>
       <c r="J95" t="n">
-        <v>54.05620008766454</v>
+        <v>145.4285348899859</v>
       </c>
       <c r="K95" t="n">
-        <v>153.6005878003112</v>
+        <v>174.0580404729973</v>
       </c>
       <c r="L95" t="n">
-        <v>105.3006733264655</v>
+        <v>54.74131903701246</v>
       </c>
       <c r="M95" t="n">
-        <v>25.52919463276809</v>
+        <v>166.8868731785302</v>
       </c>
       <c r="N95" t="n">
-        <v>66.60351587237994</v>
+        <v>15.6697656251474</v>
       </c>
       <c r="O95" t="n">
-        <v>79.61027302513759</v>
+        <v>77.43646903668922</v>
       </c>
       <c r="P95" t="n">
-        <v>56.54525116043446</v>
+        <v>117.7322360283527</v>
       </c>
       <c r="Q95" t="n">
-        <v>29.60179602797651</v>
+        <v>207.1200097459522</v>
       </c>
       <c r="R95" t="n">
-        <v>126.7521078713289</v>
+        <v>120.8649375332073</v>
       </c>
       <c r="S95" t="n">
-        <v>38.56037105809887</v>
+        <v>93.66097451837352</v>
       </c>
       <c r="T95" t="n">
-        <v>25.72464646718431</v>
+        <v>124.7300874999444</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>142.409515992743</v>
+        <v>82.69496511570122</v>
       </c>
       <c r="B96" t="n">
-        <v>44.09353595271925</v>
+        <v>173.233018783274</v>
       </c>
       <c r="C96" t="n">
-        <v>15.6130160258789</v>
+        <v>13.40325376262986</v>
       </c>
       <c r="D96" t="n">
-        <v>27.68529058323475</v>
+        <v>143.7050102997058</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7109267841361</v>
+        <v>182.1493151953861</v>
       </c>
       <c r="F96" t="n">
-        <v>66.98760014154988</v>
+        <v>158.5382348134652</v>
       </c>
       <c r="G96" t="n">
-        <v>155.0144754202475</v>
+        <v>149.3347783754432</v>
       </c>
       <c r="H96" t="n">
-        <v>41.67616380620235</v>
+        <v>188.3454421424186</v>
       </c>
       <c r="I96" t="n">
-        <v>58.97617919165736</v>
+        <v>155.17939897529</v>
       </c>
       <c r="J96" t="n">
-        <v>47.88764816278399</v>
+        <v>213.3535141443425</v>
       </c>
       <c r="K96" t="n">
-        <v>151.5397461105372</v>
+        <v>15.24818692556561</v>
       </c>
       <c r="L96" t="n">
-        <v>102.2711390454413</v>
+        <v>144.6209286941566</v>
       </c>
       <c r="M96" t="n">
-        <v>4.784752579049464</v>
+        <v>193.3343314006063</v>
       </c>
       <c r="N96" t="n">
-        <v>61.70236952668294</v>
+        <v>148.4832642353828</v>
       </c>
       <c r="O96" t="n">
-        <v>75.55759160919514</v>
+        <v>85.8087232349875</v>
       </c>
       <c r="P96" t="n">
-        <v>50.68056340888072</v>
+        <v>183.7179302525604</v>
       </c>
       <c r="Q96" t="n">
-        <v>15.72960287886796</v>
+        <v>199.458865556097</v>
       </c>
       <c r="R96" t="n">
-        <v>124.2467340756688</v>
+        <v>67.73384967636538</v>
       </c>
       <c r="S96" t="n">
-        <v>29.29259795209763</v>
+        <v>88.94299281174861</v>
       </c>
       <c r="T96" t="n">
-        <v>5.736855803189009</v>
+        <v>140.2930838306085</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>149.8016227830529</v>
+        <v>124.8622207067526</v>
       </c>
       <c r="B97" t="n">
-        <v>64.06477859137982</v>
+        <v>23.11058738576241</v>
       </c>
       <c r="C97" t="n">
-        <v>49.02878962990138</v>
+        <v>177.2678972870277</v>
       </c>
       <c r="D97" t="n">
-        <v>54.09742376330799</v>
+        <v>142.3993203601847</v>
       </c>
       <c r="E97" t="n">
-        <v>49.06005670161072</v>
+        <v>78.10271502037563</v>
       </c>
       <c r="F97" t="n">
-        <v>81.53155533824278</v>
+        <v>41.21333433751076</v>
       </c>
       <c r="G97" t="n">
-        <v>161.8318372044366</v>
+        <v>102.3360224798936</v>
       </c>
       <c r="H97" t="n">
-        <v>62.42562432807689</v>
+        <v>143.9916755258914</v>
       </c>
       <c r="I97" t="n">
-        <v>75.08825244467508</v>
+        <v>42.43255610374965</v>
       </c>
       <c r="J97" t="n">
-        <v>66.7329213335619</v>
+        <v>27.75964300634185</v>
       </c>
       <c r="K97" t="n">
-        <v>158.5066263422285</v>
+        <v>195.2796871895294</v>
       </c>
       <c r="L97" t="n">
-        <v>112.3362889933647</v>
+        <v>71.14539473879881</v>
       </c>
       <c r="M97" t="n">
-        <v>46.72204833257521</v>
+        <v>53.80833514977866</v>
       </c>
       <c r="N97" t="n">
-        <v>77.2479019026155</v>
+        <v>109.6949878606843</v>
       </c>
       <c r="O97" t="n">
-        <v>88.70741565918088</v>
+        <v>121.3060557303036</v>
       </c>
       <c r="P97" t="n">
-        <v>68.76463808230473</v>
+        <v>5.137435938454659</v>
       </c>
       <c r="Q97" t="n">
-        <v>49.06604069899736</v>
+        <v>101.2654583679384</v>
       </c>
       <c r="R97" t="n">
-        <v>132.6548411164054</v>
+        <v>121.4362359485809</v>
       </c>
       <c r="S97" t="n">
-        <v>54.93734829723771</v>
+        <v>102.3738906407614</v>
       </c>
       <c r="T97" t="n">
-        <v>46.82913043881295</v>
+        <v>55.15384000623595</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>204.4879757544161</v>
+        <v>19.59522348121966</v>
       </c>
       <c r="B98" t="n">
-        <v>153.2289199063451</v>
+        <v>90.12826484743491</v>
       </c>
       <c r="C98" t="n">
-        <v>147.575838985505</v>
+        <v>88.81782722422994</v>
       </c>
       <c r="D98" t="n">
-        <v>149.3363227668658</v>
+        <v>157.879324686072</v>
       </c>
       <c r="E98" t="n">
-        <v>147.5862297210273</v>
+        <v>80.90082140281272</v>
       </c>
       <c r="F98" t="n">
-        <v>161.3139812774316</v>
+        <v>101.4780858055094</v>
       </c>
       <c r="G98" t="n">
-        <v>213.458074508007</v>
+        <v>135.9128679358775</v>
       </c>
       <c r="H98" t="n">
-        <v>152.5508591009988</v>
+        <v>188.5164657238337</v>
       </c>
       <c r="I98" t="n">
-        <v>158.1551507061905</v>
+        <v>69.83165177697332</v>
       </c>
       <c r="J98" t="n">
-        <v>154.3634957799737</v>
+        <v>139.5317742345048</v>
       </c>
       <c r="K98" t="n">
-        <v>210.9482321189192</v>
+        <v>114.668572728155</v>
       </c>
       <c r="L98" t="n">
-        <v>178.8693597699263</v>
+        <v>47.45789902425508</v>
       </c>
       <c r="M98" t="n">
-        <v>146.8255966788287</v>
+        <v>142.0355599042688</v>
       </c>
       <c r="N98" t="n">
-        <v>159.1918477437167</v>
+        <v>48.02079202528453</v>
       </c>
       <c r="O98" t="n">
-        <v>165.0569951036104</v>
+        <v>16.42203700939062</v>
       </c>
       <c r="P98" t="n">
-        <v>155.2526376274907</v>
+        <v>107.3318753806947</v>
       </c>
       <c r="Q98" t="n">
-        <v>147.5882190067292</v>
+        <v>171.9439682676337</v>
       </c>
       <c r="R98" t="n">
-        <v>192.2813379174415</v>
+        <v>59.54986861283455</v>
       </c>
       <c r="S98" t="n">
-        <v>149.642635226845</v>
+        <v>35.05127775139284</v>
       </c>
       <c r="T98" t="n">
-        <v>146.859706854392</v>
+        <v>87.99467050832932</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>158.7239755942046</v>
+        <v>112.9237913293006</v>
       </c>
       <c r="B99" t="n">
-        <v>82.8074277825128</v>
+        <v>110.9010908282978</v>
       </c>
       <c r="C99" t="n">
-        <v>71.80944542723248</v>
+        <v>114.8320365802183</v>
       </c>
       <c r="D99" t="n">
-        <v>75.36116704125855</v>
+        <v>40.34479799240137</v>
       </c>
       <c r="E99" t="n">
-        <v>71.83079704109382</v>
+        <v>156.8446806470718</v>
       </c>
       <c r="F99" t="n">
-        <v>96.95446743635128</v>
+        <v>70.58032051091404</v>
       </c>
       <c r="G99" t="n">
-        <v>170.1244185087986</v>
+        <v>29.27259413455097</v>
       </c>
       <c r="H99" t="n">
-        <v>81.54589390486647</v>
+        <v>73.78432242752497</v>
       </c>
       <c r="I99" t="n">
-        <v>91.60251031051936</v>
+        <v>105.4245893789448</v>
       </c>
       <c r="J99" t="n">
-        <v>84.88849762897749</v>
+        <v>125.2609741085602</v>
       </c>
       <c r="K99" t="n">
-        <v>166.9644418263613</v>
+        <v>118.2352953791497</v>
       </c>
       <c r="L99" t="n">
-        <v>123.9847412579238</v>
+        <v>121.1166548620949</v>
       </c>
       <c r="M99" t="n">
-        <v>70.25470831471047</v>
+        <v>87.16408932809637</v>
       </c>
       <c r="N99" t="n">
-        <v>93.38100764261253</v>
+        <v>154.9503333201631</v>
       </c>
       <c r="O99" t="n">
-        <v>103.0620193520593</v>
+        <v>111.8480907924922</v>
       </c>
       <c r="P99" t="n">
-        <v>86.49479574277234</v>
+        <v>107.6127258609543</v>
       </c>
       <c r="Q99" t="n">
-        <v>71.83488421281974</v>
+        <v>79.93758865301079</v>
       </c>
       <c r="R99" t="n">
-        <v>142.6537104726417</v>
+        <v>69.88486820971205</v>
       </c>
       <c r="S99" t="n">
-        <v>75.96635095833919</v>
+        <v>83.46780307763103</v>
       </c>
       <c r="T99" t="n">
-        <v>70.32596744907895</v>
+        <v>59.35080850298144</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>157.2535542177923</v>
+        <v>79.15220466821367</v>
       </c>
       <c r="B100" t="n">
-        <v>79.95279846043266</v>
+        <v>79.82670298653966</v>
       </c>
       <c r="C100" t="n">
-        <v>68.49800243996295</v>
+        <v>101.2969806913474</v>
       </c>
       <c r="D100" t="n">
-        <v>72.21277853343524</v>
+        <v>79.41096006405684</v>
       </c>
       <c r="E100" t="n">
-        <v>68.52038593920282</v>
+        <v>119.4344983370643</v>
       </c>
       <c r="F100" t="n">
-        <v>94.52803098322207</v>
+        <v>49.96122997193205</v>
       </c>
       <c r="G100" t="n">
-        <v>168.7533633995344</v>
+        <v>55.13786808722259</v>
       </c>
       <c r="H100" t="n">
-        <v>78.64548746394944</v>
+        <v>107.4684942087653</v>
       </c>
       <c r="I100" t="n">
-        <v>89.03033067942238</v>
+        <v>70.0858436332438</v>
       </c>
       <c r="J100" t="n">
-        <v>82.10625381420959</v>
+        <v>107.3282595774614</v>
       </c>
       <c r="K100" t="n">
-        <v>165.5672211522767</v>
+        <v>113.5139257527169</v>
       </c>
       <c r="L100" t="n">
-        <v>122.0966664184276</v>
+        <v>82.47056763687809</v>
       </c>
       <c r="M100" t="n">
-        <v>66.86631383651665</v>
+        <v>82.91644797088546</v>
       </c>
       <c r="N100" t="n">
-        <v>90.85919036645743</v>
+        <v>115.873801636653</v>
       </c>
       <c r="O100" t="n">
-        <v>100.7827352209828</v>
+        <v>77.37786471535316</v>
       </c>
       <c r="P100" t="n">
-        <v>83.76592133011131</v>
+        <v>82.24805458080874</v>
       </c>
       <c r="Q100" t="n">
-        <v>68.5246705615409</v>
+        <v>97.00800438305646</v>
       </c>
       <c r="R100" t="n">
-        <v>141.0158182521053</v>
+        <v>45.65882156904144</v>
       </c>
       <c r="S100" t="n">
-        <v>72.84412374120545</v>
+        <v>48.02736071357845</v>
       </c>
       <c r="T100" t="n">
-        <v>66.94118002655317</v>
+        <v>32.48862839488864</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>218.467135216111</v>
+        <v>86.25358179013682</v>
       </c>
       <c r="B101" t="n">
-        <v>171.4399569442928</v>
+        <v>110.9422996674371</v>
       </c>
       <c r="C101" t="n">
-        <v>166.4066861447327</v>
+        <v>84.32656250514103</v>
       </c>
       <c r="D101" t="n">
-        <v>167.9699206373729</v>
+        <v>65.56223934596116</v>
       </c>
       <c r="E101" t="n">
-        <v>166.4159011172421</v>
+        <v>147.018002698464</v>
       </c>
       <c r="F101" t="n">
-        <v>178.7029868160333</v>
+        <v>79.35884502910024</v>
       </c>
       <c r="G101" t="n">
-        <v>226.8852276241486</v>
+        <v>59.17533296391041</v>
       </c>
       <c r="H101" t="n">
-        <v>170.834193163572</v>
+        <v>104.1868919182609</v>
       </c>
       <c r="I101" t="n">
-        <v>175.8567844477252</v>
+        <v>100.0916657724625</v>
       </c>
       <c r="J101" t="n">
-        <v>172.4547644189913</v>
+        <v>136.9589637829135</v>
       </c>
       <c r="K101" t="n">
-        <v>224.5255298969213</v>
+        <v>90.28305963764656</v>
       </c>
       <c r="L101" t="n">
-        <v>194.6966995249257</v>
+        <v>108.2704579332236</v>
       </c>
       <c r="M101" t="n">
-        <v>165.7417050156355</v>
+        <v>106.8918345913552</v>
       </c>
       <c r="N101" t="n">
-        <v>176.7897093426383</v>
+        <v>136.5650782224476</v>
       </c>
       <c r="O101" t="n">
-        <v>182.0889029403745</v>
+        <v>85.78128982129988</v>
       </c>
       <c r="P101" t="n">
-        <v>173.2510849365417</v>
+        <v>113.2228883360922</v>
       </c>
       <c r="Q101" t="n">
-        <v>166.4176653212456</v>
+        <v>108.859895654763</v>
       </c>
       <c r="R101" t="n">
-        <v>207.0861411411135</v>
+        <v>40.40231427053861</v>
       </c>
       <c r="S101" t="n">
-        <v>168.2423110249929</v>
+        <v>59.76333111840263</v>
       </c>
       <c r="T101" t="n">
-        <v>165.7719229506426</v>
+        <v>62.96521145217363</v>
       </c>
     </row>
   </sheetData>
